--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF48949-CD48-4193-9F3A-4EFCDB4C8DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF89F12-C807-461C-8213-FAD1D8C6292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6321,7 +6321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6343,6 +6343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6569,7 +6575,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6802,6 +6808,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9714,10 +9723,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D158" sqref="D158"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9883,7 +9892,7 @@
       <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="78" t="s">
         <v>1013</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -9931,7 +9940,7 @@
       <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="78" t="s">
         <v>1014</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -9979,7 +9988,7 @@
       <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="78" t="s">
         <v>1015</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -10027,7 +10036,7 @@
       <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="78" t="s">
         <v>1016</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -10075,7 +10084,7 @@
       <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="78" t="s">
         <v>1017</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -10123,7 +10132,7 @@
       <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="78" t="s">
         <v>1018</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -10171,7 +10180,7 @@
       <c r="B10" s="38">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="78" t="s">
         <v>1019</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -10219,7 +10228,7 @@
       <c r="B11" s="38">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="78" t="s">
         <v>1020</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -10267,7 +10276,7 @@
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="78" t="s">
         <v>1021</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -10315,7 +10324,7 @@
       <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="78" t="s">
         <v>1022</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -10363,7 +10372,7 @@
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="78" t="s">
         <v>1023</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -10411,7 +10420,7 @@
       <c r="B15" s="38">
         <v>2</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="78" t="s">
         <v>1024</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -10459,7 +10468,7 @@
       <c r="B16" s="38">
         <v>2</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="78" t="s">
         <v>1025</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -10507,7 +10516,7 @@
       <c r="B17" s="38">
         <v>2</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="78" t="s">
         <v>1026</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -10555,7 +10564,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="78" t="s">
         <v>1027</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -10891,7 +10900,7 @@
       <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="78" t="s">
         <v>1891</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -10938,7 +10947,7 @@
       <c r="B26" s="38">
         <v>2</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="78" t="s">
         <v>1892</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -10985,7 +10994,7 @@
       <c r="B27" s="38">
         <v>4</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="78" t="s">
         <v>1389</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -11033,7 +11042,7 @@
       <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="78" t="s">
         <v>1391</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -11081,7 +11090,7 @@
       <c r="B29" s="38">
         <v>4</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="78" t="s">
         <v>1393</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -11129,7 +11138,7 @@
       <c r="B30" s="38">
         <v>4</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="78" t="s">
         <v>1395</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -49685,12 +49694,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49911,15 +49917,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49944,18 +49962,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF89F12-C807-461C-8213-FAD1D8C6292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F994224-3FCC-4A08-9070-84C0889DD982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9726,7 +9726,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11186,7 +11186,7 @@
       <c r="B31" s="38">
         <v>4</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="78" t="s">
         <v>1397</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -11234,7 +11234,7 @@
       <c r="B32" s="38">
         <v>4</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="78" t="s">
         <v>1399</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -11282,7 +11282,7 @@
       <c r="B33" s="44">
         <v>4</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="78" t="s">
         <v>1401</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -11330,7 +11330,7 @@
       <c r="B34" s="44">
         <v>4</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="78" t="s">
         <v>1403</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -11378,7 +11378,7 @@
       <c r="B35" s="44">
         <v>4</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="78" t="s">
         <v>1405</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -11426,7 +11426,7 @@
       <c r="B36" s="44">
         <v>4</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="78" t="s">
         <v>1407</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -11474,7 +11474,7 @@
       <c r="B37" s="44">
         <v>4</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="78" t="s">
         <v>1409</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -11522,7 +11522,7 @@
       <c r="B38" s="44">
         <v>4</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="78" t="s">
         <v>1411</v>
       </c>
       <c r="D38" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F994224-3FCC-4A08-9070-84C0889DD982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D370C-132F-4D33-9A15-640D92F04318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9723,10 +9723,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11570,7 +11570,7 @@
       <c r="B39" s="38">
         <v>4</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="78" t="s">
         <v>674</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -11618,7 +11618,7 @@
       <c r="B40" s="38">
         <v>4</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="78" t="s">
         <v>1256</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -11666,7 +11666,7 @@
       <c r="B41" s="38">
         <v>4</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="78" t="s">
         <v>675</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -11714,7 +11714,7 @@
       <c r="B42" s="38">
         <v>4</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="78" t="s">
         <v>676</v>
       </c>
       <c r="D42" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D370C-132F-4D33-9A15-640D92F04318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A710B-C95F-47B1-992D-2B37363CF716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6180,7 +6180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6316,6 +6316,13 @@
     <font>
       <i/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6575,7 +6582,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6811,6 +6818,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9723,10 +9736,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39:C42"/>
+      <selection pane="bottomRight" activeCell="C82" activeCellId="1" sqref="C81 C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11906,7 +11919,7 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="79" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -11954,7 +11967,7 @@
       <c r="B47" s="38">
         <v>1</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="79" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -12002,7 +12015,7 @@
       <c r="B48" s="38">
         <v>1</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="79" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -12050,7 +12063,7 @@
       <c r="B49" s="38">
         <v>1</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="79" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -12146,7 +12159,7 @@
       <c r="B51" s="38">
         <v>1</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="79" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -12242,7 +12255,7 @@
       <c r="B53" s="38">
         <v>1</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="79" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -12290,7 +12303,7 @@
       <c r="B54" s="38">
         <v>1</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -12338,7 +12351,7 @@
       <c r="B55" s="38">
         <v>1</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="79" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -12431,7 +12444,7 @@
       <c r="A57" s="38" t="s">
         <v>1821</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="80">
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -12481,7 +12494,7 @@
       <c r="B58" s="38">
         <v>1</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="79" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="18" t="s">
@@ -12529,7 +12542,7 @@
       <c r="B59" s="38">
         <v>1</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -12577,7 +12590,7 @@
       <c r="B60" s="38">
         <v>1</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="79" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -12625,7 +12638,7 @@
       <c r="B61" s="38">
         <v>1</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="79" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -12673,7 +12686,7 @@
       <c r="B62" s="38">
         <v>1</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="79" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="18" t="s">
@@ -12721,7 +12734,7 @@
       <c r="B63" s="38">
         <v>1</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="79" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -12769,7 +12782,7 @@
       <c r="B64" s="38">
         <v>1</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="79" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -12817,7 +12830,7 @@
       <c r="B65" s="38">
         <v>1</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="79" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="18" t="s">
@@ -13105,7 +13118,7 @@
       <c r="B71" s="73">
         <v>2</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="78" t="s">
         <v>1270</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -13159,7 +13172,7 @@
       <c r="B72" s="73">
         <v>2</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="78" t="s">
         <v>1825</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -13213,7 +13226,7 @@
       <c r="B73" s="38">
         <v>2</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="79" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -13360,7 +13373,7 @@
       <c r="B76" s="38">
         <v>2</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="78" t="s">
         <v>1068</v>
       </c>
       <c r="D76" s="18" t="s">
@@ -13407,7 +13420,7 @@
       <c r="B77" s="38">
         <v>2</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="79" t="s">
         <v>150</v>
       </c>
       <c r="D77" s="18" t="s">
@@ -13601,7 +13614,7 @@
       <c r="B81" s="38">
         <v>2</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="79" t="s">
         <v>695</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -13648,7 +13661,7 @@
       <c r="B82" s="38">
         <v>2</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="79" t="s">
         <v>697</v>
       </c>
       <c r="D82" s="18" t="s">
@@ -46249,7 +46262,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A710B-C95F-47B1-992D-2B37363CF716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B2371-019A-43F1-96F6-4B9843E259FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6328,7 +6328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6356,6 +6356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6582,7 +6588,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6813,9 +6819,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6823,6 +6826,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9736,10 +9748,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" activeCellId="1" sqref="C81 C82"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9905,7 +9917,7 @@
       <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>1013</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -9953,7 +9965,7 @@
       <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>1014</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -10001,7 +10013,7 @@
       <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>1015</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -10049,7 +10061,7 @@
       <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>1016</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -10097,7 +10109,7 @@
       <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>1017</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -10145,7 +10157,7 @@
       <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>1018</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -10193,7 +10205,7 @@
       <c r="B10" s="38">
         <v>2</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>1019</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -10241,7 +10253,7 @@
       <c r="B11" s="38">
         <v>2</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>1020</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -10289,7 +10301,7 @@
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>1021</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -10337,7 +10349,7 @@
       <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>1022</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -10385,7 +10397,7 @@
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>1023</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -10433,7 +10445,7 @@
       <c r="B15" s="38">
         <v>2</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="77" t="s">
         <v>1024</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -10481,7 +10493,7 @@
       <c r="B16" s="38">
         <v>2</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>1025</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -10529,7 +10541,7 @@
       <c r="B17" s="38">
         <v>2</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>1026</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -10577,7 +10589,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>1027</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -10913,7 +10925,7 @@
       <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>1891</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -10960,7 +10972,7 @@
       <c r="B26" s="38">
         <v>2</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>1892</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -11007,7 +11019,7 @@
       <c r="B27" s="38">
         <v>4</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>1389</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -11055,7 +11067,7 @@
       <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>1391</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -11103,7 +11115,7 @@
       <c r="B29" s="38">
         <v>4</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>1393</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -11151,7 +11163,7 @@
       <c r="B30" s="38">
         <v>4</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>1395</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -11199,7 +11211,7 @@
       <c r="B31" s="38">
         <v>4</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="77" t="s">
         <v>1397</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -11247,7 +11259,7 @@
       <c r="B32" s="38">
         <v>4</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="77" t="s">
         <v>1399</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -11295,7 +11307,7 @@
       <c r="B33" s="44">
         <v>4</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>1401</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -11343,7 +11355,7 @@
       <c r="B34" s="44">
         <v>4</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="77" t="s">
         <v>1403</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -11391,7 +11403,7 @@
       <c r="B35" s="44">
         <v>4</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="77" t="s">
         <v>1405</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -11439,7 +11451,7 @@
       <c r="B36" s="44">
         <v>4</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="77" t="s">
         <v>1407</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -11487,7 +11499,7 @@
       <c r="B37" s="44">
         <v>4</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>1409</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -11535,7 +11547,7 @@
       <c r="B38" s="44">
         <v>4</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="77" t="s">
         <v>1411</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -11583,7 +11595,7 @@
       <c r="B39" s="38">
         <v>4</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>674</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -11631,7 +11643,7 @@
       <c r="B40" s="38">
         <v>4</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="77" t="s">
         <v>1256</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -11679,7 +11691,7 @@
       <c r="B41" s="38">
         <v>4</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="77" t="s">
         <v>675</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -11727,7 +11739,7 @@
       <c r="B42" s="38">
         <v>4</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>676</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -11919,7 +11931,7 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -11967,7 +11979,7 @@
       <c r="B47" s="38">
         <v>1</v>
       </c>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="78" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -12015,7 +12027,7 @@
       <c r="B48" s="38">
         <v>1</v>
       </c>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -12063,7 +12075,7 @@
       <c r="B49" s="38">
         <v>1</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="78" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -12159,7 +12171,7 @@
       <c r="B51" s="38">
         <v>1</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -12255,7 +12267,7 @@
       <c r="B53" s="38">
         <v>1</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -12303,7 +12315,7 @@
       <c r="B54" s="38">
         <v>1</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -12351,7 +12363,7 @@
       <c r="B55" s="38">
         <v>1</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="78" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -12444,7 +12456,7 @@
       <c r="A57" s="38" t="s">
         <v>1821</v>
       </c>
-      <c r="B57" s="80">
+      <c r="B57" s="79">
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -12494,7 +12506,7 @@
       <c r="B58" s="38">
         <v>1</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="78" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="18" t="s">
@@ -12542,7 +12554,7 @@
       <c r="B59" s="38">
         <v>1</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="78" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -12590,7 +12602,7 @@
       <c r="B60" s="38">
         <v>1</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="78" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -12638,7 +12650,7 @@
       <c r="B61" s="38">
         <v>1</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="78" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -12686,7 +12698,7 @@
       <c r="B62" s="38">
         <v>1</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="18" t="s">
@@ -12734,7 +12746,7 @@
       <c r="B63" s="38">
         <v>1</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="78" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -12782,7 +12794,7 @@
       <c r="B64" s="38">
         <v>1</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="78" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -12830,7 +12842,7 @@
       <c r="B65" s="38">
         <v>1</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="78" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="18" t="s">
@@ -13118,7 +13130,7 @@
       <c r="B71" s="73">
         <v>2</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -13172,7 +13184,7 @@
       <c r="B72" s="73">
         <v>2</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="77" t="s">
         <v>1825</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -13226,7 +13238,7 @@
       <c r="B73" s="38">
         <v>2</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="78" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -13373,7 +13385,7 @@
       <c r="B76" s="38">
         <v>2</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D76" s="18" t="s">
@@ -13420,7 +13432,7 @@
       <c r="B77" s="38">
         <v>2</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="78" t="s">
         <v>150</v>
       </c>
       <c r="D77" s="18" t="s">
@@ -13614,7 +13626,7 @@
       <c r="B81" s="38">
         <v>2</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="78" t="s">
         <v>695</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -13661,7 +13673,7 @@
       <c r="B82" s="38">
         <v>2</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="78" t="s">
         <v>697</v>
       </c>
       <c r="D82" s="18" t="s">
@@ -13804,7 +13816,7 @@
       <c r="B85" s="38">
         <v>2</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="81" t="s">
         <v>1070</v>
       </c>
       <c r="D85" s="18" t="s">
@@ -13852,7 +13864,7 @@
       <c r="B86" s="38">
         <v>2</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="81" t="s">
         <v>1832</v>
       </c>
       <c r="D86" s="18" t="s">
@@ -14941,7 +14953,7 @@
       <c r="B109" s="38">
         <v>2</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="82" t="s">
         <v>41</v>
       </c>
       <c r="D109" s="18" t="s">
@@ -15036,7 +15048,7 @@
       <c r="B111" s="38">
         <v>2</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="82" t="s">
         <v>1071</v>
       </c>
       <c r="D111" s="22" t="s">
@@ -15084,7 +15096,7 @@
       <c r="B112" s="38">
         <v>2</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="82" t="s">
         <v>1073</v>
       </c>
       <c r="D112" s="22" t="s">
@@ -15132,7 +15144,7 @@
       <c r="B113" s="38">
         <v>2</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="D113" s="22" t="s">
@@ -15180,7 +15192,7 @@
       <c r="B114" s="38">
         <v>2</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="82" t="s">
         <v>1076</v>
       </c>
       <c r="D114" s="22" t="s">
@@ -15228,7 +15240,7 @@
       <c r="B115" s="38">
         <v>2</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="82" t="s">
         <v>1078</v>
       </c>
       <c r="D115" s="22" t="s">
@@ -15276,7 +15288,7 @@
       <c r="B116" s="38">
         <v>2</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="D116" s="22" t="s">
@@ -15324,7 +15336,7 @@
       <c r="B117" s="38">
         <v>2</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="82" t="s">
         <v>1081</v>
       </c>
       <c r="D117" s="22" t="s">
@@ -15372,7 +15384,7 @@
       <c r="B118" s="38">
         <v>2</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="82" t="s">
         <v>1083</v>
       </c>
       <c r="D118" s="22" t="s">
@@ -15424,7 +15436,7 @@
       <c r="B119" s="38">
         <v>2</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="82" t="s">
         <v>1084</v>
       </c>
       <c r="D119" s="22" t="s">
@@ -15472,7 +15484,7 @@
       <c r="B120" s="38">
         <v>2</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="82" t="s">
         <v>1086</v>
       </c>
       <c r="D120" s="22" t="s">
@@ -15520,7 +15532,7 @@
       <c r="B121" s="38">
         <v>2</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="82" t="s">
         <v>1087</v>
       </c>
       <c r="D121" s="22" t="s">
@@ -49401,10 +49413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="6" t="s">
         <v>58</v>
       </c>
@@ -49707,9 +49719,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49930,27 +49945,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49975,9 +49978,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819A02ED-A714-4424-8B48-908EA06B93E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C280F5-F55E-44E7-A5D0-3AEF556D0E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9751,10 +9751,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D144" sqref="D144"/>
+      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16638,7 +16638,7 @@
       <c r="B144" s="74">
         <v>2</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="81" t="s">
         <v>91</v>
       </c>
       <c r="D144" s="18" t="s">
@@ -16686,7 +16686,7 @@
       <c r="B145" s="38">
         <v>2</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="82" t="s">
         <v>92</v>
       </c>
       <c r="D145" s="18" t="s">
@@ -16734,7 +16734,7 @@
       <c r="B146" s="38">
         <v>2</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C146" s="82" t="s">
         <v>93</v>
       </c>
       <c r="D146" s="18" t="s">
@@ -16782,7 +16782,7 @@
       <c r="B147" s="38">
         <v>2</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="82" t="s">
         <v>95</v>
       </c>
       <c r="D147" s="18" t="s">
@@ -16830,7 +16830,7 @@
       <c r="B148" s="38">
         <v>2</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="82" t="s">
         <v>97</v>
       </c>
       <c r="D148" s="18" t="s">
@@ -16926,7 +16926,7 @@
       <c r="B150" s="38">
         <v>2</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="82" t="s">
         <v>532</v>
       </c>
       <c r="D150" s="18" t="s">
@@ -16974,7 +16974,7 @@
       <c r="B151" s="38">
         <v>2</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="82" t="s">
         <v>534</v>
       </c>
       <c r="D151" s="18" t="s">
@@ -17021,7 +17021,7 @@
       <c r="B152" s="38">
         <v>2</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="82" t="s">
         <v>536</v>
       </c>
       <c r="D152" s="18" t="s">
@@ -17069,7 +17069,7 @@
       <c r="B153" s="38">
         <v>2</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="82" t="s">
         <v>538</v>
       </c>
       <c r="D153" s="18" t="s">
@@ -17117,7 +17117,7 @@
       <c r="B154" s="38">
         <v>2</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="82" t="s">
         <v>733</v>
       </c>
       <c r="D154" s="18" t="s">
@@ -17165,7 +17165,7 @@
       <c r="B155" s="72">
         <v>2</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" s="82" t="s">
         <v>1279</v>
       </c>
       <c r="D155" s="22" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C280F5-F55E-44E7-A5D0-3AEF556D0E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E9C24-97E3-4A3B-BBBD-6370AB5BC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -6328,7 +6328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6355,13 +6355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6819,25 +6825,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -9751,10 +9757,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D592" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9920,7 +9926,7 @@
       <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="81" t="s">
         <v>1012</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -9968,7 +9974,7 @@
       <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="81" t="s">
         <v>1013</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -10016,7 +10022,7 @@
       <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="81" t="s">
         <v>1014</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -10064,7 +10070,7 @@
       <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="81" t="s">
         <v>1015</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -10112,7 +10118,7 @@
       <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="81" t="s">
         <v>1016</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -10160,7 +10166,7 @@
       <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="81" t="s">
         <v>1017</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -10208,7 +10214,7 @@
       <c r="B10" s="38">
         <v>2</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="81" t="s">
         <v>1018</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -10256,7 +10262,7 @@
       <c r="B11" s="38">
         <v>2</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="81" t="s">
         <v>1019</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -10304,7 +10310,7 @@
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="81" t="s">
         <v>1020</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -10352,7 +10358,7 @@
       <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="81" t="s">
         <v>1021</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -10400,7 +10406,7 @@
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="81" t="s">
         <v>1022</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -10448,7 +10454,7 @@
       <c r="B15" s="38">
         <v>2</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="81" t="s">
         <v>1023</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -10496,7 +10502,7 @@
       <c r="B16" s="38">
         <v>2</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="81" t="s">
         <v>1024</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -10544,7 +10550,7 @@
       <c r="B17" s="38">
         <v>2</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="81" t="s">
         <v>1025</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -10592,7 +10598,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="81" t="s">
         <v>1026</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -10928,7 +10934,7 @@
       <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="81" t="s">
         <v>1890</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -10975,7 +10981,7 @@
       <c r="B26" s="38">
         <v>2</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="81" t="s">
         <v>1891</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -11022,7 +11028,7 @@
       <c r="B27" s="38">
         <v>4</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="81" t="s">
         <v>1388</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -11070,7 +11076,7 @@
       <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="81" t="s">
         <v>1390</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -11118,7 +11124,7 @@
       <c r="B29" s="38">
         <v>4</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="81" t="s">
         <v>1392</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -11166,7 +11172,7 @@
       <c r="B30" s="38">
         <v>4</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="81" t="s">
         <v>1394</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -11214,7 +11220,7 @@
       <c r="B31" s="38">
         <v>4</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="81" t="s">
         <v>1396</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -11262,7 +11268,7 @@
       <c r="B32" s="38">
         <v>4</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="81" t="s">
         <v>1398</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -11310,7 +11316,7 @@
       <c r="B33" s="44">
         <v>4</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="81" t="s">
         <v>1400</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -11358,7 +11364,7 @@
       <c r="B34" s="44">
         <v>4</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="81" t="s">
         <v>1402</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -11406,7 +11412,7 @@
       <c r="B35" s="44">
         <v>4</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="81" t="s">
         <v>1404</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -11454,7 +11460,7 @@
       <c r="B36" s="44">
         <v>4</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="81" t="s">
         <v>1406</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -11502,7 +11508,7 @@
       <c r="B37" s="44">
         <v>4</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="81" t="s">
         <v>1408</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -11550,7 +11556,7 @@
       <c r="B38" s="44">
         <v>4</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="81" t="s">
         <v>1410</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -11598,7 +11604,7 @@
       <c r="B39" s="38">
         <v>4</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="81" t="s">
         <v>673</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -11646,7 +11652,7 @@
       <c r="B40" s="38">
         <v>4</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="81" t="s">
         <v>1255</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -11694,7 +11700,7 @@
       <c r="B41" s="38">
         <v>4</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="81" t="s">
         <v>674</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -11742,7 +11748,7 @@
       <c r="B42" s="38">
         <v>4</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="81" t="s">
         <v>675</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -11934,7 +11940,7 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="82" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -11982,7 +11988,7 @@
       <c r="B47" s="38">
         <v>1</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="82" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -12030,7 +12036,7 @@
       <c r="B48" s="38">
         <v>1</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="82" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -12078,7 +12084,7 @@
       <c r="B49" s="38">
         <v>1</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="82" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -12174,7 +12180,7 @@
       <c r="B51" s="38">
         <v>1</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="82" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -12270,7 +12276,7 @@
       <c r="B53" s="38">
         <v>1</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="82" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -12318,7 +12324,7 @@
       <c r="B54" s="38">
         <v>1</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="82" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -12366,7 +12372,7 @@
       <c r="B55" s="38">
         <v>1</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="82" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -12459,7 +12465,7 @@
       <c r="A57" s="38" t="s">
         <v>1820</v>
       </c>
-      <c r="B57" s="79">
+      <c r="B57" s="77">
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -12509,7 +12515,7 @@
       <c r="B58" s="38">
         <v>1</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="82" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="18" t="s">
@@ -12557,7 +12563,7 @@
       <c r="B59" s="38">
         <v>1</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="82" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -12605,7 +12611,7 @@
       <c r="B60" s="38">
         <v>1</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="82" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -12653,7 +12659,7 @@
       <c r="B61" s="38">
         <v>1</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="82" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -12701,7 +12707,7 @@
       <c r="B62" s="38">
         <v>1</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="82" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="18" t="s">
@@ -12749,7 +12755,7 @@
       <c r="B63" s="38">
         <v>1</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -12797,7 +12803,7 @@
       <c r="B64" s="38">
         <v>1</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="82" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -12845,7 +12851,7 @@
       <c r="B65" s="38">
         <v>1</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="82" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="18" t="s">
@@ -13133,7 +13139,7 @@
       <c r="B71" s="73">
         <v>2</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="81" t="s">
         <v>1269</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -13187,7 +13193,7 @@
       <c r="B72" s="73">
         <v>2</v>
       </c>
-      <c r="C72" s="77" t="s">
+      <c r="C72" s="81" t="s">
         <v>1824</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -13241,7 +13247,7 @@
       <c r="B73" s="38">
         <v>2</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="82" t="s">
         <v>147</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -13388,7 +13394,7 @@
       <c r="B76" s="38">
         <v>2</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="81" t="s">
         <v>1067</v>
       </c>
       <c r="D76" s="18" t="s">
@@ -13435,7 +13441,7 @@
       <c r="B77" s="38">
         <v>2</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="82" t="s">
         <v>149</v>
       </c>
       <c r="D77" s="18" t="s">
@@ -13629,7 +13635,7 @@
       <c r="B81" s="38">
         <v>2</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="82" t="s">
         <v>694</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -13676,7 +13682,7 @@
       <c r="B82" s="38">
         <v>2</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="82" t="s">
         <v>696</v>
       </c>
       <c r="D82" s="18" t="s">
@@ -17307,7 +17313,7 @@
       <c r="B158" s="74">
         <v>2</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="81" t="s">
         <v>1091</v>
       </c>
       <c r="D158" s="18" t="s">
@@ -17403,7 +17409,7 @@
       <c r="B160" s="72">
         <v>2</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="82" t="s">
         <v>1286</v>
       </c>
       <c r="D160" s="22" t="s">
@@ -17451,7 +17457,7 @@
       <c r="B161" s="72">
         <v>2</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="82" t="s">
         <v>1288</v>
       </c>
       <c r="D161" s="22" t="s">
@@ -17547,7 +17553,7 @@
       <c r="B163" s="38">
         <v>2</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="82" t="s">
         <v>46</v>
       </c>
       <c r="D163" s="18" t="s">
@@ -17594,7 +17600,7 @@
       <c r="B164" s="74">
         <v>2</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="81" t="s">
         <v>1095</v>
       </c>
       <c r="D164" s="18" t="s">
@@ -17642,7 +17648,7 @@
       <c r="B165" s="38">
         <v>2</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="81" t="s">
         <v>1096</v>
       </c>
       <c r="D165" s="18" t="s">
@@ -17784,7 +17790,7 @@
       <c r="B168" s="38">
         <v>5</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="82" t="s">
         <v>47</v>
       </c>
       <c r="D168" s="18" t="s">
@@ -18072,7 +18078,7 @@
       <c r="B174" s="38">
         <v>2</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="82" t="s">
         <v>107</v>
       </c>
       <c r="D174" s="18" t="s">
@@ -18120,7 +18126,7 @@
       <c r="B175" s="38">
         <v>2</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" s="82" t="s">
         <v>543</v>
       </c>
       <c r="D175" s="18" t="s">
@@ -18168,7 +18174,7 @@
       <c r="B176" s="38">
         <v>2</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="82" t="s">
         <v>111</v>
       </c>
       <c r="D176" s="18" t="s">
@@ -18216,7 +18222,7 @@
       <c r="B177" s="38">
         <v>2</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="82" t="s">
         <v>113</v>
       </c>
       <c r="D177" s="18" t="s">
@@ -18264,7 +18270,7 @@
       <c r="B178" s="38">
         <v>2</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="82" t="s">
         <v>115</v>
       </c>
       <c r="D178" s="18" t="s">
@@ -18314,7 +18320,7 @@
       <c r="B179" s="38">
         <v>2</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="82" t="s">
         <v>116</v>
       </c>
       <c r="D179" s="18" t="s">
@@ -18459,7 +18465,7 @@
       <c r="B182" s="38">
         <v>2</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="82" t="s">
         <v>120</v>
       </c>
       <c r="D182" s="18" t="s">
@@ -18604,7 +18610,7 @@
       <c r="B185" s="38">
         <v>2</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="82" t="s">
         <v>737</v>
       </c>
       <c r="D185" s="22" t="s">
@@ -18652,7 +18658,7 @@
       <c r="B186" s="38">
         <v>2</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="82" t="s">
         <v>739</v>
       </c>
       <c r="D186" s="18" t="s">
@@ -19220,7 +19226,7 @@
       <c r="B197" s="38">
         <v>5</v>
       </c>
-      <c r="C197" s="38" t="s">
+      <c r="C197" s="82" t="s">
         <v>1310</v>
       </c>
       <c r="D197" s="22" t="s">
@@ -19363,7 +19369,7 @@
       <c r="B200" s="38">
         <v>5</v>
       </c>
-      <c r="C200" s="38" t="s">
+      <c r="C200" s="82" t="s">
         <v>1316</v>
       </c>
       <c r="D200" s="22" t="s">
@@ -19411,7 +19417,7 @@
       <c r="B201" s="38">
         <v>5</v>
       </c>
-      <c r="C201" s="38" t="s">
+      <c r="C201" s="82" t="s">
         <v>1319</v>
       </c>
       <c r="D201" s="22" t="s">
@@ -19555,7 +19561,7 @@
       <c r="B204" s="38">
         <v>5</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C204" s="82" t="s">
         <v>1897</v>
       </c>
       <c r="D204" s="22" t="s">
@@ -19842,7 +19848,7 @@
       <c r="B210" s="38">
         <v>5</v>
       </c>
-      <c r="C210" s="38" t="s">
+      <c r="C210" s="82" t="s">
         <v>1343</v>
       </c>
       <c r="D210" s="22" t="s">
@@ -19889,7 +19895,7 @@
       <c r="B211" s="38">
         <v>5</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" s="82" t="s">
         <v>1346</v>
       </c>
       <c r="D211" s="22" t="s">
@@ -20032,7 +20038,7 @@
       <c r="B214" s="38">
         <v>5</v>
       </c>
-      <c r="C214" s="38" t="s">
+      <c r="C214" s="82" t="s">
         <v>1355</v>
       </c>
       <c r="D214" s="22" t="s">
@@ -20176,7 +20182,7 @@
       <c r="B217" s="38">
         <v>5</v>
       </c>
-      <c r="C217" s="38" t="s">
+      <c r="C217" s="82" t="s">
         <v>1920</v>
       </c>
       <c r="D217" s="22" t="s">
@@ -20560,7 +20566,7 @@
       <c r="B225" s="38">
         <v>5</v>
       </c>
-      <c r="C225" s="22" t="s">
+      <c r="C225" s="82" t="s">
         <v>125</v>
       </c>
       <c r="D225" s="18" t="s">
@@ -20608,7 +20614,7 @@
       <c r="B226" s="38">
         <v>5</v>
       </c>
-      <c r="C226" s="22" t="s">
+      <c r="C226" s="82" t="s">
         <v>127</v>
       </c>
       <c r="D226" s="18" t="s">
@@ -20656,7 +20662,7 @@
       <c r="B227" s="38">
         <v>5</v>
       </c>
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="82" t="s">
         <v>129</v>
       </c>
       <c r="D227" s="18" t="s">
@@ -21516,7 +21522,7 @@
       <c r="B245" s="38">
         <v>5</v>
       </c>
-      <c r="C245" s="18" t="s">
+      <c r="C245" s="81" t="s">
         <v>1058</v>
       </c>
       <c r="D245" s="18" t="s">
@@ -21563,7 +21569,7 @@
       <c r="B246" s="38">
         <v>5</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="81" t="s">
         <v>1059</v>
       </c>
       <c r="D246" s="18" t="s">
@@ -21657,7 +21663,7 @@
       <c r="B248" s="38">
         <v>5</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="80" t="s">
         <v>745</v>
       </c>
       <c r="D248" s="18" t="s">
@@ -21705,7 +21711,7 @@
       <c r="B249" s="38">
         <v>5</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="80" t="s">
         <v>747</v>
       </c>
       <c r="D249" s="18" t="s">
@@ -21753,7 +21759,7 @@
       <c r="B250" s="38">
         <v>5</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="81" t="s">
         <v>749</v>
       </c>
       <c r="D250" s="18" t="s">
@@ -21945,7 +21951,7 @@
       <c r="B254" s="38">
         <v>5</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="81" t="s">
         <v>756</v>
       </c>
       <c r="D254" s="18" t="s">
@@ -22804,7 +22810,7 @@
       <c r="B272" s="38">
         <v>5</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="81" t="s">
         <v>1152</v>
       </c>
       <c r="D272" s="18" t="s">
@@ -22852,7 +22858,7 @@
       <c r="B273" s="38">
         <v>5</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="81" t="s">
         <v>1154</v>
       </c>
       <c r="D273" s="18" t="s">
@@ -23761,7 +23767,7 @@
       <c r="B292" s="38">
         <v>8</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="81" t="s">
         <v>270</v>
       </c>
       <c r="D292" s="18" t="s">
@@ -23809,7 +23815,7 @@
       <c r="B293" s="38">
         <v>8</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="C293" s="81" t="s">
         <v>272</v>
       </c>
       <c r="D293" s="18" t="s">
@@ -23857,7 +23863,7 @@
       <c r="B294" s="38">
         <v>8</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C294" s="81" t="s">
         <v>273</v>
       </c>
       <c r="D294" s="18" t="s">
@@ -23905,7 +23911,7 @@
       <c r="B295" s="38">
         <v>8</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="C295" s="81" t="s">
         <v>275</v>
       </c>
       <c r="D295" s="18" t="s">
@@ -23953,7 +23959,7 @@
       <c r="B296" s="38">
         <v>8</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="81" t="s">
         <v>277</v>
       </c>
       <c r="D296" s="18" t="s">
@@ -24001,7 +24007,7 @@
       <c r="B297" s="38">
         <v>8</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="81" t="s">
         <v>279</v>
       </c>
       <c r="D297" s="18" t="s">
@@ -24049,7 +24055,7 @@
       <c r="B298" s="38">
         <v>8</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="81" t="s">
         <v>280</v>
       </c>
       <c r="D298" s="18" t="s">
@@ -24097,7 +24103,7 @@
       <c r="B299" s="38">
         <v>8</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C299" s="81" t="s">
         <v>282</v>
       </c>
       <c r="D299" s="18" t="s">
@@ -24145,7 +24151,7 @@
       <c r="B300" s="38">
         <v>8</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="81" t="s">
         <v>284</v>
       </c>
       <c r="D300" s="18" t="s">
@@ -24193,7 +24199,7 @@
       <c r="B301" s="38">
         <v>8</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="C301" s="81" t="s">
         <v>286</v>
       </c>
       <c r="D301" s="18" t="s">
@@ -24241,7 +24247,7 @@
       <c r="B302" s="38">
         <v>8</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="81" t="s">
         <v>288</v>
       </c>
       <c r="D302" s="18" t="s">
@@ -24289,7 +24295,7 @@
       <c r="B303" s="38">
         <v>8</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="81" t="s">
         <v>290</v>
       </c>
       <c r="D303" s="18" t="s">
@@ -24337,7 +24343,7 @@
       <c r="B304" s="38">
         <v>8</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="81" t="s">
         <v>292</v>
       </c>
       <c r="D304" s="18" t="s">
@@ -24385,7 +24391,7 @@
       <c r="B305" s="38">
         <v>8</v>
       </c>
-      <c r="C305" s="18" t="s">
+      <c r="C305" s="81" t="s">
         <v>294</v>
       </c>
       <c r="D305" s="18" t="s">
@@ -24433,7 +24439,7 @@
       <c r="B306" s="38">
         <v>8</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="81" t="s">
         <v>296</v>
       </c>
       <c r="D306" s="18" t="s">
@@ -24481,7 +24487,7 @@
       <c r="B307" s="38">
         <v>8</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="81" t="s">
         <v>298</v>
       </c>
       <c r="D307" s="18" t="s">
@@ -24529,7 +24535,7 @@
       <c r="B308" s="38">
         <v>8</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="81" t="s">
         <v>300</v>
       </c>
       <c r="D308" s="18" t="s">
@@ -24577,7 +24583,7 @@
       <c r="B309" s="38">
         <v>8</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="81" t="s">
         <v>302</v>
       </c>
       <c r="D309" s="18" t="s">
@@ -24625,7 +24631,7 @@
       <c r="B310" s="38">
         <v>8</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="81" t="s">
         <v>304</v>
       </c>
       <c r="D310" s="18" t="s">
@@ -24673,7 +24679,7 @@
       <c r="B311" s="38">
         <v>8</v>
       </c>
-      <c r="C311" s="18" t="s">
+      <c r="C311" s="81" t="s">
         <v>305</v>
       </c>
       <c r="D311" s="18" t="s">
@@ -24721,7 +24727,7 @@
       <c r="B312" s="38">
         <v>8</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="81" t="s">
         <v>306</v>
       </c>
       <c r="D312" s="18" t="s">
@@ -24769,7 +24775,7 @@
       <c r="B313" s="38">
         <v>8</v>
       </c>
-      <c r="C313" s="18" t="s">
+      <c r="C313" s="81" t="s">
         <v>307</v>
       </c>
       <c r="D313" s="18" t="s">
@@ -24817,7 +24823,7 @@
       <c r="B314" s="38">
         <v>8</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="81" t="s">
         <v>309</v>
       </c>
       <c r="D314" s="18" t="s">
@@ -24865,7 +24871,7 @@
       <c r="B315" s="38">
         <v>8</v>
       </c>
-      <c r="C315" s="18" t="s">
+      <c r="C315" s="81" t="s">
         <v>311</v>
       </c>
       <c r="D315" s="18" t="s">
@@ -24913,7 +24919,7 @@
       <c r="B316" s="38">
         <v>8</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="81" t="s">
         <v>312</v>
       </c>
       <c r="D316" s="18" t="s">
@@ -24961,7 +24967,7 @@
       <c r="B317" s="38">
         <v>8</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="81" t="s">
         <v>314</v>
       </c>
       <c r="D317" s="18" t="s">
@@ -25009,7 +25015,7 @@
       <c r="B318" s="38">
         <v>8</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="81" t="s">
         <v>316</v>
       </c>
       <c r="D318" s="18" t="s">
@@ -25057,7 +25063,7 @@
       <c r="B319" s="38">
         <v>8</v>
       </c>
-      <c r="C319" s="18" t="s">
+      <c r="C319" s="81" t="s">
         <v>318</v>
       </c>
       <c r="D319" s="18" t="s">
@@ -25105,7 +25111,7 @@
       <c r="B320" s="38">
         <v>8</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="81" t="s">
         <v>320</v>
       </c>
       <c r="D320" s="18" t="s">
@@ -25153,7 +25159,7 @@
       <c r="B321" s="38">
         <v>8</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="81" t="s">
         <v>322</v>
       </c>
       <c r="D321" s="18" t="s">
@@ -25201,7 +25207,7 @@
       <c r="B322" s="38">
         <v>8</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="81" t="s">
         <v>324</v>
       </c>
       <c r="D322" s="18" t="s">
@@ -25249,7 +25255,7 @@
       <c r="B323" s="38">
         <v>8</v>
       </c>
-      <c r="C323" s="18" t="s">
+      <c r="C323" s="81" t="s">
         <v>326</v>
       </c>
       <c r="D323" s="18" t="s">
@@ -25297,7 +25303,7 @@
       <c r="B324" s="38">
         <v>8</v>
       </c>
-      <c r="C324" s="18" t="s">
+      <c r="C324" s="81" t="s">
         <v>328</v>
       </c>
       <c r="D324" s="18" t="s">
@@ -25345,7 +25351,7 @@
       <c r="B325" s="38">
         <v>8</v>
       </c>
-      <c r="C325" s="18" t="s">
+      <c r="C325" s="81" t="s">
         <v>330</v>
       </c>
       <c r="D325" s="18" t="s">
@@ -25393,7 +25399,7 @@
       <c r="B326" s="38">
         <v>8</v>
       </c>
-      <c r="C326" s="18" t="s">
+      <c r="C326" s="81" t="s">
         <v>332</v>
       </c>
       <c r="D326" s="18" t="s">
@@ -25441,7 +25447,7 @@
       <c r="B327" s="38">
         <v>8</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="C327" s="81" t="s">
         <v>334</v>
       </c>
       <c r="D327" s="18" t="s">
@@ -25489,7 +25495,7 @@
       <c r="B328" s="38">
         <v>8</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="81" t="s">
         <v>336</v>
       </c>
       <c r="D328" s="18" t="s">
@@ -25537,7 +25543,7 @@
       <c r="B329" s="38">
         <v>8</v>
       </c>
-      <c r="C329" s="18" t="s">
+      <c r="C329" s="81" t="s">
         <v>338</v>
       </c>
       <c r="D329" s="18" t="s">
@@ -25585,7 +25591,7 @@
       <c r="B330" s="38">
         <v>8</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="C330" s="81" t="s">
         <v>340</v>
       </c>
       <c r="D330" s="18" t="s">
@@ -25633,7 +25639,7 @@
       <c r="B331" s="38">
         <v>8</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="C331" s="81" t="s">
         <v>342</v>
       </c>
       <c r="D331" s="18" t="s">
@@ -25681,7 +25687,7 @@
       <c r="B332" s="38">
         <v>8</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="81" t="s">
         <v>343</v>
       </c>
       <c r="D332" s="18" t="s">
@@ -25729,7 +25735,7 @@
       <c r="B333" s="38">
         <v>8</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="C333" s="81" t="s">
         <v>345</v>
       </c>
       <c r="D333" s="18" t="s">
@@ -25777,7 +25783,7 @@
       <c r="B334" s="38">
         <v>8</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="81" t="s">
         <v>347</v>
       </c>
       <c r="D334" s="18" t="s">
@@ -25825,7 +25831,7 @@
       <c r="B335" s="38">
         <v>8</v>
       </c>
-      <c r="C335" s="18" t="s">
+      <c r="C335" s="81" t="s">
         <v>349</v>
       </c>
       <c r="D335" s="18" t="s">
@@ -25873,7 +25879,7 @@
       <c r="B336" s="38">
         <v>8</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="C336" s="81" t="s">
         <v>351</v>
       </c>
       <c r="D336" s="18" t="s">
@@ -25921,7 +25927,7 @@
       <c r="B337" s="38">
         <v>8</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="C337" s="81" t="s">
         <v>352</v>
       </c>
       <c r="D337" s="18" t="s">
@@ -26257,7 +26263,7 @@
       <c r="B344" s="38">
         <v>8</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="81" t="s">
         <v>359</v>
       </c>
       <c r="D344" s="18" t="s">
@@ -26305,7 +26311,7 @@
       <c r="B345" s="38">
         <v>8</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="C345" s="81" t="s">
         <v>361</v>
       </c>
       <c r="D345" s="18" t="s">
@@ -26449,7 +26455,7 @@
       <c r="B348" s="38">
         <v>8</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="81" t="s">
         <v>366</v>
       </c>
       <c r="D348" s="18" t="s">
@@ -26497,7 +26503,7 @@
       <c r="B349" s="38">
         <v>8</v>
       </c>
-      <c r="C349" s="18" t="s">
+      <c r="C349" s="81" t="s">
         <v>368</v>
       </c>
       <c r="D349" s="18" t="s">
@@ -26545,7 +26551,7 @@
       <c r="B350" s="38">
         <v>8</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="81" t="s">
         <v>576</v>
       </c>
       <c r="D350" s="18" t="s">
@@ -26593,7 +26599,7 @@
       <c r="B351" s="38">
         <v>8</v>
       </c>
-      <c r="C351" s="18" t="s">
+      <c r="C351" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D351" s="18" t="s">
@@ -26977,7 +26983,7 @@
       <c r="B359" s="38">
         <v>8</v>
       </c>
-      <c r="C359" s="18" t="s">
+      <c r="C359" s="81" t="s">
         <v>593</v>
       </c>
       <c r="D359" s="18" t="s">
@@ -27025,7 +27031,7 @@
       <c r="B360" s="38">
         <v>8</v>
       </c>
-      <c r="C360" s="18" t="s">
+      <c r="C360" s="81" t="s">
         <v>605</v>
       </c>
       <c r="D360" s="18" t="s">
@@ -27073,7 +27079,7 @@
       <c r="B361" s="38">
         <v>8</v>
       </c>
-      <c r="C361" s="18" t="s">
+      <c r="C361" s="81" t="s">
         <v>606</v>
       </c>
       <c r="D361" s="18" t="s">
@@ -27121,7 +27127,7 @@
       <c r="B362" s="38">
         <v>8</v>
       </c>
-      <c r="C362" s="18" t="s">
+      <c r="C362" s="81" t="s">
         <v>607</v>
       </c>
       <c r="D362" s="18" t="s">
@@ -27169,7 +27175,7 @@
       <c r="B363" s="38">
         <v>8</v>
       </c>
-      <c r="C363" s="18" t="s">
+      <c r="C363" s="81" t="s">
         <v>608</v>
       </c>
       <c r="D363" s="18" t="s">
@@ -27217,7 +27223,7 @@
       <c r="B364" s="38">
         <v>8</v>
       </c>
-      <c r="C364" s="18" t="s">
+      <c r="C364" s="81" t="s">
         <v>609</v>
       </c>
       <c r="D364" s="18" t="s">
@@ -27265,7 +27271,7 @@
       <c r="B365" s="38">
         <v>8</v>
       </c>
-      <c r="C365" s="18" t="s">
+      <c r="C365" s="81" t="s">
         <v>610</v>
       </c>
       <c r="D365" s="18" t="s">
@@ -27313,7 +27319,7 @@
       <c r="B366" s="38">
         <v>8</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="81" t="s">
         <v>611</v>
       </c>
       <c r="D366" s="18" t="s">
@@ -27361,7 +27367,7 @@
       <c r="B367" s="38">
         <v>8</v>
       </c>
-      <c r="C367" s="18" t="s">
+      <c r="C367" s="81" t="s">
         <v>612</v>
       </c>
       <c r="D367" s="18" t="s">
@@ -27409,7 +27415,7 @@
       <c r="B368" s="38">
         <v>8</v>
       </c>
-      <c r="C368" s="18" t="s">
+      <c r="C368" s="81" t="s">
         <v>645</v>
       </c>
       <c r="D368" s="18" t="s">
@@ -27457,7 +27463,7 @@
       <c r="B369" s="38">
         <v>8</v>
       </c>
-      <c r="C369" s="18" t="s">
+      <c r="C369" s="81" t="s">
         <v>1166</v>
       </c>
       <c r="D369" s="18" t="s">
@@ -27505,7 +27511,7 @@
       <c r="B370" s="38">
         <v>8</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="81" t="s">
         <v>1244</v>
       </c>
       <c r="D370" s="18" t="s">
@@ -27601,7 +27607,7 @@
       <c r="B372" s="38">
         <v>8</v>
       </c>
-      <c r="C372" s="18" t="s">
+      <c r="C372" s="81" t="s">
         <v>583</v>
       </c>
       <c r="D372" s="18" t="s">
@@ -27649,7 +27655,7 @@
       <c r="B373" s="38">
         <v>8</v>
       </c>
-      <c r="C373" s="18" t="s">
+      <c r="C373" s="81" t="s">
         <v>1246</v>
       </c>
       <c r="D373" s="18" t="s">
@@ -27745,7 +27751,7 @@
       <c r="B375" s="38">
         <v>8</v>
       </c>
-      <c r="C375" s="18" t="s">
+      <c r="C375" s="81" t="s">
         <v>648</v>
       </c>
       <c r="D375" s="18" t="s">
@@ -28177,7 +28183,7 @@
       <c r="B384" s="38">
         <v>8</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C384" s="81" t="s">
         <v>1173</v>
       </c>
       <c r="D384" s="18" t="s">
@@ -28225,7 +28231,7 @@
       <c r="B385" s="38">
         <v>8</v>
       </c>
-      <c r="C385" s="18" t="s">
+      <c r="C385" s="81" t="s">
         <v>1174</v>
       </c>
       <c r="D385" s="18" t="s">
@@ -28273,7 +28279,7 @@
       <c r="B386" s="38">
         <v>8</v>
       </c>
-      <c r="C386" s="18" t="s">
+      <c r="C386" s="81" t="s">
         <v>1175</v>
       </c>
       <c r="D386" s="18" t="s">
@@ -28321,7 +28327,7 @@
       <c r="B387" s="38">
         <v>8</v>
       </c>
-      <c r="C387" s="18" t="s">
+      <c r="C387" s="81" t="s">
         <v>1176</v>
       </c>
       <c r="D387" s="18" t="s">
@@ -28369,7 +28375,7 @@
       <c r="B388" s="38">
         <v>8</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C388" s="81" t="s">
         <v>1177</v>
       </c>
       <c r="D388" s="18" t="s">
@@ -28417,7 +28423,7 @@
       <c r="B389" s="38">
         <v>8</v>
       </c>
-      <c r="C389" s="18" t="s">
+      <c r="C389" s="81" t="s">
         <v>1178</v>
       </c>
       <c r="D389" s="18" t="s">
@@ -28465,7 +28471,7 @@
       <c r="B390" s="38">
         <v>8</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C390" s="81" t="s">
         <v>1179</v>
       </c>
       <c r="D390" s="18" t="s">
@@ -28513,7 +28519,7 @@
       <c r="B391" s="38">
         <v>8</v>
       </c>
-      <c r="C391" s="18" t="s">
+      <c r="C391" s="81" t="s">
         <v>1180</v>
       </c>
       <c r="D391" s="18" t="s">
@@ -28561,7 +28567,7 @@
       <c r="B392" s="38">
         <v>8</v>
       </c>
-      <c r="C392" s="18" t="s">
+      <c r="C392" s="81" t="s">
         <v>1181</v>
       </c>
       <c r="D392" s="18" t="s">
@@ -28609,7 +28615,7 @@
       <c r="B393" s="38">
         <v>8</v>
       </c>
-      <c r="C393" s="18" t="s">
+      <c r="C393" s="81" t="s">
         <v>1182</v>
       </c>
       <c r="D393" s="18" t="s">
@@ -28657,7 +28663,7 @@
       <c r="B394" s="38">
         <v>8</v>
       </c>
-      <c r="C394" s="18" t="s">
+      <c r="C394" s="81" t="s">
         <v>1183</v>
       </c>
       <c r="D394" s="18" t="s">
@@ -28753,7 +28759,7 @@
       <c r="B396" s="38">
         <v>8</v>
       </c>
-      <c r="C396" s="18" t="s">
+      <c r="C396" s="81" t="s">
         <v>1184</v>
       </c>
       <c r="D396" s="18" t="s">
@@ -28801,7 +28807,7 @@
       <c r="B397" s="38">
         <v>8</v>
       </c>
-      <c r="C397" s="18" t="s">
+      <c r="C397" s="81" t="s">
         <v>1185</v>
       </c>
       <c r="D397" s="18" t="s">
@@ -28849,7 +28855,7 @@
       <c r="B398" s="38">
         <v>8</v>
       </c>
-      <c r="C398" s="18" t="s">
+      <c r="C398" s="81" t="s">
         <v>1186</v>
       </c>
       <c r="D398" s="18" t="s">
@@ -28897,7 +28903,7 @@
       <c r="B399" s="38">
         <v>8</v>
       </c>
-      <c r="C399" s="18" t="s">
+      <c r="C399" s="81" t="s">
         <v>1187</v>
       </c>
       <c r="D399" s="18" t="s">
@@ -28945,7 +28951,7 @@
       <c r="B400" s="38">
         <v>8</v>
       </c>
-      <c r="C400" s="18" t="s">
+      <c r="C400" s="81" t="s">
         <v>1188</v>
       </c>
       <c r="D400" s="18" t="s">
@@ -28993,7 +28999,7 @@
       <c r="B401" s="38">
         <v>8</v>
       </c>
-      <c r="C401" s="18" t="s">
+      <c r="C401" s="81" t="s">
         <v>1193</v>
       </c>
       <c r="D401" s="18" t="s">
@@ -29041,7 +29047,7 @@
       <c r="B402" s="38">
         <v>8</v>
       </c>
-      <c r="C402" s="18" t="s">
+      <c r="C402" s="81" t="s">
         <v>1248</v>
       </c>
       <c r="D402" s="18" t="s">
@@ -29089,7 +29095,7 @@
       <c r="B403" s="38">
         <v>8</v>
       </c>
-      <c r="C403" s="18" t="s">
+      <c r="C403" s="81" t="s">
         <v>1249</v>
       </c>
       <c r="D403" s="18" t="s">
@@ -29137,7 +29143,7 @@
       <c r="B404" s="38">
         <v>8</v>
       </c>
-      <c r="C404" s="18" t="s">
+      <c r="C404" s="81" t="s">
         <v>1250</v>
       </c>
       <c r="D404" s="18" t="s">
@@ -30097,7 +30103,7 @@
       <c r="B424" s="38">
         <v>8</v>
       </c>
-      <c r="C424" s="18" t="s">
+      <c r="C424" s="81" t="s">
         <v>370</v>
       </c>
       <c r="D424" s="18" t="s">
@@ -30628,7 +30634,7 @@
       <c r="C435" s="18" t="s">
         <v>1754</v>
       </c>
-      <c r="D435" s="18" t="s">
+      <c r="D435" s="79" t="s">
         <v>1753</v>
       </c>
       <c r="E435" s="12" t="s">
@@ -30913,7 +30919,7 @@
       <c r="B441" s="38">
         <v>8</v>
       </c>
-      <c r="C441" s="18" t="s">
+      <c r="C441" s="81" t="s">
         <v>1253</v>
       </c>
       <c r="D441" s="18" t="s">
@@ -32545,7 +32551,7 @@
       <c r="B475" s="38">
         <v>2</v>
       </c>
-      <c r="C475" s="18" t="s">
+      <c r="C475" s="81" t="s">
         <v>814</v>
       </c>
       <c r="D475" s="18" t="s">
@@ -32593,7 +32599,7 @@
       <c r="B476" s="38">
         <v>2</v>
       </c>
-      <c r="C476" s="18" t="s">
+      <c r="C476" s="81" t="s">
         <v>816</v>
       </c>
       <c r="D476" s="18" t="s">
@@ -32641,7 +32647,7 @@
       <c r="B477" s="38">
         <v>2</v>
       </c>
-      <c r="C477" s="18" t="s">
+      <c r="C477" s="81" t="s">
         <v>783</v>
       </c>
       <c r="D477" s="18" t="s">
@@ -32689,7 +32695,7 @@
       <c r="B478" s="38">
         <v>2</v>
       </c>
-      <c r="C478" s="18" t="s">
+      <c r="C478" s="81" t="s">
         <v>770</v>
       </c>
       <c r="D478" s="18" t="s">
@@ -32737,7 +32743,7 @@
       <c r="B479" s="38">
         <v>2</v>
       </c>
-      <c r="C479" s="18" t="s">
+      <c r="C479" s="81" t="s">
         <v>820</v>
       </c>
       <c r="D479" s="18" t="s">
@@ -32833,7 +32839,7 @@
       <c r="B481" s="38">
         <v>2</v>
       </c>
-      <c r="C481" s="18" t="s">
+      <c r="C481" s="81" t="s">
         <v>769</v>
       </c>
       <c r="D481" s="18" t="s">
@@ -32881,7 +32887,7 @@
       <c r="B482" s="38">
         <v>2</v>
       </c>
-      <c r="C482" s="18" t="s">
+      <c r="C482" s="81" t="s">
         <v>773</v>
       </c>
       <c r="D482" s="18" t="s">
@@ -32929,7 +32935,7 @@
       <c r="B483" s="38">
         <v>2</v>
       </c>
-      <c r="C483" s="18" t="s">
+      <c r="C483" s="81" t="s">
         <v>789</v>
       </c>
       <c r="D483" s="18" t="s">
@@ -32977,7 +32983,7 @@
       <c r="B484" s="38">
         <v>2</v>
       </c>
-      <c r="C484" s="18" t="s">
+      <c r="C484" s="81" t="s">
         <v>774</v>
       </c>
       <c r="D484" s="18" t="s">
@@ -33025,7 +33031,7 @@
       <c r="B485" s="38">
         <v>2</v>
       </c>
-      <c r="C485" s="18" t="s">
+      <c r="C485" s="81" t="s">
         <v>826</v>
       </c>
       <c r="D485" s="18" t="s">
@@ -33073,7 +33079,7 @@
       <c r="B486" s="38">
         <v>2</v>
       </c>
-      <c r="C486" s="18" t="s">
+      <c r="C486" s="81" t="s">
         <v>828</v>
       </c>
       <c r="D486" s="18" t="s">
@@ -33121,7 +33127,7 @@
       <c r="B487" s="38">
         <v>2</v>
       </c>
-      <c r="C487" s="18" t="s">
+      <c r="C487" s="81" t="s">
         <v>786</v>
       </c>
       <c r="D487" s="18" t="s">
@@ -33313,7 +33319,7 @@
       <c r="B491" s="38">
         <v>2</v>
       </c>
-      <c r="C491" s="18" t="s">
+      <c r="C491" s="81" t="s">
         <v>834</v>
       </c>
       <c r="D491" s="18" t="s">
@@ -33361,7 +33367,7 @@
       <c r="B492" s="38">
         <v>2</v>
       </c>
-      <c r="C492" s="18" t="s">
+      <c r="C492" s="81" t="s">
         <v>836</v>
       </c>
       <c r="D492" s="18" t="s">
@@ -33649,7 +33655,7 @@
       <c r="B498" s="38">
         <v>2</v>
       </c>
-      <c r="C498" s="18" t="s">
+      <c r="C498" s="81" t="s">
         <v>847</v>
       </c>
       <c r="D498" s="18" t="s">
@@ -33697,7 +33703,7 @@
       <c r="B499" s="38">
         <v>2</v>
       </c>
-      <c r="C499" s="18" t="s">
+      <c r="C499" s="81" t="s">
         <v>849</v>
       </c>
       <c r="D499" s="18" t="s">
@@ -33745,7 +33751,7 @@
       <c r="B500" s="38">
         <v>2</v>
       </c>
-      <c r="C500" s="18" t="s">
+      <c r="C500" s="81" t="s">
         <v>777</v>
       </c>
       <c r="D500" s="18" t="s">
@@ -33793,7 +33799,7 @@
       <c r="B501" s="38">
         <v>2</v>
       </c>
-      <c r="C501" s="18" t="s">
+      <c r="C501" s="81" t="s">
         <v>791</v>
       </c>
       <c r="D501" s="18" t="s">
@@ -33841,7 +33847,7 @@
       <c r="B502" s="38">
         <v>2</v>
       </c>
-      <c r="C502" s="18" t="s">
+      <c r="C502" s="81" t="s">
         <v>852</v>
       </c>
       <c r="D502" s="18" t="s">
@@ -33889,7 +33895,7 @@
       <c r="B503" s="38">
         <v>2</v>
       </c>
-      <c r="C503" s="18" t="s">
+      <c r="C503" s="81" t="s">
         <v>778</v>
       </c>
       <c r="D503" s="18" t="s">
@@ -33937,7 +33943,7 @@
       <c r="B504" s="38">
         <v>2</v>
       </c>
-      <c r="C504" s="18" t="s">
+      <c r="C504" s="81" t="s">
         <v>779</v>
       </c>
       <c r="D504" s="18" t="s">
@@ -34225,7 +34231,7 @@
       <c r="B510" s="38">
         <v>2</v>
       </c>
-      <c r="C510" s="18" t="s">
+      <c r="C510" s="81" t="s">
         <v>860</v>
       </c>
       <c r="D510" s="18" t="s">
@@ -34273,7 +34279,7 @@
       <c r="B511" s="38">
         <v>2</v>
       </c>
-      <c r="C511" s="18" t="s">
+      <c r="C511" s="81" t="s">
         <v>862</v>
       </c>
       <c r="D511" s="18" t="s">
@@ -34321,7 +34327,7 @@
       <c r="B512" s="38">
         <v>2</v>
       </c>
-      <c r="C512" s="18" t="s">
+      <c r="C512" s="81" t="s">
         <v>787</v>
       </c>
       <c r="D512" s="18" t="s">
@@ -34369,7 +34375,7 @@
       <c r="B513" s="38">
         <v>2</v>
       </c>
-      <c r="C513" s="18" t="s">
+      <c r="C513" s="81" t="s">
         <v>788</v>
       </c>
       <c r="D513" s="18" t="s">
@@ -34513,7 +34519,7 @@
       <c r="B516" s="38">
         <v>2</v>
       </c>
-      <c r="C516" s="18" t="s">
+      <c r="C516" s="81" t="s">
         <v>813</v>
       </c>
       <c r="D516" s="18" t="s">
@@ -34609,7 +34615,7 @@
       <c r="B518" s="38">
         <v>2</v>
       </c>
-      <c r="C518" s="18" t="s">
+      <c r="C518" s="81" t="s">
         <v>1009</v>
       </c>
       <c r="D518" s="18" t="s">
@@ -35137,7 +35143,7 @@
       <c r="B529" s="38">
         <v>2</v>
       </c>
-      <c r="C529" s="18" t="s">
+      <c r="C529" s="81" t="s">
         <v>868</v>
       </c>
       <c r="D529" s="18" t="s">
@@ -35185,7 +35191,7 @@
       <c r="B530" s="38">
         <v>2</v>
       </c>
-      <c r="C530" s="18" t="s">
+      <c r="C530" s="81" t="s">
         <v>870</v>
       </c>
       <c r="D530" s="18" t="s">
@@ -35233,7 +35239,7 @@
       <c r="B531" s="38">
         <v>2</v>
       </c>
-      <c r="C531" s="18" t="s">
+      <c r="C531" s="81" t="s">
         <v>872</v>
       </c>
       <c r="D531" s="18" t="s">
@@ -35281,7 +35287,7 @@
       <c r="B532" s="38">
         <v>2</v>
       </c>
-      <c r="C532" s="18" t="s">
+      <c r="C532" s="81" t="s">
         <v>874</v>
       </c>
       <c r="D532" s="18" t="s">
@@ -35329,7 +35335,7 @@
       <c r="B533" s="38">
         <v>2</v>
       </c>
-      <c r="C533" s="18" t="s">
+      <c r="C533" s="81" t="s">
         <v>876</v>
       </c>
       <c r="D533" s="18" t="s">
@@ -35377,7 +35383,7 @@
       <c r="B534" s="38">
         <v>2</v>
       </c>
-      <c r="C534" s="18" t="s">
+      <c r="C534" s="81" t="s">
         <v>878</v>
       </c>
       <c r="D534" s="18" t="s">
@@ -35425,7 +35431,7 @@
       <c r="B535" s="38">
         <v>2</v>
       </c>
-      <c r="C535" s="18" t="s">
+      <c r="C535" s="81" t="s">
         <v>767</v>
       </c>
       <c r="D535" s="18" t="s">
@@ -35473,7 +35479,7 @@
       <c r="B536" s="38">
         <v>2</v>
       </c>
-      <c r="C536" s="18" t="s">
+      <c r="C536" s="81" t="s">
         <v>879</v>
       </c>
       <c r="D536" s="18" t="s">
@@ -35521,7 +35527,7 @@
       <c r="B537" s="38">
         <v>2</v>
       </c>
-      <c r="C537" s="18" t="s">
+      <c r="C537" s="81" t="s">
         <v>881</v>
       </c>
       <c r="D537" s="18" t="s">
@@ -35569,7 +35575,7 @@
       <c r="B538" s="38">
         <v>2</v>
       </c>
-      <c r="C538" s="18" t="s">
+      <c r="C538" s="81" t="s">
         <v>804</v>
       </c>
       <c r="D538" s="18" t="s">
@@ -35617,7 +35623,7 @@
       <c r="B539" s="38">
         <v>2</v>
       </c>
-      <c r="C539" s="18" t="s">
+      <c r="C539" s="81" t="s">
         <v>766</v>
       </c>
       <c r="D539" s="18" t="s">
@@ -35665,7 +35671,7 @@
       <c r="B540" s="38">
         <v>2</v>
       </c>
-      <c r="C540" s="18" t="s">
+      <c r="C540" s="81" t="s">
         <v>884</v>
       </c>
       <c r="D540" s="18" t="s">
@@ -35713,7 +35719,7 @@
       <c r="B541" s="38">
         <v>2</v>
       </c>
-      <c r="C541" s="18" t="s">
+      <c r="C541" s="81" t="s">
         <v>885</v>
       </c>
       <c r="D541" s="18" t="s">
@@ -35761,7 +35767,7 @@
       <c r="B542" s="38">
         <v>2</v>
       </c>
-      <c r="C542" s="18" t="s">
+      <c r="C542" s="81" t="s">
         <v>886</v>
       </c>
       <c r="D542" s="18" t="s">
@@ -35809,7 +35815,7 @@
       <c r="B543" s="38">
         <v>2</v>
       </c>
-      <c r="C543" s="18" t="s">
+      <c r="C543" s="81" t="s">
         <v>888</v>
       </c>
       <c r="D543" s="18" t="s">
@@ -35953,7 +35959,7 @@
       <c r="B546" s="38">
         <v>2</v>
       </c>
-      <c r="C546" s="18" t="s">
+      <c r="C546" s="81" t="s">
         <v>892</v>
       </c>
       <c r="D546" s="18" t="s">
@@ -36001,7 +36007,7 @@
       <c r="B547" s="38">
         <v>2</v>
       </c>
-      <c r="C547" s="18" t="s">
+      <c r="C547" s="81" t="s">
         <v>809</v>
       </c>
       <c r="D547" s="18" t="s">
@@ -36049,7 +36055,7 @@
       <c r="B548" s="38">
         <v>2</v>
       </c>
-      <c r="C548" s="18" t="s">
+      <c r="C548" s="81" t="s">
         <v>894</v>
       </c>
       <c r="D548" s="18" t="s">
@@ -36097,7 +36103,7 @@
       <c r="B549" s="38">
         <v>2</v>
       </c>
-      <c r="C549" s="18" t="s">
+      <c r="C549" s="81" t="s">
         <v>812</v>
       </c>
       <c r="D549" s="18" t="s">
@@ -36145,7 +36151,7 @@
       <c r="B550" s="38">
         <v>2</v>
       </c>
-      <c r="C550" s="18" t="s">
+      <c r="C550" s="81" t="s">
         <v>897</v>
       </c>
       <c r="D550" s="18" t="s">
@@ -36289,7 +36295,7 @@
       <c r="B553" s="38">
         <v>2</v>
       </c>
-      <c r="C553" s="18" t="s">
+      <c r="C553" s="81" t="s">
         <v>900</v>
       </c>
       <c r="D553" s="18" t="s">
@@ -36337,7 +36343,7 @@
       <c r="B554" s="38">
         <v>2</v>
       </c>
-      <c r="C554" s="18" t="s">
+      <c r="C554" s="81" t="s">
         <v>902</v>
       </c>
       <c r="D554" s="18" t="s">
@@ -36481,7 +36487,7 @@
       <c r="B557" s="38">
         <v>2</v>
       </c>
-      <c r="C557" s="18" t="s">
+      <c r="C557" s="81" t="s">
         <v>810</v>
       </c>
       <c r="D557" s="18" t="s">
@@ -36529,7 +36535,7 @@
       <c r="B558" s="38">
         <v>2</v>
       </c>
-      <c r="C558" s="18" t="s">
+      <c r="C558" s="81" t="s">
         <v>811</v>
       </c>
       <c r="D558" s="18" t="s">
@@ -36577,7 +36583,7 @@
       <c r="B559" s="38">
         <v>2</v>
       </c>
-      <c r="C559" s="18" t="s">
+      <c r="C559" s="81" t="s">
         <v>798</v>
       </c>
       <c r="D559" s="18" t="s">
@@ -36625,7 +36631,7 @@
       <c r="B560" s="38">
         <v>2</v>
       </c>
-      <c r="C560" s="18" t="s">
+      <c r="C560" s="81" t="s">
         <v>800</v>
       </c>
       <c r="D560" s="18" t="s">
@@ -36673,7 +36679,7 @@
       <c r="B561" s="38">
         <v>2</v>
       </c>
-      <c r="C561" s="18" t="s">
+      <c r="C561" s="81" t="s">
         <v>801</v>
       </c>
       <c r="D561" s="18" t="s">
@@ -36721,7 +36727,7 @@
       <c r="B562" s="38">
         <v>2</v>
       </c>
-      <c r="C562" s="18" t="s">
+      <c r="C562" s="81" t="s">
         <v>802</v>
       </c>
       <c r="D562" s="18" t="s">
@@ -36769,7 +36775,7 @@
       <c r="B563" s="38">
         <v>2</v>
       </c>
-      <c r="C563" s="18" t="s">
+      <c r="C563" s="81" t="s">
         <v>803</v>
       </c>
       <c r="D563" s="18" t="s">
@@ -36817,7 +36823,7 @@
       <c r="B564" s="38">
         <v>4</v>
       </c>
-      <c r="C564" s="18" t="s">
+      <c r="C564" s="81" t="s">
         <v>707</v>
       </c>
       <c r="D564" s="18" t="s">
@@ -36865,7 +36871,7 @@
       <c r="B565" s="38">
         <v>4</v>
       </c>
-      <c r="C565" s="18" t="s">
+      <c r="C565" s="81" t="s">
         <v>709</v>
       </c>
       <c r="D565" s="18" t="s">
@@ -36913,7 +36919,7 @@
       <c r="B566" s="38">
         <v>4</v>
       </c>
-      <c r="C566" s="18" t="s">
+      <c r="C566" s="81" t="s">
         <v>711</v>
       </c>
       <c r="D566" s="18" t="s">
@@ -36961,7 +36967,7 @@
       <c r="B567" s="38">
         <v>4</v>
       </c>
-      <c r="C567" s="18" t="s">
+      <c r="C567" s="81" t="s">
         <v>713</v>
       </c>
       <c r="D567" s="18" t="s">
@@ -37009,7 +37015,7 @@
       <c r="B568" s="38">
         <v>4</v>
       </c>
-      <c r="C568" s="18" t="s">
+      <c r="C568" s="81" t="s">
         <v>715</v>
       </c>
       <c r="D568" s="18" t="s">
@@ -37105,7 +37111,7 @@
       <c r="B570" s="38">
         <v>4</v>
       </c>
-      <c r="C570" s="18" t="s">
+      <c r="C570" s="81" t="s">
         <v>718</v>
       </c>
       <c r="D570" s="18" t="s">
@@ -37153,7 +37159,7 @@
       <c r="B571" s="38">
         <v>4</v>
       </c>
-      <c r="C571" s="18" t="s">
+      <c r="C571" s="81" t="s">
         <v>720</v>
       </c>
       <c r="D571" s="18" t="s">
@@ -37201,7 +37207,7 @@
       <c r="B572" s="38">
         <v>4</v>
       </c>
-      <c r="C572" s="18" t="s">
+      <c r="C572" s="81" t="s">
         <v>722</v>
       </c>
       <c r="D572" s="18" t="s">
@@ -37249,7 +37255,7 @@
       <c r="B573" s="38">
         <v>4</v>
       </c>
-      <c r="C573" s="18" t="s">
+      <c r="C573" s="81" t="s">
         <v>723</v>
       </c>
       <c r="D573" s="18" t="s">
@@ -37297,7 +37303,7 @@
       <c r="B574" s="38">
         <v>4</v>
       </c>
-      <c r="C574" s="18" t="s">
+      <c r="C574" s="81" t="s">
         <v>725</v>
       </c>
       <c r="D574" s="18" t="s">
@@ -37345,7 +37351,7 @@
       <c r="B575" s="38">
         <v>4</v>
       </c>
-      <c r="C575" s="18" t="s">
+      <c r="C575" s="81" t="s">
         <v>727</v>
       </c>
       <c r="D575" s="18" t="s">
@@ -37393,7 +37399,7 @@
       <c r="B576" s="38">
         <v>4</v>
       </c>
-      <c r="C576" s="18" t="s">
+      <c r="C576" s="81" t="s">
         <v>729</v>
       </c>
       <c r="D576" s="18" t="s">
@@ -37441,7 +37447,7 @@
       <c r="B577" s="38">
         <v>4</v>
       </c>
-      <c r="C577" s="18" t="s">
+      <c r="C577" s="81" t="s">
         <v>731</v>
       </c>
       <c r="D577" s="18" t="s">
@@ -37537,7 +37543,7 @@
       <c r="B579" s="38">
         <v>2</v>
       </c>
-      <c r="C579" s="18" t="s">
+      <c r="C579" s="81" t="s">
         <v>792</v>
       </c>
       <c r="D579" s="18" t="s">
@@ -37585,7 +37591,7 @@
       <c r="B580" s="38">
         <v>4</v>
       </c>
-      <c r="C580" s="18" t="s">
+      <c r="C580" s="81" t="s">
         <v>793</v>
       </c>
       <c r="D580" s="18" t="s">
@@ -37681,7 +37687,7 @@
       <c r="B582" s="38">
         <v>4</v>
       </c>
-      <c r="C582" s="18" t="s">
+      <c r="C582" s="81" t="s">
         <v>916</v>
       </c>
       <c r="D582" s="18" t="s">
@@ -37729,7 +37735,7 @@
       <c r="B583" s="38">
         <v>4</v>
       </c>
-      <c r="C583" s="18" t="s">
+      <c r="C583" s="81" t="s">
         <v>918</v>
       </c>
       <c r="D583" s="18" t="s">
@@ -37777,7 +37783,7 @@
       <c r="B584" s="38">
         <v>4</v>
       </c>
-      <c r="C584" s="18" t="s">
+      <c r="C584" s="81" t="s">
         <v>920</v>
       </c>
       <c r="D584" s="18" t="s">
@@ -37825,7 +37831,7 @@
       <c r="B585" s="38">
         <v>4</v>
       </c>
-      <c r="C585" s="18" t="s">
+      <c r="C585" s="81" t="s">
         <v>922</v>
       </c>
       <c r="D585" s="18" t="s">
@@ -37873,7 +37879,7 @@
       <c r="B586" s="38">
         <v>4</v>
       </c>
-      <c r="C586" s="18" t="s">
+      <c r="C586" s="81" t="s">
         <v>924</v>
       </c>
       <c r="D586" s="18" t="s">
@@ -37921,7 +37927,7 @@
       <c r="B587" s="38">
         <v>4</v>
       </c>
-      <c r="C587" s="18" t="s">
+      <c r="C587" s="81" t="s">
         <v>926</v>
       </c>
       <c r="D587" s="18" t="s">
@@ -37969,7 +37975,7 @@
       <c r="B588" s="38">
         <v>4</v>
       </c>
-      <c r="C588" s="18" t="s">
+      <c r="C588" s="81" t="s">
         <v>928</v>
       </c>
       <c r="D588" s="18" t="s">
@@ -38017,7 +38023,7 @@
       <c r="B589" s="38">
         <v>4</v>
       </c>
-      <c r="C589" s="18" t="s">
+      <c r="C589" s="81" t="s">
         <v>930</v>
       </c>
       <c r="D589" s="18" t="s">
@@ -38065,7 +38071,7 @@
       <c r="B590" s="38">
         <v>4</v>
       </c>
-      <c r="C590" s="18" t="s">
+      <c r="C590" s="81" t="s">
         <v>932</v>
       </c>
       <c r="D590" s="18" t="s">
@@ -38113,7 +38119,7 @@
       <c r="B591" s="38">
         <v>4</v>
       </c>
-      <c r="C591" s="18" t="s">
+      <c r="C591" s="81" t="s">
         <v>934</v>
       </c>
       <c r="D591" s="18" t="s">
@@ -38161,7 +38167,7 @@
       <c r="B592" s="38">
         <v>4</v>
       </c>
-      <c r="C592" s="18" t="s">
+      <c r="C592" s="81" t="s">
         <v>936</v>
       </c>
       <c r="D592" s="18" t="s">
@@ -38209,7 +38215,7 @@
       <c r="B593" s="38">
         <v>4</v>
       </c>
-      <c r="C593" s="18" t="s">
+      <c r="C593" s="81" t="s">
         <v>938</v>
       </c>
       <c r="D593" s="18" t="s">
@@ -38257,7 +38263,7 @@
       <c r="B594" s="38">
         <v>4</v>
       </c>
-      <c r="C594" s="18" t="s">
+      <c r="C594" s="81" t="s">
         <v>940</v>
       </c>
       <c r="D594" s="18" t="s">
@@ -38305,7 +38311,7 @@
       <c r="B595" s="38">
         <v>4</v>
       </c>
-      <c r="C595" s="18" t="s">
+      <c r="C595" s="81" t="s">
         <v>942</v>
       </c>
       <c r="D595" s="18" t="s">
@@ -38353,7 +38359,7 @@
       <c r="B596" s="38">
         <v>4</v>
       </c>
-      <c r="C596" s="18" t="s">
+      <c r="C596" s="81" t="s">
         <v>944</v>
       </c>
       <c r="D596" s="18" t="s">
@@ -38401,7 +38407,7 @@
       <c r="B597" s="38">
         <v>4</v>
       </c>
-      <c r="C597" s="18" t="s">
+      <c r="C597" s="81" t="s">
         <v>946</v>
       </c>
       <c r="D597" s="18" t="s">
@@ -38449,7 +38455,7 @@
       <c r="B598" s="38">
         <v>4</v>
       </c>
-      <c r="C598" s="18" t="s">
+      <c r="C598" s="81" t="s">
         <v>948</v>
       </c>
       <c r="D598" s="18" t="s">
@@ -38497,7 +38503,7 @@
       <c r="B599" s="38">
         <v>4</v>
       </c>
-      <c r="C599" s="18" t="s">
+      <c r="C599" s="81" t="s">
         <v>950</v>
       </c>
       <c r="D599" s="18" t="s">
@@ -38545,7 +38551,7 @@
       <c r="B600" s="38">
         <v>4</v>
       </c>
-      <c r="C600" s="18" t="s">
+      <c r="C600" s="81" t="s">
         <v>951</v>
       </c>
       <c r="D600" s="18" t="s">
@@ -38593,7 +38599,7 @@
       <c r="B601" s="38">
         <v>4</v>
       </c>
-      <c r="C601" s="18" t="s">
+      <c r="C601" s="81" t="s">
         <v>953</v>
       </c>
       <c r="D601" s="18" t="s">
@@ -38641,7 +38647,7 @@
       <c r="B602" s="38">
         <v>4</v>
       </c>
-      <c r="C602" s="18" t="s">
+      <c r="C602" s="81" t="s">
         <v>955</v>
       </c>
       <c r="D602" s="18" t="s">
@@ -38689,7 +38695,7 @@
       <c r="B603" s="38">
         <v>4</v>
       </c>
-      <c r="C603" s="18" t="s">
+      <c r="C603" s="81" t="s">
         <v>957</v>
       </c>
       <c r="D603" s="18" t="s">
@@ -38737,7 +38743,7 @@
       <c r="B604" s="38">
         <v>4</v>
       </c>
-      <c r="C604" s="18" t="s">
+      <c r="C604" s="81" t="s">
         <v>958</v>
       </c>
       <c r="D604" s="18" t="s">
@@ -38785,7 +38791,7 @@
       <c r="B605" s="38">
         <v>4</v>
       </c>
-      <c r="C605" s="18" t="s">
+      <c r="C605" s="81" t="s">
         <v>960</v>
       </c>
       <c r="D605" s="18" t="s">
@@ -38833,7 +38839,7 @@
       <c r="B606" s="38">
         <v>4</v>
       </c>
-      <c r="C606" s="18" t="s">
+      <c r="C606" s="81" t="s">
         <v>962</v>
       </c>
       <c r="D606" s="18" t="s">
@@ -38881,7 +38887,7 @@
       <c r="B607" s="38">
         <v>4</v>
       </c>
-      <c r="C607" s="18" t="s">
+      <c r="C607" s="81" t="s">
         <v>964</v>
       </c>
       <c r="D607" s="18" t="s">
@@ -38929,7 +38935,7 @@
       <c r="B608" s="38">
         <v>4</v>
       </c>
-      <c r="C608" s="18" t="s">
+      <c r="C608" s="81" t="s">
         <v>966</v>
       </c>
       <c r="D608" s="18" t="s">
@@ -38977,7 +38983,7 @@
       <c r="B609" s="38">
         <v>4</v>
       </c>
-      <c r="C609" s="18" t="s">
+      <c r="C609" s="81" t="s">
         <v>968</v>
       </c>
       <c r="D609" s="18" t="s">
@@ -42673,7 +42679,7 @@
       <c r="B686" s="38">
         <v>8</v>
       </c>
-      <c r="C686" s="18" t="s">
+      <c r="C686" s="81" t="s">
         <v>463</v>
       </c>
       <c r="D686" s="18" t="s">
@@ -42721,7 +42727,7 @@
       <c r="B687" s="38">
         <v>8</v>
       </c>
-      <c r="C687" s="18" t="s">
+      <c r="C687" s="81" t="s">
         <v>268</v>
       </c>
       <c r="D687" s="18" t="s">
@@ -42817,7 +42823,7 @@
       <c r="B689" s="38">
         <v>8</v>
       </c>
-      <c r="C689" s="18" t="s">
+      <c r="C689" s="81" t="s">
         <v>457</v>
       </c>
       <c r="D689" s="18" t="s">
@@ -43153,7 +43159,7 @@
       <c r="B696" s="38">
         <v>8</v>
       </c>
-      <c r="C696" s="18" t="s">
+      <c r="C696" s="81" t="s">
         <v>464</v>
       </c>
       <c r="D696" s="18" t="s">
@@ -43201,7 +43207,7 @@
       <c r="B697" s="38">
         <v>8</v>
       </c>
-      <c r="C697" s="18" t="s">
+      <c r="C697" s="81" t="s">
         <v>466</v>
       </c>
       <c r="D697" s="18" t="s">
@@ -43489,7 +43495,7 @@
       <c r="B703" s="38">
         <v>8</v>
       </c>
-      <c r="C703" s="18" t="s">
+      <c r="C703" s="81" t="s">
         <v>1257</v>
       </c>
       <c r="D703" s="18" t="s">
@@ -49416,10 +49422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="6" t="s">
         <v>58</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E9C24-97E3-4A3B-BBBD-6370AB5BC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5ACF8E-B01F-4BCC-8143-051F2BFB9829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9757,15 +9757,15 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D592" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="5.109375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="92.44140625" customWidth="1"/>
@@ -10646,7 +10646,7 @@
       <c r="B19" s="38">
         <v>2</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="81" t="s">
         <v>1027</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -12468,7 +12468,7 @@
       <c r="B57" s="77">
         <v>1</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="82" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="18" t="s">
@@ -13532,7 +13532,7 @@
 Bestand wordt wel gebruikt maar niet aangeleverd door regisseur : %1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>1412</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>[Opdracht- Controleer Inhoud vastgesteldDoor] Waarde van type %1 binnen %2 is niet gelijk aan %3</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>1412</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>io(s) niet aanwezig in aanlevering, wel in besluit (%1)</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="38" t="s">
         <v>1412</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="38" t="s">
         <v>1412</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>1412</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>1412</v>
       </c>
@@ -23760,7 +23760,7 @@
         <v>Interne fout</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="38" t="s">
         <v>1412</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="38" t="s">
         <v>1412</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="38" t="s">
         <v>1412</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>1412</v>
       </c>
@@ -30480,7 +30480,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>1412</v>
       </c>
@@ -32832,7 +32832,7 @@
         <v>De referentie naar de noot met id[waarde van ref] verwijst niet naar een noot in dezelfde tabel[waarde van eId] . Verplaats de noot waarnaar verwezen wordt naar de tabel of vervang de referentie in de tabel voor de noot waarnaar verwezen wordt</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="38" t="s">
         <v>1412</v>
       </c>
@@ -34320,7 +34320,7 @@
         <v>Het attribuut @wId[waarde van wId] van element[waarde van element] eindigt op een '.__', dit is niet toegestaan. Verwijder deze punt '.' binnen deze wId</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="38" t="s">
         <v>1412</v>
       </c>
@@ -34368,7 +34368,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="38" t="s">
         <v>1412</v>
       </c>
@@ -37632,7 +37632,7 @@
         <v>De GIO met Work-ID[waarde van Work-ID] bevat norm (normID en normlabel) en/of eenheid (eenheidID en eenheidlabel), terwijl kwantitatieve of kwalitatieve normwaarden ontbreken. Geef de locaties normwaarden of verwijder de norm/eenheid elementen.</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="38" t="s">
         <v>1412</v>
       </c>
@@ -37680,7 +37680,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="38" t="s">
         <v>1412</v>
       </c>
@@ -37728,7 +37728,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="38" t="s">
         <v>1412</v>
       </c>
@@ -37872,7 +37872,7 @@
         <v>De FeatureTypeStyle:SemanticTypeIdentifier is[waarde van ID] , dit moet geo:geometrie, geo:groepID, geo:kwalitatieveNormwaarde of geo:kwantitatieveNormwaarde zijn. Wijzig de SemanticTypeIdentifier.</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="38" t="s">
         <v>1412</v>
       </c>
@@ -38832,7 +38832,7 @@
         <v>De (Point/Polygon)symbolizer met se:Name[waarde van ID] heeft een ongeldige Graphic:Size[waarde van ID2] . Wijzig deze in een geheel positief getal.</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="38" t="s">
         <v>1412</v>
       </c>
@@ -45025,6 +45025,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O734" xr:uid="{7496DEDB-8FBA-48D6-A790-36A5258F7B6F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Discutabel"/>
+        <filter val="Gewijzigd"/>
+        <filter val="Niet gewijzigd"/>
+        <filter val="Nieuw"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Ja"/>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5ACF8E-B01F-4BCC-8143-051F2BFB9829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C245252-FB8A-426A-867F-5A1AD83C2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9757,10 +9757,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13299,7 +13299,7 @@
       <c r="B74" s="38">
         <v>2</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="82" t="s">
         <v>148</v>
       </c>
       <c r="D74" s="18" t="s">
@@ -13729,7 +13729,7 @@
       <c r="B83" s="38">
         <v>2</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="82" t="s">
         <v>698</v>
       </c>
       <c r="D83" s="18" t="s">
@@ -14109,7 +14109,7 @@
       <c r="B91" s="38">
         <v>2</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="82" t="s">
         <v>503</v>
       </c>
       <c r="D91" s="18" t="s">
@@ -14156,7 +14156,7 @@
       <c r="B92" s="38">
         <v>2</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="82" t="s">
         <v>505</v>
       </c>
       <c r="D92" s="18" t="s">
@@ -14204,7 +14204,7 @@
       <c r="B93" s="38">
         <v>2</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="82" t="s">
         <v>507</v>
       </c>
       <c r="D93" s="18" t="s">
@@ -14252,7 +14252,7 @@
       <c r="B94" s="38">
         <v>2</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="82" t="s">
         <v>508</v>
       </c>
       <c r="D94" s="18" t="s">
@@ -14632,7 +14632,7 @@
       <c r="B102" s="38">
         <v>2</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="81" t="s">
         <v>1851</v>
       </c>
       <c r="D102" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C245252-FB8A-426A-867F-5A1AD83C2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD502A-A52A-4BF2-8812-B43D739B0DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9757,10 +9757,10 @@
   <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomRight" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14867,7 +14867,7 @@
       <c r="B107" s="38">
         <v>2</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="82" t="s">
         <v>700</v>
       </c>
       <c r="D107" s="18" t="s">
@@ -16068,7 +16068,7 @@
       <c r="B132" s="38">
         <v>2</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="81" t="s">
         <v>527</v>
       </c>
       <c r="D132" s="18" t="s">
@@ -16164,7 +16164,7 @@
       <c r="B134" s="38">
         <v>2</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="81" t="s">
         <v>42</v>
       </c>
       <c r="D134" s="18" t="s">
@@ -16405,7 +16405,7 @@
       <c r="B139" s="38">
         <v>2</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="81" t="s">
         <v>1090</v>
       </c>
       <c r="D139" s="18" t="s">
@@ -16597,7 +16597,7 @@
       <c r="B143" s="38">
         <v>2</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="81" t="s">
         <v>90</v>
       </c>
       <c r="D143" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE5C7C-3B1C-4D23-A5E2-0634FA787D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89134CD6-142A-40DC-9EB5-A154C6206BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10404" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10405" uniqueCount="1961">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6213,6 +6213,9 @@
   </si>
   <si>
     <t>soortProecdure staat in BesluitMetadata en is een woord. Wordt hier soortregeling bedoeld?</t>
+  </si>
+  <si>
+    <t>twee fouten in een</t>
   </si>
 </sst>
 </file>
@@ -6633,7 +6636,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6886,6 +6889,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 2" xfId="4" xr:uid="{0EC6E668-CD22-429A-B10D-9E4834C96B63}"/>
@@ -9797,10 +9803,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
+      <selection pane="bottomRight" activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18542,7 +18548,7 @@
       <c r="C181" s="38">
         <v>2</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="85" t="s">
         <v>118</v>
       </c>
       <c r="E181" s="18" t="s">
@@ -18637,7 +18643,7 @@
       <c r="C183" s="38">
         <v>2</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="D183" s="82" t="s">
         <v>122</v>
       </c>
       <c r="E183" s="18" t="s">
@@ -18687,7 +18693,7 @@
       <c r="C184" s="38">
         <v>2</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="82" t="s">
         <v>123</v>
       </c>
       <c r="E184" s="18" t="s">
@@ -18831,7 +18837,7 @@
       <c r="C187" s="38">
         <v>2</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="82" t="s">
         <v>740</v>
       </c>
       <c r="E187" s="22" t="s">
@@ -18921,13 +18927,16 @@
       </c>
     </row>
     <row r="189" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1960</v>
+      </c>
       <c r="B189" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C189" s="38">
         <v>2</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="D189" s="82" t="s">
         <v>1117</v>
       </c>
       <c r="E189" s="22" t="s">
@@ -18974,7 +18983,7 @@
       <c r="C190" s="38">
         <v>5</v>
       </c>
-      <c r="D190" s="38" t="s">
+      <c r="D190" s="82" t="s">
         <v>1289</v>
       </c>
       <c r="E190" s="22" t="s">
@@ -19030,7 +19039,7 @@
       <c r="C191" s="38">
         <v>5</v>
       </c>
-      <c r="D191" s="38" t="s">
+      <c r="D191" s="82" t="s">
         <v>1292</v>
       </c>
       <c r="E191" s="22" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89134CD6-142A-40DC-9EB5-A154C6206BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502A384-4137-4CC6-AAE3-5F60521E77FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10405" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10406" uniqueCount="1962">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6216,6 +6216,9 @@
   </si>
   <si>
     <t>twee fouten in een</t>
+  </si>
+  <si>
+    <t>deze moeten we even overleggen</t>
   </si>
 </sst>
 </file>
@@ -9803,10 +9806,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D193" sqref="D193"/>
+      <selection pane="bottomRight" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19144,7 +19147,10 @@
         <v>De 'datum JWV' (%1) van de wordt-versie is niet gelijk aan of later dan vandaag (%2)</v>
       </c>
     </row>
-    <row r="193" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1961</v>
+      </c>
       <c r="B193" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19200,14 +19206,14 @@
         <v>Binnen de regeling bevat regelingversie %1 een 'datum JWV' (%2), die later is dan de 'datum JWV' (%3) van de was-versie</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C194" s="38">
         <v>5</v>
       </c>
-      <c r="D194" s="38" t="s">
+      <c r="D194" s="82" t="s">
         <v>1301</v>
       </c>
       <c r="E194" s="22" t="s">
@@ -19258,14 +19264,14 @@
 De wordt-versie heeft geen 'datum JWV', maar de was-versie heeft wel een 'datum JWV' (%1)</v>
       </c>
     </row>
-    <row r="195" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C195" s="38">
         <v>5</v>
       </c>
-      <c r="D195" s="38" t="s">
+      <c r="D195" s="85" t="s">
         <v>1304</v>
       </c>
       <c r="E195" s="22" t="s">
@@ -19305,7 +19311,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="196" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19353,7 +19359,7 @@
         <v>Geen besluit met akn-id %1 gevonden bij kennisgeving</v>
       </c>
     </row>
-    <row r="197" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19401,7 +19407,7 @@
         <v>Datum inzagetermijn kennisgeving %1 mag niet voor datum publicatie van kennisgeving %2 liggen</v>
       </c>
     </row>
-    <row r="198" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19449,7 +19455,7 @@
         <v>Datum inzagetermijn kennisgeving %1 mag niet voor datum publicatie van gerelateerd besluit %2 liggen</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="38" t="s">
         <v>1165</v>
       </c>
@@ -19496,7 +19502,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="200" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19544,7 +19550,7 @@
         <v>[AanleveringKennisgeving - Controleer Inhoud Identificatie] Waarde van type ',$type,' binnen ',$identificatie,' is niet gelijk aan doc</v>
       </c>
     </row>
-    <row r="201" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19592,7 +19598,7 @@
         <v>[AanleveringKennisgeving - Controleer Inhoud Identificatie] Waarde van type ',$type,' binnen ',$identificatie,' is niet gelijk aan bill)</v>
       </c>
     </row>
-    <row r="202" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19640,7 +19646,7 @@
         <v>%1 voor oin : %2 en id-levering : %3 bevat geen mutaties; dit scenario wordt door de LVBB niet ondersteund</v>
       </c>
     </row>
-    <row r="203" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="204" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19736,7 +19742,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="205" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19784,7 +19790,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="206" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19832,7 +19838,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="207" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="208" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="38" t="s">
         <v>1164</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502A384-4137-4CC6-AAE3-5F60521E77FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6D810-7587-484E-AC47-757678A4C6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10406" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10408" uniqueCount="1964">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6219,6 +6219,12 @@
   </si>
   <si>
     <t>deze moeten we even overleggen</t>
+  </si>
+  <si>
+    <t>mededeling dat dit kennisgeving betreft ontbreekt</t>
+  </si>
+  <si>
+    <t>is gelijk aan LVBB4702</t>
   </si>
 </sst>
 </file>
@@ -9809,7 +9815,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D195" sqref="D195"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19271,7 +19277,7 @@
       <c r="C195" s="38">
         <v>5</v>
       </c>
-      <c r="D195" s="85" t="s">
+      <c r="D195" s="82" t="s">
         <v>1304</v>
       </c>
       <c r="E195" s="22" t="s">
@@ -19318,7 +19324,7 @@
       <c r="C196" s="38">
         <v>5</v>
       </c>
-      <c r="D196" s="38" t="s">
+      <c r="D196" s="82" t="s">
         <v>1307</v>
       </c>
       <c r="E196" s="22" t="s">
@@ -19408,13 +19414,16 @@
       </c>
     </row>
     <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1962</v>
+      </c>
       <c r="B198" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C198" s="38">
         <v>5</v>
       </c>
-      <c r="D198" s="38" t="s">
+      <c r="D198" s="82" t="s">
         <v>1313</v>
       </c>
       <c r="E198" s="22" t="s">
@@ -19456,6 +19465,9 @@
       </c>
     </row>
     <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1963</v>
+      </c>
       <c r="B199" s="38" t="s">
         <v>1165</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6D810-7587-484E-AC47-757678A4C6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F645D1-C0D2-4A8B-9987-52D1EAA20C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10408" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10412" uniqueCount="1967">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6225,6 +6225,15 @@
   </si>
   <si>
     <t>is gelijk aan LVBB4702</t>
+  </si>
+  <si>
+    <t>dit is geen foutmelding</t>
+  </si>
+  <si>
+    <t>2 foutsituaties in een test</t>
+  </si>
+  <si>
+    <t>ik denk bij toevoeging</t>
   </si>
 </sst>
 </file>
@@ -9812,10 +9821,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19474,7 +19483,7 @@
       <c r="C199" s="38">
         <v>5</v>
       </c>
-      <c r="D199" s="38" t="s">
+      <c r="D199" s="82" t="s">
         <v>1439</v>
       </c>
       <c r="E199" s="22" t="s">
@@ -19665,7 +19674,7 @@
       <c r="C203" s="38">
         <v>5</v>
       </c>
-      <c r="D203" s="38" t="s">
+      <c r="D203" s="82" t="s">
         <v>1896</v>
       </c>
       <c r="E203" s="22" t="s">
@@ -19755,6 +19764,9 @@
       </c>
     </row>
     <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1964</v>
+      </c>
       <c r="B205" s="38" t="s">
         <v>1164</v>
       </c>
@@ -19946,7 +19958,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="209" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="38" t="s">
         <v>1165</v>
       </c>
@@ -19993,7 +20005,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="210" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20040,7 +20052,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="211" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20088,14 +20100,17 @@
         <v>Er is al een eerdere consolidatie van procedurestappen aanwezig voor datum bekend-op %1 en datum ontvangenop %2</v>
       </c>
     </row>
-    <row r="212" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1965</v>
+      </c>
       <c r="B212" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C212" s="38">
         <v>5</v>
       </c>
-      <c r="D212" s="38" t="s">
+      <c r="D212" s="82" t="s">
         <v>1349</v>
       </c>
       <c r="E212" s="22" t="s">
@@ -20135,14 +20150,17 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="213" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1966</v>
+      </c>
       <c r="B213" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C213" s="38">
         <v>5</v>
       </c>
-      <c r="D213" s="38" t="s">
+      <c r="D213" s="82" t="s">
         <v>1352</v>
       </c>
       <c r="E213" s="22" t="s">
@@ -20183,7 +20201,7 @@
         <v>Soort stap met id %1 is aanwezig in het besluit of de kennisgeving; is niet toegestaan</v>
       </c>
     </row>
-    <row r="214" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20231,14 +20249,14 @@
         <v>De volgende procedurestappen komen dubbel voor : %1; mag hooguit enkel voorkomen</v>
       </c>
     </row>
-    <row r="215" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C215" s="38">
         <v>5</v>
       </c>
-      <c r="D215" s="38" t="s">
+      <c r="D215" s="82" t="s">
         <v>1358</v>
       </c>
       <c r="E215" s="22" t="s">
@@ -20279,14 +20297,14 @@
         <v>De datum bekend-op van de kennisgeving %1 ligt niet na de datum bekend-op van een eerdere consolidatie %2</v>
       </c>
     </row>
-    <row r="216" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C216" s="38">
         <v>5</v>
       </c>
-      <c r="D216" s="38" t="s">
+      <c r="D216" s="82" t="s">
         <v>1361</v>
       </c>
       <c r="E216" s="22" t="s">
@@ -20327,7 +20345,7 @@
         <v>De datum ontvangen-op van de kennisgeving %1 ligt niet na de datum ontvangen-op van een eerdere consolidatie %2</v>
       </c>
     </row>
-    <row r="217" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="38" t="s">
         <v>1165</v>
       </c>
@@ -20374,14 +20392,14 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="218" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="38" t="s">
         <v>1165</v>
       </c>
       <c r="C218" s="38">
         <v>5</v>
       </c>
-      <c r="D218" s="38" t="s">
+      <c r="D218" s="82" t="s">
         <v>1921</v>
       </c>
       <c r="E218" s="22" t="s">
@@ -20421,7 +20439,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="219" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="38" t="s">
         <v>1412</v>
       </c>
@@ -20469,7 +20487,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="220" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20517,7 +20535,7 @@
         <v>Meldingstekst moet nog aangevuld worden</v>
       </c>
     </row>
-    <row r="221" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20565,7 +20583,7 @@
         <v>Meldingstekst moet nog aangevuld worden</v>
       </c>
     </row>
-    <row r="222" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20613,7 +20631,7 @@
         <v>Meldingstekst moet nog aangevuld worden</v>
       </c>
     </row>
-    <row r="223" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20661,7 +20679,10 @@
         <v>Meldingstekst moet nog aangevuld worden</v>
       </c>
     </row>
-    <row r="224" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1956</v>
+      </c>
       <c r="B224" s="38" t="s">
         <v>1164</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F645D1-C0D2-4A8B-9987-52D1EAA20C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8BB78-DF5F-477A-BB77-CEC000128F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10412" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10413" uniqueCount="1967">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -9821,10 +9821,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomRight" activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20732,7 +20732,7 @@
 Onjuiste doelpositie voor mutatie bij versie : %1 en WijzigArtikel / WijzigLid met wId : %2 en index : %3</v>
       </c>
     </row>
-    <row r="225" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>Geen wordtVersie aanwezig</v>
       </c>
     </row>
-    <row r="226" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>Geen wasVersie aanwezig</v>
       </c>
     </row>
-    <row r="227" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>Versie %1 is een ontwerp regelingversie, kan niet als basis dienen voor muteren</v>
       </c>
     </row>
-    <row r="228" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="38" t="s">
         <v>1164</v>
       </c>
@@ -20924,14 +20924,14 @@
         <v>Versie met akn %1 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="229" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C229" s="38">
         <v>5</v>
       </c>
-      <c r="D229" s="22" t="s">
+      <c r="D229" s="82" t="s">
         <v>1100</v>
       </c>
       <c r="E229" s="22" t="s">
@@ -20972,14 +20972,17 @@
         <v>Regeling bij was-versie %1 is niet geljk aan regeling bij wordt-versie %2</v>
       </c>
     </row>
-    <row r="230" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1956</v>
+      </c>
       <c r="B230" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C230" s="38">
         <v>5</v>
       </c>
-      <c r="D230" s="22" t="s">
+      <c r="D230" s="82" t="s">
         <v>133</v>
       </c>
       <c r="E230" s="18" t="s">
@@ -21022,7 +21025,7 @@
 Toelichting bestaat al voor regeling : %1, opvoeren nieuwe toelichting niet mogelijk met mutatie bij versie : %2 en WijzigArtikel / WijzigLid met wId : %3 en index : %4</v>
       </c>
     </row>
-    <row r="231" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="38" t="s">
         <v>1164</v>
       </c>
@@ -21070,7 +21073,7 @@
         <v>Er kan maar 1 mutatie voor een toelichting voor mutatie bij versie : %1 en WijzigArtikel / WijzigLid met wId : %2 en index : %3</v>
       </c>
     </row>
-    <row r="232" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="38" t="s">
         <v>1164</v>
       </c>
@@ -21117,7 +21120,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="233" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="38" t="s">
         <v>1164</v>
       </c>
@@ -21164,7 +21167,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="234" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="38" t="s">
         <v>1165</v>
       </c>
@@ -21211,7 +21214,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="235" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="38" t="s">
         <v>1165</v>
       </c>
@@ -21258,7 +21261,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="236" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="38" t="s">
         <v>1165</v>
       </c>
@@ -21305,7 +21308,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="237" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="38" t="s">
         <v>1164</v>
       </c>
@@ -21353,14 +21356,14 @@
         <v>Versie niet kunnen expanderen voor : %1</v>
       </c>
     </row>
-    <row r="238" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="38" t="s">
         <v>1164</v>
       </c>
       <c r="C238" s="38">
         <v>5</v>
       </c>
-      <c r="D238" s="22" t="s">
+      <c r="D238" s="82" t="s">
         <v>137</v>
       </c>
       <c r="E238" s="18" t="s">
@@ -21401,7 +21404,7 @@
         <v>Meerdere datum inwerking gevonden in besluit bij oin %1 en id-levering %2 voor doel %3</v>
       </c>
     </row>
-    <row r="239" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="38" t="s">
         <v>1164</v>
       </c>
@@ -21448,7 +21451,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="240" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="38" t="s">
         <v>1164</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BCF2FE-24C9-4D35-AEC2-55954FB5B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62383E53-EB1A-4F37-84E3-3DC79791AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9827,10 +9827,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E348" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D354" sqref="D354"/>
+      <selection pane="bottomRight" activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26934,7 +26934,7 @@
       <c r="C354" s="38">
         <v>8</v>
       </c>
-      <c r="D354" s="18" t="s">
+      <c r="D354" s="80" t="s">
         <v>588</v>
       </c>
       <c r="E354" s="18" t="s">
@@ -26982,7 +26982,7 @@
       <c r="C355" s="38">
         <v>8</v>
       </c>
-      <c r="D355" s="18" t="s">
+      <c r="D355" s="80" t="s">
         <v>589</v>
       </c>
       <c r="E355" s="18" t="s">
@@ -27030,7 +27030,7 @@
       <c r="C356" s="38">
         <v>8</v>
       </c>
-      <c r="D356" s="18" t="s">
+      <c r="D356" s="80" t="s">
         <v>590</v>
       </c>
       <c r="E356" s="18" t="s">
@@ -27126,7 +27126,7 @@
       <c r="C358" s="38">
         <v>8</v>
       </c>
-      <c r="D358" s="18" t="s">
+      <c r="D358" s="80" t="s">
         <v>592</v>
       </c>
       <c r="E358" s="18" t="s">
@@ -27750,7 +27750,7 @@
       <c r="C371" s="38">
         <v>8</v>
       </c>
-      <c r="D371" s="18" t="s">
+      <c r="D371" s="80" t="s">
         <v>1788</v>
       </c>
       <c r="E371" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62383E53-EB1A-4F37-84E3-3DC79791AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F46A6-DB0D-4951-A246-28B1876C106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9827,10 +9827,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E386" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D374" sqref="D374"/>
+      <selection pane="bottomRight" activeCell="D425" sqref="D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27894,7 +27894,7 @@
       <c r="C374" s="38">
         <v>8</v>
       </c>
-      <c r="D374" s="18" t="s">
+      <c r="D374" s="80" t="s">
         <v>647</v>
       </c>
       <c r="E374" s="18" t="s">
@@ -28182,7 +28182,7 @@
       <c r="C380" s="38">
         <v>8</v>
       </c>
-      <c r="D380" s="18" t="s">
+      <c r="D380" s="80" t="s">
         <v>1749</v>
       </c>
       <c r="E380" s="18" t="s">
@@ -28230,7 +28230,7 @@
       <c r="C381" s="38">
         <v>8</v>
       </c>
-      <c r="D381" s="18" t="s">
+      <c r="D381" s="80" t="s">
         <v>1748</v>
       </c>
       <c r="E381" s="18" t="s">
@@ -28902,7 +28902,7 @@
       <c r="C395" s="38">
         <v>8</v>
       </c>
-      <c r="D395" s="18" t="s">
+      <c r="D395" s="80" t="s">
         <v>1790</v>
       </c>
       <c r="E395" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC7485-FD75-4EE5-9A20-AFC0E508F310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EAE8E-745F-4E18-8992-65939F7F9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6392,7 +6392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6432,6 +6432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6658,7 +6664,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6916,6 +6922,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9828,10 +9837,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E425" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E505" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D453" sqref="D453"/>
+      <selection pane="bottomRight" activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28279,7 +28288,7 @@
       <c r="C382" s="38">
         <v>8</v>
       </c>
-      <c r="D382" s="18" t="s">
+      <c r="D382" s="80" t="s">
         <v>1815</v>
       </c>
       <c r="E382" s="18" t="s">
@@ -28327,7 +28336,7 @@
       <c r="C383" s="38">
         <v>8</v>
       </c>
-      <c r="D383" s="18" t="s">
+      <c r="D383" s="80" t="s">
         <v>1816</v>
       </c>
       <c r="E383" s="18" t="s">
@@ -32983,7 +32992,7 @@
       <c r="C480" s="38">
         <v>2</v>
       </c>
-      <c r="D480" s="18" t="s">
+      <c r="D480" s="80" t="s">
         <v>822</v>
       </c>
       <c r="E480" s="18" t="s">
@@ -34615,7 +34624,7 @@
       <c r="C514" s="38">
         <v>2</v>
       </c>
-      <c r="D514" s="18" t="s">
+      <c r="D514" s="80" t="s">
         <v>795</v>
       </c>
       <c r="E514" s="18" t="s">
@@ -34663,7 +34672,7 @@
       <c r="C515" s="38">
         <v>2</v>
       </c>
-      <c r="D515" s="18" t="s">
+      <c r="D515" s="80" t="s">
         <v>797</v>
       </c>
       <c r="E515" s="18" t="s">
@@ -34759,7 +34768,7 @@
       <c r="C517" s="38">
         <v>2</v>
       </c>
-      <c r="D517" s="18" t="s">
+      <c r="D517" s="80" t="s">
         <v>1007</v>
       </c>
       <c r="E517" s="18" t="s">
@@ -36631,7 +36640,7 @@
       <c r="C556" s="38">
         <v>2</v>
       </c>
-      <c r="D556" s="18" t="s">
+      <c r="D556" s="80" t="s">
         <v>905</v>
       </c>
       <c r="E556" s="18" t="s">
@@ -37255,7 +37264,7 @@
       <c r="C569" s="38">
         <v>4</v>
       </c>
-      <c r="D569" s="18" t="s">
+      <c r="D569" s="80" t="s">
         <v>716</v>
       </c>
       <c r="E569" s="18" t="s">
@@ -43735,7 +43744,7 @@
       <c r="C704" s="38">
         <v>8</v>
       </c>
-      <c r="D704" s="18" t="s">
+      <c r="D704" s="87" t="s">
         <v>1886</v>
       </c>
       <c r="E704" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EAE8E-745F-4E18-8992-65939F7F9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15135EC-ACF3-4CFC-B3A5-6B7BBD76A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6914,17 +6914,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9837,10 +9837,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E505" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E479" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D514" sqref="D514"/>
+      <selection pane="bottomRight" activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11934,7 +11934,7 @@
       <c r="C44" s="38">
         <v>1</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="18" t="s">
@@ -11985,7 +11985,7 @@
       <c r="C45" s="38">
         <v>1</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="18" t="s">
@@ -14025,7 +14025,7 @@
       <c r="C87" s="38">
         <v>2</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="85" t="s">
         <v>1831</v>
       </c>
       <c r="E87" s="18" t="s">
@@ -14417,7 +14417,7 @@
       <c r="C95" s="38">
         <v>2</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="87" t="s">
         <v>509</v>
       </c>
       <c r="E95" s="18" t="s">
@@ -14468,7 +14468,7 @@
       <c r="C96" s="38">
         <v>2</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="87" t="s">
         <v>511</v>
       </c>
       <c r="E96" s="18" t="s">
@@ -14516,7 +14516,7 @@
       <c r="C97" s="38">
         <v>2</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="87" t="s">
         <v>513</v>
       </c>
       <c r="E97" s="18" t="s">
@@ -14566,7 +14566,7 @@
       <c r="C98" s="38">
         <v>2</v>
       </c>
-      <c r="D98" s="38" t="s">
+      <c r="D98" s="87" t="s">
         <v>1271</v>
       </c>
       <c r="E98" s="22" t="s">
@@ -14664,7 +14664,7 @@
       <c r="C100" s="38">
         <v>2</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="85" t="s">
         <v>1846</v>
       </c>
       <c r="E100" s="18" t="s">
@@ -16400,7 +16400,7 @@
       <c r="C136" s="38">
         <v>2</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="85" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="18" t="s">
@@ -18582,7 +18582,7 @@
       <c r="C181" s="38">
         <v>2</v>
       </c>
-      <c r="D181" s="84" t="s">
+      <c r="D181" s="87" t="s">
         <v>118</v>
       </c>
       <c r="E181" s="18" t="s">
@@ -20899,7 +20899,7 @@
       <c r="C228" s="38">
         <v>5</v>
       </c>
-      <c r="D228" s="22" t="s">
+      <c r="D228" s="87" t="s">
         <v>131</v>
       </c>
       <c r="E228" s="18" t="s">
@@ -23101,7 +23101,7 @@
       <c r="D274" s="80" t="s">
         <v>1156</v>
       </c>
-      <c r="E274" s="85" t="s">
+      <c r="E274" s="84" t="s">
         <v>1966</v>
       </c>
       <c r="F274" s="18" t="s">
@@ -33376,7 +33376,7 @@
       <c r="C488" s="38">
         <v>2</v>
       </c>
-      <c r="D488" s="18" t="s">
+      <c r="D488" s="80" t="s">
         <v>785</v>
       </c>
       <c r="E488" s="18" t="s">
@@ -33808,7 +33808,7 @@
       <c r="C497" s="38">
         <v>2</v>
       </c>
-      <c r="D497" s="18" t="s">
+      <c r="D497" s="80" t="s">
         <v>784</v>
       </c>
       <c r="E497" s="18" t="s">
@@ -34192,7 +34192,7 @@
       <c r="C505" s="38">
         <v>2</v>
       </c>
-      <c r="D505" s="18" t="s">
+      <c r="D505" s="80" t="s">
         <v>780</v>
       </c>
       <c r="E505" s="18" t="s">
@@ -34240,7 +34240,7 @@
       <c r="C506" s="38">
         <v>2</v>
       </c>
-      <c r="D506" s="18" t="s">
+      <c r="D506" s="80" t="s">
         <v>782</v>
       </c>
       <c r="E506" s="18" t="s">
@@ -34288,7 +34288,7 @@
       <c r="C507" s="38">
         <v>2</v>
       </c>
-      <c r="D507" s="18" t="s">
+      <c r="D507" s="80" t="s">
         <v>781</v>
       </c>
       <c r="E507" s="18" t="s">
@@ -34336,7 +34336,7 @@
       <c r="C508" s="38">
         <v>2</v>
       </c>
-      <c r="D508" s="18" t="s">
+      <c r="D508" s="80" t="s">
         <v>771</v>
       </c>
       <c r="E508" s="18" t="s">
@@ -36592,7 +36592,7 @@
       <c r="C555" s="38">
         <v>2</v>
       </c>
-      <c r="D555" s="18" t="s">
+      <c r="D555" s="80" t="s">
         <v>904</v>
       </c>
       <c r="E555" s="18" t="s">
@@ -43744,7 +43744,7 @@
       <c r="C704" s="38">
         <v>8</v>
       </c>
-      <c r="D704" s="87" t="s">
+      <c r="D704" s="85" t="s">
         <v>1886</v>
       </c>
       <c r="E704" s="18" t="s">
@@ -46500,8 +46500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9785D2C-0176-499C-A95A-9028B4A97E79}">
   <dimension ref="A1:B385"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B331" sqref="B331"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49937,6 +49937,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="683f33f1965a4281e1148fdccc0154fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97b5ec5cda9bef38850541e6e5484e88" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -50153,36 +50168,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50205,9 +50194,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15135EC-ACF3-4CFC-B3A5-6B7BBD76A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC8E70D-1763-42C1-8DE1-4193E71D05D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9837,10 +9837,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E479" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E532" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D488" sqref="D488"/>
+      <selection pane="bottomRight" activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30400,7 +30400,7 @@
       <c r="C426" s="38">
         <v>8</v>
       </c>
-      <c r="D426" s="18" t="s">
+      <c r="D426" s="85" t="s">
         <v>621</v>
       </c>
       <c r="E426" s="18" t="s">
@@ -30448,7 +30448,7 @@
       <c r="C427" s="38">
         <v>8</v>
       </c>
-      <c r="D427" s="18" t="s">
+      <c r="D427" s="85" t="s">
         <v>622</v>
       </c>
       <c r="E427" s="18" t="s">
@@ -30496,7 +30496,7 @@
       <c r="C428" s="38">
         <v>8</v>
       </c>
-      <c r="D428" s="18" t="s">
+      <c r="D428" s="85" t="s">
         <v>623</v>
       </c>
       <c r="E428" s="18" t="s">
@@ -30592,7 +30592,7 @@
       <c r="C430" s="38">
         <v>8</v>
       </c>
-      <c r="D430" s="18" t="s">
+      <c r="D430" s="85" t="s">
         <v>1167</v>
       </c>
       <c r="E430" s="18" t="s">
@@ -30640,7 +30640,7 @@
       <c r="C431" s="38">
         <v>8</v>
       </c>
-      <c r="D431" s="18" t="s">
+      <c r="D431" s="85" t="s">
         <v>1168</v>
       </c>
       <c r="E431" s="18" t="s">
@@ -30784,7 +30784,7 @@
       <c r="C434" s="38">
         <v>8</v>
       </c>
-      <c r="D434" s="18" t="s">
+      <c r="D434" s="85" t="s">
         <v>1755</v>
       </c>
       <c r="E434" s="18" t="s">
@@ -33424,7 +33424,7 @@
       <c r="C489" s="38">
         <v>2</v>
       </c>
-      <c r="D489" s="18" t="s">
+      <c r="D489" s="80" t="s">
         <v>775</v>
       </c>
       <c r="E489" s="18" t="s">
@@ -33616,7 +33616,7 @@
       <c r="C493" s="38">
         <v>2</v>
       </c>
-      <c r="D493" s="18" t="s">
+      <c r="D493" s="80" t="s">
         <v>838</v>
       </c>
       <c r="E493" s="18" t="s">
@@ -33664,7 +33664,7 @@
       <c r="C494" s="38">
         <v>2</v>
       </c>
-      <c r="D494" s="18" t="s">
+      <c r="D494" s="80" t="s">
         <v>840</v>
       </c>
       <c r="E494" s="18" t="s">
@@ -33712,7 +33712,7 @@
       <c r="C495" s="38">
         <v>2</v>
       </c>
-      <c r="D495" s="18" t="s">
+      <c r="D495" s="80" t="s">
         <v>842</v>
       </c>
       <c r="E495" s="18" t="s">
@@ -33760,7 +33760,7 @@
       <c r="C496" s="38">
         <v>2</v>
       </c>
-      <c r="D496" s="18" t="s">
+      <c r="D496" s="80" t="s">
         <v>844</v>
       </c>
       <c r="E496" s="18" t="s">
@@ -36064,7 +36064,7 @@
       <c r="C544" s="38">
         <v>2</v>
       </c>
-      <c r="D544" s="18" t="s">
+      <c r="D544" s="80" t="s">
         <v>890</v>
       </c>
       <c r="E544" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC8E70D-1763-42C1-8DE1-4193E71D05D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFE08C-A6DA-4667-86E8-AADE5CC5CCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5626,9 +5626,6 @@
     <t>Een ontwerp Ow-object mag niet bestaan in Ozon.</t>
   </si>
   <si>
-    <t>Een vastgesteld Ow-object mag nog niet bestaan als ontwerp Ow-object</t>
-  </si>
-  <si>
     <t>Een regeling die een tijdelijk deel is, mag zelf geen tijdelijk deel hebben.</t>
   </si>
   <si>
@@ -6238,6 +6235,9 @@
   </si>
   <si>
     <t>dubbel</t>
+  </si>
+  <si>
+    <t>Een ontwerp Ow-object mag nog niet bestaan als vastgesteld Ow-object</t>
   </si>
 </sst>
 </file>
@@ -9837,10 +9837,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E532" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D545" sqref="D545"/>
+      <selection pane="bottomRight" activeCell="E437" sqref="E437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9859,7 +9859,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1747</v>
@@ -11019,10 +11019,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>497</v>
@@ -11055,7 +11055,7 @@
         <v>22</v>
       </c>
       <c r="P25" s="69" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11066,10 +11066,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>497</v>
@@ -11102,7 +11102,7 @@
         <v>22</v>
       </c>
       <c r="P26" s="69" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11875,7 +11875,7 @@
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>1163</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>1163</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>1163</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C57" s="77">
         <v>1</v>
@@ -12598,7 +12598,7 @@
         <v>22</v>
       </c>
       <c r="P57" s="69" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13227,7 +13227,7 @@
     </row>
     <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C71" s="73">
         <v>2</v>
@@ -13236,7 +13236,7 @@
         <v>1268</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>153</v>
@@ -13276,7 +13276,7 @@
         <v>Ja</v>
       </c>
       <c r="P71" s="69" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13287,10 +13287,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="80" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>1823</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>1824</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>153</v>
@@ -13330,7 +13330,7 @@
         <v>Ja</v>
       </c>
       <c r="P72" s="69" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13429,7 +13429,7 @@
         <v>22</v>
       </c>
       <c r="P74" s="76" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13524,7 +13524,7 @@
         <v>22</v>
       </c>
       <c r="P76" s="69" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13577,7 +13577,7 @@
     </row>
     <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>1163</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>1163</v>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C81" s="38">
         <v>2</v>
@@ -13771,12 +13771,12 @@
         <v>22</v>
       </c>
       <c r="P81" s="69" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C82" s="38">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>22</v>
       </c>
       <c r="P82" s="69" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13871,7 +13871,7 @@
     </row>
     <row r="84" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>1163</v>
@@ -13976,10 +13976,10 @@
         <v>2</v>
       </c>
       <c r="D86" s="80" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>1273</v>
@@ -14012,12 +14012,12 @@
         <v>22</v>
       </c>
       <c r="P86" s="69" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>1164</v>
@@ -14026,10 +14026,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="85" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>1273</v>
@@ -14062,12 +14062,12 @@
         <v>22</v>
       </c>
       <c r="P87" s="69" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>1164</v>
@@ -14076,10 +14076,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>1273</v>
@@ -14112,12 +14112,12 @@
         <v>22</v>
       </c>
       <c r="P88" s="69" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>1164</v>
@@ -14126,10 +14126,10 @@
         <v>2</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>1273</v>
@@ -14162,12 +14162,12 @@
         <v>22</v>
       </c>
       <c r="P89" s="69" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>1163</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C91" s="38">
         <v>2</v>
@@ -14260,7 +14260,7 @@
         <v>22</v>
       </c>
       <c r="P91" s="69" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14409,7 +14409,7 @@
     </row>
     <row r="95" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B95" s="38" t="s">
         <v>1163</v>
@@ -14460,7 +14460,7 @@
     </row>
     <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B96" s="38" t="s">
         <v>1163</v>
@@ -14511,7 +14511,7 @@
     </row>
     <row r="97" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C97" s="38">
         <v>2</v>
@@ -14553,12 +14553,12 @@
         <v>22</v>
       </c>
       <c r="P97" s="69" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>1163</v>
@@ -14615,10 +14615,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="18" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E99" s="18" t="s">
         <v>1844</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>1845</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>1273</v>
@@ -14651,12 +14651,12 @@
         <v>22</v>
       </c>
       <c r="P99" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>1164</v>
@@ -14665,10 +14665,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="85" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>1846</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>1847</v>
       </c>
       <c r="F100" s="22" t="s">
         <v>1273</v>
@@ -14701,7 +14701,7 @@
         <v>22</v>
       </c>
       <c r="P100" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,10 +14712,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="18" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E101" s="18" t="s">
         <v>1848</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>1849</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>1273</v>
@@ -14748,7 +14748,7 @@
         <v>22</v>
       </c>
       <c r="P101" s="22" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14759,10 +14759,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="80" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>1850</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>1851</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>1273</v>
@@ -14795,12 +14795,12 @@
         <v>22</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>1164</v>
@@ -14809,10 +14809,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="18" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>1852</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>1853</v>
       </c>
       <c r="F103" s="22" t="s">
         <v>1273</v>
@@ -14845,7 +14845,7 @@
         <v>22</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14856,10 +14856,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="18" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>1854</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>1855</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>1273</v>
@@ -14892,7 +14892,7 @@
         <v>22</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14903,10 +14903,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="18" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>1856</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>1857</v>
       </c>
       <c r="F105" s="22" t="s">
         <v>1273</v>
@@ -14939,7 +14939,7 @@
         <v>22</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14950,10 +14950,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>1858</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>1859</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>1273</v>
@@ -14986,7 +14986,7 @@
         <v>22</v>
       </c>
       <c r="P106" s="22" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15039,7 +15039,7 @@
     </row>
     <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>1163</v>
@@ -15084,7 +15084,7 @@
         <v>22</v>
       </c>
       <c r="P108" s="69" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15131,12 +15131,12 @@
         <v>22</v>
       </c>
       <c r="P109" s="69" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B110" s="38" t="s">
         <v>1163</v>
@@ -15917,10 +15917,10 @@
         <v>2</v>
       </c>
       <c r="D126" s="18" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>1870</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>1871</v>
       </c>
       <c r="F126" s="18" t="s">
         <v>1273</v>
@@ -15953,7 +15953,7 @@
         <v>22</v>
       </c>
       <c r="P126" s="69" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16392,7 +16392,7 @@
     </row>
     <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B136" s="38" t="s">
         <v>1163</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C138" s="38">
         <v>2</v>
@@ -16533,7 +16533,7 @@
         <v>22</v>
       </c>
       <c r="P138" s="69" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
         <v>22</v>
       </c>
       <c r="P142" s="69" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,7 @@
         <v>22</v>
       </c>
       <c r="P143" s="69" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16786,7 +16786,7 @@
         <v>91</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F144" s="18" t="s">
         <v>497</v>
@@ -17155,7 +17155,7 @@
         <v>22</v>
       </c>
       <c r="P151" s="69" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
     </row>
     <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B156" s="38" t="s">
         <v>1164</v>
@@ -17361,10 +17361,10 @@
         <v>2</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F156" s="22" t="s">
         <v>1273</v>
@@ -17397,12 +17397,12 @@
         <v>22</v>
       </c>
       <c r="P156" s="69" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B157" s="38" t="s">
         <v>1164</v>
@@ -17411,10 +17411,10 @@
         <v>2</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F157" s="22" t="s">
         <v>1273</v>
@@ -17447,7 +17447,7 @@
         <v>22</v>
       </c>
       <c r="P157" s="69" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17500,7 +17500,7 @@
     </row>
     <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B159" s="38" t="s">
         <v>1163</v>
@@ -17737,7 +17737,7 @@
         <v>22</v>
       </c>
       <c r="P163" s="69" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17832,12 +17832,12 @@
         <v>22</v>
       </c>
       <c r="P165" s="69" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B166" s="38" t="s">
         <v>1163</v>
@@ -17888,7 +17888,7 @@
     </row>
     <row r="167" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B167" s="38" t="s">
         <v>1163</v>
@@ -17933,7 +17933,7 @@
         <v>22</v>
       </c>
       <c r="P167" s="69" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17986,7 +17986,7 @@
     </row>
     <row r="169" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B169" s="38" t="s">
         <v>1163</v>
@@ -18085,7 +18085,7 @@
     </row>
     <row r="171" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B171" s="38" t="s">
         <v>1163</v>
@@ -18136,7 +18136,7 @@
     </row>
     <row r="172" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B172" s="38" t="s">
         <v>1163</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="180" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="38" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C180" s="38">
         <v>2</v>
@@ -18536,7 +18536,7 @@
         <v>117</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F180" s="18" t="s">
         <v>497</v>
@@ -18569,12 +18569,12 @@
         <v>22</v>
       </c>
       <c r="P180" s="69" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B181" s="38" t="s">
         <v>1163</v>
@@ -18667,7 +18667,7 @@
         <v>22</v>
       </c>
       <c r="P182" s="69" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18962,7 +18962,7 @@
     </row>
     <row r="189" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B189" s="38" t="s">
         <v>1163</v>
@@ -19007,7 +19007,7 @@
         <v>22</v>
       </c>
       <c r="P189" s="69" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19180,7 +19180,7 @@
     </row>
     <row r="193" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B193" s="38" t="s">
         <v>1163</v>
@@ -19339,7 +19339,7 @@
         <v>22</v>
       </c>
       <c r="P195" s="69" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19440,7 +19440,7 @@
     </row>
     <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B198" s="38" t="s">
         <v>1163</v>
@@ -19491,7 +19491,7 @@
     </row>
     <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B199" s="38" t="s">
         <v>1164</v>
@@ -19503,7 +19503,7 @@
         <v>1438</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F199" s="22" t="s">
         <v>1273</v>
@@ -19536,7 +19536,7 @@
         <v>22</v>
       </c>
       <c r="P199" s="69" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19691,7 +19691,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="81" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E203" s="22" t="s">
         <v>1325</v>
@@ -19739,7 +19739,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="81" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E204" s="22" t="s">
         <v>1328</v>
@@ -19781,7 +19781,7 @@
     </row>
     <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B205" s="38" t="s">
         <v>1163</v>
@@ -19790,7 +19790,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="38" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E205" s="22" t="s">
         <v>1331</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="38" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E206" s="22" t="s">
         <v>1334</v>
@@ -19886,7 +19886,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="38" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E207" s="22" t="s">
         <v>1337</v>
@@ -19934,7 +19934,7 @@
         <v>5</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E208" s="22" t="s">
         <v>1340</v>
@@ -19985,7 +19985,7 @@
         <v>1439</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F209" s="22" t="s">
         <v>1273</v>
@@ -20018,7 +20018,7 @@
         <v>22</v>
       </c>
       <c r="P209" s="69" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20065,7 +20065,7 @@
         <v>22</v>
       </c>
       <c r="P210" s="69" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20118,7 +20118,7 @@
     </row>
     <row r="212" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B212" s="38" t="s">
         <v>1163</v>
@@ -20163,12 +20163,12 @@
         <v>22</v>
       </c>
       <c r="P212" s="69" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B213" s="38" t="s">
         <v>1163</v>
@@ -20369,10 +20369,10 @@
         <v>5</v>
       </c>
       <c r="D217" s="81" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F217" s="22" t="s">
         <v>1273</v>
@@ -20405,7 +20405,7 @@
         <v>22</v>
       </c>
       <c r="P217" s="69" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20416,10 +20416,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="81" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F218" s="22" t="s">
         <v>1273</v>
@@ -20452,7 +20452,7 @@
         <v>22</v>
       </c>
       <c r="P218" s="69" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20697,7 +20697,7 @@
     </row>
     <row r="224" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B224" s="38" t="s">
         <v>1163</v>
@@ -20990,7 +20990,7 @@
     </row>
     <row r="230" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B230" s="38" t="s">
         <v>1163</v>
@@ -21133,7 +21133,7 @@
         <v>22</v>
       </c>
       <c r="P232" s="69" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21180,7 +21180,7 @@
         <v>22</v>
       </c>
       <c r="P233" s="69" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21191,10 +21191,10 @@
         <v>5</v>
       </c>
       <c r="D234" s="22" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E234" s="22" t="s">
         <v>1910</v>
-      </c>
-      <c r="E234" s="22" t="s">
-        <v>1911</v>
       </c>
       <c r="F234" s="18" t="s">
         <v>1273</v>
@@ -21227,7 +21227,7 @@
         <v>496</v>
       </c>
       <c r="P234" s="69" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21238,10 +21238,10 @@
         <v>5</v>
       </c>
       <c r="D235" s="22" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E235" s="22" t="s">
         <v>1912</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>1913</v>
       </c>
       <c r="F235" s="18" t="s">
         <v>1273</v>
@@ -21274,7 +21274,7 @@
         <v>496</v>
       </c>
       <c r="P235" s="69" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21285,10 +21285,10 @@
         <v>5</v>
       </c>
       <c r="D236" s="22" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>1914</v>
-      </c>
-      <c r="E236" s="22" t="s">
-        <v>1915</v>
       </c>
       <c r="F236" s="18" t="s">
         <v>1273</v>
@@ -21321,7 +21321,7 @@
         <v>496</v>
       </c>
       <c r="P236" s="69" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21464,7 +21464,7 @@
         <v>22</v>
       </c>
       <c r="P239" s="69" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21751,7 +21751,7 @@
         <v>22</v>
       </c>
       <c r="P245" s="69" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="246" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21798,7 +21798,7 @@
         <v>22</v>
       </c>
       <c r="P246" s="69" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="247" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21845,7 +21845,7 @@
         <v>22</v>
       </c>
       <c r="P247" s="69" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="248" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22051,7 +22051,7 @@
         <v>753</v>
       </c>
       <c r="E252" s="18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F252" s="18" t="s">
         <v>497</v>
@@ -22180,7 +22180,7 @@
         <v>22</v>
       </c>
       <c r="P254" s="69" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="255" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22227,7 +22227,7 @@
         <v>22</v>
       </c>
       <c r="P255" s="69" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="256" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22274,7 +22274,7 @@
         <v>22</v>
       </c>
       <c r="P256" s="69" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="257" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22561,7 +22561,7 @@
         <v>22</v>
       </c>
       <c r="P262" s="69" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="263" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22608,7 +22608,7 @@
         <v>22</v>
       </c>
       <c r="P263" s="69" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="264" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23102,7 +23102,7 @@
         <v>1156</v>
       </c>
       <c r="E274" s="84" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F274" s="18" t="s">
         <v>497</v>
@@ -23195,10 +23195,10 @@
         <v>5</v>
       </c>
       <c r="D276" s="18" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E276" s="18" t="s">
         <v>1906</v>
-      </c>
-      <c r="E276" s="18" t="s">
-        <v>1907</v>
       </c>
       <c r="F276" s="18" t="s">
         <v>497</v>
@@ -23231,7 +23231,7 @@
         <v>22</v>
       </c>
       <c r="P276" s="69" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="277" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23437,7 +23437,7 @@
         <v>1442</v>
       </c>
       <c r="E281" s="71" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F281" s="71" t="s">
         <v>1273</v>
@@ -23470,7 +23470,7 @@
         <v>82</v>
       </c>
       <c r="P281" s="69" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="282" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23481,10 +23481,10 @@
         <v>5</v>
       </c>
       <c r="D282" s="38" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E282" s="71" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F282" s="71" t="s">
         <v>1273</v>
@@ -23517,7 +23517,7 @@
         <v>82</v>
       </c>
       <c r="P282" s="69" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="283" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23708,7 +23708,7 @@
         <v>22</v>
       </c>
       <c r="P286" s="69" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="287" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26354,7 +26354,7 @@
     </row>
     <row r="342" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B342" s="38" t="s">
         <v>1164</v>
@@ -26363,7 +26363,7 @@
         <v>8</v>
       </c>
       <c r="D342" s="80" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E342" s="18" t="s">
         <v>358</v>
@@ -26549,7 +26549,7 @@
     </row>
     <row r="346" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B346" s="38" t="s">
         <v>1163</v>
@@ -26600,7 +26600,7 @@
     </row>
     <row r="347" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B347" s="38" t="s">
         <v>1163</v>
@@ -26939,7 +26939,7 @@
     </row>
     <row r="354" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C354" s="38">
         <v>8</v>
@@ -26987,7 +26987,7 @@
     </row>
     <row r="355" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C355" s="38">
         <v>8</v>
@@ -27035,7 +27035,7 @@
     </row>
     <row r="356" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C356" s="38">
         <v>8</v>
@@ -27083,7 +27083,7 @@
     </row>
     <row r="357" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C357" s="38">
         <v>8</v>
@@ -27131,7 +27131,7 @@
     </row>
     <row r="358" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C358" s="38">
         <v>8</v>
@@ -27179,7 +27179,7 @@
     </row>
     <row r="359" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C359" s="38">
         <v>8</v>
@@ -27761,10 +27761,10 @@
         <v>8</v>
       </c>
       <c r="D371" s="80" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E371" s="18" t="s">
         <v>1788</v>
-      </c>
-      <c r="E371" s="18" t="s">
-        <v>1789</v>
       </c>
       <c r="F371" s="18" t="s">
         <v>456</v>
@@ -27803,7 +27803,7 @@
     </row>
     <row r="372" spans="2:16" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C372" s="38">
         <v>8</v>
@@ -28289,10 +28289,10 @@
         <v>8</v>
       </c>
       <c r="D382" s="80" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E382" s="18" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F382" s="18" t="s">
         <v>456</v>
@@ -28337,10 +28337,10 @@
         <v>8</v>
       </c>
       <c r="D383" s="80" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E383" s="18" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F383" s="18" t="s">
         <v>456</v>
@@ -28913,10 +28913,10 @@
         <v>8</v>
       </c>
       <c r="D395" s="80" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E395" s="18" t="s">
         <v>1790</v>
-      </c>
-      <c r="E395" s="18" t="s">
-        <v>1791</v>
       </c>
       <c r="F395" s="18" t="s">
         <v>456</v>
@@ -29396,7 +29396,7 @@
         <v>1759</v>
       </c>
       <c r="E405" s="75" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F405" s="18" t="s">
         <v>456</v>
@@ -29444,7 +29444,7 @@
         <v>1760</v>
       </c>
       <c r="E406" s="75" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F406" s="18" t="s">
         <v>456</v>
@@ -29492,7 +29492,7 @@
         <v>1761</v>
       </c>
       <c r="E407" s="75" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F407" s="18" t="s">
         <v>456</v>
@@ -29540,7 +29540,7 @@
         <v>1762</v>
       </c>
       <c r="E408" s="75" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F408" s="18" t="s">
         <v>456</v>
@@ -29588,7 +29588,7 @@
         <v>1763</v>
       </c>
       <c r="E409" s="75" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F409" s="18" t="s">
         <v>456</v>
@@ -29636,7 +29636,7 @@
         <v>1764</v>
       </c>
       <c r="E410" s="75" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F410" s="18" t="s">
         <v>456</v>
@@ -29684,7 +29684,7 @@
         <v>1765</v>
       </c>
       <c r="E411" s="75" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F411" s="18" t="s">
         <v>456</v>
@@ -29732,7 +29732,7 @@
         <v>1766</v>
       </c>
       <c r="E412" s="75" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F412" s="18" t="s">
         <v>456</v>
@@ -29780,7 +29780,7 @@
         <v>1767</v>
       </c>
       <c r="E413" s="75" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F413" s="18" t="s">
         <v>456</v>
@@ -29828,7 +29828,7 @@
         <v>1768</v>
       </c>
       <c r="E414" s="75" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F414" s="18" t="s">
         <v>456</v>
@@ -29876,7 +29876,7 @@
         <v>1769</v>
       </c>
       <c r="E415" s="75" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F415" s="18" t="s">
         <v>456</v>
@@ -29924,7 +29924,7 @@
         <v>1770</v>
       </c>
       <c r="E416" s="75" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F416" s="18" t="s">
         <v>456</v>
@@ -29972,7 +29972,7 @@
         <v>1771</v>
       </c>
       <c r="E417" s="75" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F417" s="18" t="s">
         <v>456</v>
@@ -30020,7 +30020,7 @@
         <v>1772</v>
       </c>
       <c r="E418" s="75" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F418" s="18" t="s">
         <v>456</v>
@@ -30068,7 +30068,7 @@
         <v>1773</v>
       </c>
       <c r="E419" s="75" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F419" s="18" t="s">
         <v>456</v>
@@ -30116,7 +30116,7 @@
         <v>1774</v>
       </c>
       <c r="E420" s="75" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F420" s="18" t="s">
         <v>456</v>
@@ -30164,7 +30164,7 @@
         <v>1775</v>
       </c>
       <c r="E421" s="75" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F421" s="18" t="s">
         <v>456</v>
@@ -30212,7 +30212,7 @@
         <v>1776</v>
       </c>
       <c r="E422" s="75" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F422" s="18" t="s">
         <v>456</v>
@@ -30257,10 +30257,10 @@
         <v>8</v>
       </c>
       <c r="D423" s="18" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E423" s="75" t="s">
         <v>1793</v>
-      </c>
-      <c r="E423" s="75" t="s">
-        <v>1794</v>
       </c>
       <c r="F423" s="18" t="s">
         <v>456</v>
@@ -30544,7 +30544,7 @@
       <c r="C429" s="38">
         <v>8</v>
       </c>
-      <c r="D429" s="18" t="s">
+      <c r="D429" s="80" t="s">
         <v>624</v>
       </c>
       <c r="E429" s="18" t="s">
@@ -30736,7 +30736,7 @@
       <c r="C433" s="38">
         <v>8</v>
       </c>
-      <c r="D433" s="18" t="s">
+      <c r="D433" s="80" t="s">
         <v>1756</v>
       </c>
       <c r="E433" s="18" t="s">
@@ -30880,8 +30880,8 @@
       <c r="C436" s="38">
         <v>8</v>
       </c>
-      <c r="D436" s="18" t="s">
-        <v>1783</v>
+      <c r="D436" s="85" t="s">
+        <v>1782</v>
       </c>
       <c r="E436" s="18" t="s">
         <v>1777</v>
@@ -30929,10 +30929,10 @@
         <v>8</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E437" s="18" t="s">
-        <v>1778</v>
+        <v>1967</v>
       </c>
       <c r="F437" s="12" t="s">
         <v>456</v>
@@ -30977,10 +30977,10 @@
         <v>8</v>
       </c>
       <c r="D438" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E438" s="18" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F438" s="12" t="s">
         <v>456</v>
@@ -31025,10 +31025,10 @@
         <v>8</v>
       </c>
       <c r="D439" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E439" s="18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F439" s="12" t="s">
         <v>456</v>
@@ -31073,10 +31073,10 @@
         <v>8</v>
       </c>
       <c r="D440" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E440" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F440" s="12" t="s">
         <v>456</v>
@@ -31697,10 +31697,10 @@
         <v>8</v>
       </c>
       <c r="D453" s="80" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E453" s="18" t="s">
         <v>1813</v>
-      </c>
-      <c r="E453" s="18" t="s">
-        <v>1814</v>
       </c>
       <c r="F453" s="18" t="s">
         <v>456</v>
@@ -43745,10 +43745,10 @@
         <v>8</v>
       </c>
       <c r="D704" s="85" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E704" s="18" t="s">
         <v>1886</v>
-      </c>
-      <c r="E704" s="18" t="s">
-        <v>1887</v>
       </c>
       <c r="F704" s="18" t="s">
         <v>153</v>
@@ -43781,7 +43781,7 @@
         <v>22</v>
       </c>
       <c r="P704" s="69" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="705" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A718FAF-6F6F-433A-8F5F-AB407164323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA8F50-10DE-4C84-AE58-8D22114E8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6947,7 +6947,39 @@
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
     <cellStyle name="Standaard 4" xfId="8" xr:uid="{3FC1731B-057F-4885-8A5E-A86ED814C7D6}"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="257">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9846,10 +9878,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E535" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E424" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E552" sqref="E552"/>
+      <selection pane="bottomRight" activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13257,31 +13289,31 @@
         <v>22</v>
       </c>
       <c r="I71" s="20" t="str">
-        <f t="shared" ref="I71:O72" si="0">I$67</f>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O71" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P71" s="69" t="s">
@@ -13311,31 +13343,31 @@
         <v>22</v>
       </c>
       <c r="I72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O72" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P72" s="69" t="s">
@@ -19043,31 +19075,31 @@
         <v>22</v>
       </c>
       <c r="I190" s="70" t="str">
-        <f t="shared" ref="I190:O194" si="1">I$67</f>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O190" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P190" s="69" t="str">
@@ -19099,31 +19131,31 @@
         <v>22</v>
       </c>
       <c r="I191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O191" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P191" s="69" t="str">
@@ -19155,31 +19187,31 @@
         <v>23</v>
       </c>
       <c r="I192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O192" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P192" s="69" t="str">
@@ -19214,31 +19246,31 @@
         <v>22</v>
       </c>
       <c r="I193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O193" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P193" s="69" t="str">
@@ -19270,31 +19302,31 @@
         <v>22</v>
       </c>
       <c r="I194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>I$67</f>
         <v>Ja</v>
       </c>
       <c r="J194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>J$67</f>
         <v>Ja</v>
       </c>
       <c r="K194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>K$67</f>
         <v>Ja</v>
       </c>
       <c r="L194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>L$67</f>
         <v>Ja</v>
       </c>
       <c r="M194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>M$67</f>
         <v>Ja</v>
       </c>
       <c r="N194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>N$67</f>
         <v>Ja</v>
       </c>
       <c r="O194" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f>O$67</f>
         <v>Ja</v>
       </c>
       <c r="P194" s="69" t="str">
@@ -30937,7 +30969,7 @@
       <c r="C437" s="38">
         <v>8</v>
       </c>
-      <c r="D437" s="18" t="s">
+      <c r="D437" s="79" t="s">
         <v>1779</v>
       </c>
       <c r="E437" s="18" t="s">
@@ -45248,1255 +45280,1258 @@
         <filter val="Ja"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:P704">
+      <sortCondition ref="D1:D734"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G364:G368 D127:D131 G460:G471 G351:G362 G223 G297:G299 G295 G293 G287:G288 G248:G250 G244:G245 G239:G241 G225:G227 G319:H319 F513 I463:O471 N531:O538 C43:D55 C59:D65 C108:D110 C147:D154 N129:O132 H147:H154 N147:O154 C77:D84 N219:O219 H219 N43:O51 N53:O55 N59:O65 N77:O83 N95:O97 N108:O110 H53:H55 H59:H65 H77:H83 H95:H97 H108:H110 N640:O655 C68:D70 H68:H70 N68:O70 C123:D126 H123:H125 N123:O125 C166:D172 C90:D97 H91:H93 N91:O93 D132:E139 C162:D163 N162:O163 H162:H163 I173:O186 N166:O186 H166:H186 N514:O517 H568:H577 N567:O577 G237 G252:G255 G285 H134:H138 N134:O138 D142:E144 G424:G427 I376:O379 H424:H429 N659:O702 H447:O452 H41:H51 H39 B41:C70 C73:D73 B73:C97 N73:O73 H73 B107:C140 B142:C154 B158:C159 B162:C189 B283:C288 G290:G291 N705:O734 B39:C39 N5:O19 H5:H19 B579:C734 N579:O638 H579:H734 G376:H381 H351:O368 H223:O229 H237:O255 H285:O288 C1:P1 H290:O304 F507:O508 B141:O141 B160:O161 I384:P394 I424:P435 B290:C370 P441:P452 P396:P404 I396:O401 B423:B734 B372:C577 P454:P734 I454:O459 H454:H471 B2:B370 N127:O127 H127:H132 B155:O157 B5:D26 B277:O280 B281:D282 G281:O284 G256:O276 B219:C276 G230:O234 D217:D218 F217:O218 D210:O216 D209 F209:O209 D190:O208">
-    <cfRule type="containsText" dxfId="252" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C325:C333 C223:C228 C230:C276">
-    <cfRule type="containsText" dxfId="251" priority="541" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="541" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G459">
-    <cfRule type="containsText" dxfId="250" priority="531" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="531" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318:O318">
-    <cfRule type="containsText" dxfId="249" priority="539" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="539" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I318)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N507:O508">
-    <cfRule type="containsText" dxfId="248" priority="530" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="530" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I508:M508">
-    <cfRule type="containsText" dxfId="247" priority="529" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="529" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I508)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N508:O508">
-    <cfRule type="containsText" dxfId="246" priority="526" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="526" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N508)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I507:M507">
-    <cfRule type="containsText" dxfId="245" priority="525" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="525" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N507:O507">
-    <cfRule type="containsText" dxfId="244" priority="522" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="522" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G363">
-    <cfRule type="containsText" dxfId="243" priority="521" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="521" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447:G452 G428:G435 G454:G456">
-    <cfRule type="containsText" dxfId="242" priority="520" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="520" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G428)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I460:O461">
-    <cfRule type="containsText" dxfId="241" priority="519" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="519" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I460)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N518">
-    <cfRule type="containsText" dxfId="240" priority="488" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I513:O513">
-    <cfRule type="containsText" dxfId="239" priority="514" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="514" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O530">
-    <cfRule type="containsText" dxfId="238" priority="474" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="474" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I462:O462">
-    <cfRule type="containsText" dxfId="237" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I462)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C529">
-    <cfRule type="containsText" dxfId="236" priority="505" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="505" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N530">
-    <cfRule type="containsText" dxfId="235" priority="476" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="476" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H519">
-    <cfRule type="containsText" dxfId="234" priority="491" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="491" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N529">
-    <cfRule type="containsText" dxfId="233" priority="480" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="480" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O518">
-    <cfRule type="containsText" dxfId="232" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C518:C528">
-    <cfRule type="containsText" dxfId="231" priority="504" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="504" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O529">
-    <cfRule type="containsText" dxfId="230" priority="478" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="478" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N519">
-    <cfRule type="containsText" dxfId="229" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O519">
-    <cfRule type="containsText" dxfId="228" priority="482" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="482" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q372:Y375">
-    <cfRule type="containsText" dxfId="227" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F372:G372 F374:G375">
-    <cfRule type="containsText" dxfId="226" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I374:I375">
-    <cfRule type="containsText" dxfId="225" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J372 J374:J375">
-    <cfRule type="containsText" dxfId="224" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K372 K374:K375">
-    <cfRule type="containsText" dxfId="223" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L372 L374:L375">
-    <cfRule type="containsText" dxfId="222" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M372 M374:M375">
-    <cfRule type="containsText" dxfId="221" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N372 N374:N375">
-    <cfRule type="containsText" dxfId="220" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O372 O374:O375">
-    <cfRule type="containsText" dxfId="219" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q472:Y472">
-    <cfRule type="containsText" dxfId="218" priority="436" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="436" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="217" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J472">
-    <cfRule type="containsText" dxfId="216" priority="433" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="433" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K472">
-    <cfRule type="containsText" dxfId="215" priority="432" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="432" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L472">
-    <cfRule type="containsText" dxfId="214" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M472">
-    <cfRule type="containsText" dxfId="213" priority="430" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="430" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N472">
-    <cfRule type="containsText" dxfId="212" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O472">
-    <cfRule type="containsText" dxfId="211" priority="428" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C568:C576">
-    <cfRule type="containsText" dxfId="210" priority="426" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C568)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C577">
-    <cfRule type="containsText" dxfId="209" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C577)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C130">
-    <cfRule type="containsText" dxfId="208" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C334 C324">
-    <cfRule type="containsText" dxfId="207" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C324)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C530:C538">
-    <cfRule type="containsText" dxfId="206" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C335:C350">
-    <cfRule type="containsText" dxfId="205" priority="392" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="392" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C579">
-    <cfRule type="containsText" dxfId="204" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C579)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C513">
-    <cfRule type="containsText" dxfId="203" priority="388" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="388" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C512">
-    <cfRule type="containsText" dxfId="202" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H567">
-    <cfRule type="containsText" dxfId="201" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H567)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39 D41:D42">
-    <cfRule type="containsText" dxfId="200" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F472">
-    <cfRule type="containsText" dxfId="199" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N128:O128">
-    <cfRule type="containsText" dxfId="198" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E74">
-    <cfRule type="containsText" dxfId="197" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:E107">
-    <cfRule type="containsText" dxfId="196" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145:E146">
-    <cfRule type="containsText" dxfId="195" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H146 N142:O146">
-    <cfRule type="containsText" dxfId="194" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187:C189">
-    <cfRule type="containsText" dxfId="193" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:H188">
-    <cfRule type="containsText" dxfId="192" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:O188">
-    <cfRule type="containsText" dxfId="191" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N509:O512 N501:O506 N483:O490 N107:O107 N94:O94 N74:O74 N56:O58 N52:O52 N39:O39 N41:O42">
-    <cfRule type="containsText" dxfId="190" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67:O67 H67">
-    <cfRule type="containsText" dxfId="189" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C67">
-    <cfRule type="containsText" dxfId="188" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66:O66 H66">
-    <cfRule type="containsText" dxfId="187" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C76">
-    <cfRule type="containsText" dxfId="186" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75:O75">
-    <cfRule type="containsText" dxfId="185" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:O76">
-    <cfRule type="containsText" dxfId="184" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:E122">
-    <cfRule type="containsText" dxfId="183" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111:O122 H111:H122">
-    <cfRule type="containsText" dxfId="182" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:O90 H90">
-    <cfRule type="containsText" dxfId="181" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85:O85 H85:H89">
-    <cfRule type="containsText" dxfId="180" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:C165">
-    <cfRule type="containsText" dxfId="179" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H165 N164:O165">
-    <cfRule type="containsText" dxfId="178" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C89">
-    <cfRule type="containsText" dxfId="177" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139 N139:O139">
-    <cfRule type="containsText" dxfId="176" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C159">
-    <cfRule type="containsText" dxfId="175" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:H159 N158:O159">
-    <cfRule type="containsText" dxfId="174" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C220:C222">
-    <cfRule type="containsText" dxfId="173" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N220:O222 H220:H222">
-    <cfRule type="containsText" dxfId="172" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C286">
-    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C580:C609">
-    <cfRule type="containsText" dxfId="170" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C580)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="169" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189:O189">
-    <cfRule type="containsText" dxfId="168" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="containsText" dxfId="167" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N133:O133 H133">
-    <cfRule type="containsText" dxfId="166" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:E140">
-    <cfRule type="containsText" dxfId="165" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140 N140:O140">
-    <cfRule type="containsText" dxfId="164" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="163" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372">
-    <cfRule type="containsText" dxfId="162" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I372">
-    <cfRule type="containsText" dxfId="161" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="containsText" dxfId="160" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G384:G394 G396:G401">
-    <cfRule type="containsText" dxfId="159" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J369">
-    <cfRule type="containsText" dxfId="158" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K369">
-    <cfRule type="containsText" dxfId="157" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L369">
-    <cfRule type="containsText" dxfId="156" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M369">
-    <cfRule type="containsText" dxfId="155" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N369">
-    <cfRule type="containsText" dxfId="154" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="containsText" dxfId="153" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I369">
-    <cfRule type="containsText" dxfId="152" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H26 N20:O24">
-    <cfRule type="containsText" dxfId="151" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H520:H528">
-    <cfRule type="containsText" dxfId="150" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N520:N528">
-    <cfRule type="containsText" dxfId="149" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O520:O528">
-    <cfRule type="containsText" dxfId="148" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N656:O656">
-    <cfRule type="containsText" dxfId="147" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N656)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N657:O657">
-    <cfRule type="containsText" dxfId="146" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N657)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G370">
-    <cfRule type="containsText" dxfId="145" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J370">
-    <cfRule type="containsText" dxfId="144" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K370">
-    <cfRule type="containsText" dxfId="143" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L370">
-    <cfRule type="containsText" dxfId="142" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M370">
-    <cfRule type="containsText" dxfId="141" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N370">
-    <cfRule type="containsText" dxfId="140" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O370">
-    <cfRule type="containsText" dxfId="139" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I370">
-    <cfRule type="containsText" dxfId="138" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F373:G373">
-    <cfRule type="containsText" dxfId="137" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J373">
-    <cfRule type="containsText" dxfId="136" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K373">
-    <cfRule type="containsText" dxfId="135" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L373">
-    <cfRule type="containsText" dxfId="134" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M373">
-    <cfRule type="containsText" dxfId="133" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N373">
-    <cfRule type="containsText" dxfId="132" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O373">
-    <cfRule type="containsText" dxfId="131" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H373">
-    <cfRule type="containsText" dxfId="130" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I373">
-    <cfRule type="containsText" dxfId="129" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I402:O402">
-    <cfRule type="containsText" dxfId="128" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I402)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G402">
-    <cfRule type="containsText" dxfId="127" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G402)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I403:O403">
-    <cfRule type="containsText" dxfId="126" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I403)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G403">
-    <cfRule type="containsText" dxfId="125" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G403)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I404:O404">
-    <cfRule type="containsText" dxfId="124" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G404">
-    <cfRule type="containsText" dxfId="123" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I441:O441">
-    <cfRule type="containsText" dxfId="122" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I441)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G441">
-    <cfRule type="containsText" dxfId="121" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G441)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I442:O446">
-    <cfRule type="containsText" dxfId="120" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I442)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G442:G446">
-    <cfRule type="containsText" dxfId="119" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G442)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:O40 H40 B40:D40">
-    <cfRule type="containsText" dxfId="118" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:B194">
-    <cfRule type="containsText" dxfId="117" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B218">
-    <cfRule type="containsText" dxfId="116" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N703:O703">
-    <cfRule type="containsText" dxfId="115" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N703)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289 I289:O289 D289:G289">
-    <cfRule type="containsText" dxfId="114" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H510">
-    <cfRule type="containsText" dxfId="113" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H510)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H510">
-    <cfRule type="containsText" dxfId="112" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H510)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="111" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="110" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512">
-    <cfRule type="containsText" dxfId="109" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512">
-    <cfRule type="containsText" dxfId="108" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="107" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="106" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514">
-    <cfRule type="containsText" dxfId="105" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514">
-    <cfRule type="containsText" dxfId="104" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H515">
-    <cfRule type="containsText" dxfId="103" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H515">
-    <cfRule type="containsText" dxfId="102" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H516">
-    <cfRule type="containsText" dxfId="101" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H516">
-    <cfRule type="containsText" dxfId="100" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H517">
-    <cfRule type="containsText" dxfId="99" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H517">
-    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H518">
-    <cfRule type="containsText" dxfId="97" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H518">
-    <cfRule type="containsText" dxfId="96" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H529">
-    <cfRule type="containsText" dxfId="95" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H529">
-    <cfRule type="containsText" dxfId="94" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H530">
-    <cfRule type="containsText" dxfId="93" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H530">
-    <cfRule type="containsText" dxfId="92" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H531">
-    <cfRule type="containsText" dxfId="91" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H531">
-    <cfRule type="containsText" dxfId="90" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H532">
-    <cfRule type="containsText" dxfId="89" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H532)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H532">
-    <cfRule type="containsText" dxfId="88" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H532)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H533">
-    <cfRule type="containsText" dxfId="87" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H533)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H533">
-    <cfRule type="containsText" dxfId="86" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H533)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H534">
-    <cfRule type="containsText" dxfId="85" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H534)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H534">
-    <cfRule type="containsText" dxfId="84" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H534)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H535">
-    <cfRule type="containsText" dxfId="83" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H535)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H535">
-    <cfRule type="containsText" dxfId="82" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H535)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="81" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="80" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H537">
-    <cfRule type="containsText" dxfId="79" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H537)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H537">
-    <cfRule type="containsText" dxfId="78" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H537)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="77" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="76" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="75" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="74" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="73" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="72" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="71" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="70" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542">
-    <cfRule type="containsText" dxfId="69" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542">
-    <cfRule type="containsText" dxfId="68" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H38 H27:H30 C27:D38 N27:O38">
-    <cfRule type="containsText" dxfId="67" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="66" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 N4:O4 B4:D4">
-    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P24 P107:P155 P372:P379 P83:P85 P90:P97 P158:P216 P27:P80 P283:P370 P237:P280 P219:P233">
-    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3 C2:D3 N2:O3">
-    <cfRule type="containsText" dxfId="63" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="containsText" dxfId="62" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P98 B98:H98 B99:C106 F99:H106">
-    <cfRule type="containsText" dxfId="61" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C578">
-    <cfRule type="containsText" dxfId="59" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C578)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N578:O578 H578">
-    <cfRule type="containsText" dxfId="58" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H578)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:C218">
-    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:C218">
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I380:O380">
-    <cfRule type="containsText" dxfId="55" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P380">
-    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I381:O381">
-    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P381">
-    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P405:P422">
-    <cfRule type="containsText" dxfId="51" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I405:O422">
-    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G405:G422">
-    <cfRule type="containsText" dxfId="49" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I436:P440">
-    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I436)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G436:G440">
-    <cfRule type="containsText" dxfId="47" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G436)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B371:C371">
-    <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371">
-    <cfRule type="containsText" dxfId="45" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J371">
-    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K371">
-    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L371">
-    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M371">
-    <cfRule type="containsText" dxfId="41" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N371">
-    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O371">
-    <cfRule type="containsText" dxfId="39" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I371">
-    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P371">
-    <cfRule type="containsText" dxfId="37" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I395:P395">
-    <cfRule type="containsText" dxfId="36" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G395">
-    <cfRule type="containsText" dxfId="35" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P423">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I423:O423">
-    <cfRule type="containsText" dxfId="33" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G423">
-    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G382:H382">
-    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I382:O382">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P382">
-    <cfRule type="containsText" dxfId="29" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G383:H383">
-    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I383:O383">
-    <cfRule type="containsText" dxfId="27" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P383">
-    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H453:P453">
-    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="24" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P81:P82">
-    <cfRule type="containsText" dxfId="23" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P86:P89">
-    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N86:O86">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87:O87">
-    <cfRule type="containsText" dxfId="20" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N88:O88">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:O89">
-    <cfRule type="containsText" dxfId="18" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P99:P106">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126 N126:O126">
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P156:P157">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N704:O704">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N704)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P26">
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P281:P282">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P234:P236">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217:E218">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:O25">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:O26">
-    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G235:O235">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:O236">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281:F282">
-    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P217:P218">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P217)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49598,7 +49633,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49928,12 +49963,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA8F50-10DE-4C84-AE58-8D22114E8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1211A-BCA0-4B62-83A0-A74FBE564940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9878,10 +9878,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E424" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D437" sqref="D437"/>
+      <selection pane="bottomRight" activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22947,7 +22947,7 @@
       <c r="C270" s="38">
         <v>5</v>
       </c>
-      <c r="D270" s="18" t="s">
+      <c r="D270" s="79" t="s">
         <v>1144</v>
       </c>
       <c r="E270" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1211A-BCA0-4B62-83A0-A74FBE564940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DB87F-56F2-41B3-B095-810347EC4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -9878,10 +9878,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E398" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D270" sqref="D270"/>
+      <selection pane="bottomRight" activeCell="E427" sqref="E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30873,7 +30873,7 @@
       <c r="C435" s="38">
         <v>8</v>
       </c>
-      <c r="D435" s="18" t="s">
+      <c r="D435" s="84" t="s">
         <v>1749</v>
       </c>
       <c r="E435" s="78" t="s">
@@ -31017,7 +31017,7 @@
       <c r="C438" s="38">
         <v>8</v>
       </c>
-      <c r="D438" s="18" t="s">
+      <c r="D438" s="79" t="s">
         <v>1780</v>
       </c>
       <c r="E438" s="18" t="s">
@@ -31065,7 +31065,7 @@
       <c r="C439" s="38">
         <v>8</v>
       </c>
-      <c r="D439" s="18" t="s">
+      <c r="D439" s="79" t="s">
         <v>1781</v>
       </c>
       <c r="E439" s="18" t="s">
@@ -31113,7 +31113,7 @@
       <c r="C440" s="38">
         <v>8</v>
       </c>
-      <c r="D440" s="18" t="s">
+      <c r="D440" s="79" t="s">
         <v>1782</v>
       </c>
       <c r="E440" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DB87F-56F2-41B3-B095-810347EC4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A407FB4-4D11-4428-A8A9-D968A78161CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9878,10 +9878,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E398" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E453" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E427" sqref="E427"/>
+      <selection pane="bottomRight" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33513,7 +33513,7 @@
       <c r="C490" s="38">
         <v>2</v>
       </c>
-      <c r="D490" s="18" t="s">
+      <c r="D490" s="79" t="s">
         <v>773</v>
       </c>
       <c r="E490" s="18" t="s">
@@ -36441,7 +36441,7 @@
       <c r="C551" s="38">
         <v>2</v>
       </c>
-      <c r="D551" s="18" t="s">
+      <c r="D551" s="79" t="s">
         <v>895</v>
       </c>
       <c r="E551" s="18" t="s">
@@ -36489,7 +36489,7 @@
       <c r="C552" s="38">
         <v>2</v>
       </c>
-      <c r="D552" s="18" t="s">
+      <c r="D552" s="79" t="s">
         <v>896</v>
       </c>
       <c r="E552" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A407FB4-4D11-4428-A8A9-D968A78161CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072638F-9434-4C4E-A938-8C71D57F637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10416" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10410" uniqueCount="1966">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6186,18 +6186,9 @@
     <t>kan er een join-id in de wasId?</t>
   </si>
   <si>
-    <t>geen AMvB</t>
-  </si>
-  <si>
-    <t>soortProecdure staat in BesluitMetadata en is een woord. Wordt hier soortregeling bedoeld?</t>
-  </si>
-  <si>
     <t>twee fouten in een</t>
   </si>
   <si>
-    <t>deze moeten we even overleggen</t>
-  </si>
-  <si>
     <t>mededeling dat dit kennisgeving betreft ontbreekt</t>
   </si>
   <si>
@@ -6229,9 +6220,6 @@
   </si>
   <si>
     <t>soortRegeling van de eerste RegelingMetadata in een besluit moet beginnen met '/join/id/stop/regelingtype_00' (zodat van daaruit later juiste waardes kunnen worden bepaald)</t>
-  </si>
-  <si>
-    <t>regeling mutatie zonder mutaties</t>
   </si>
   <si>
     <t>De regeling bij de was- en wordt-versie mag niet ingetrokken zijn</t>
@@ -9878,10 +9866,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E453" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D490" sqref="D490"/>
+      <selection pane="bottomRight" activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14116,7 +14104,7 @@
       <c r="C88" s="38">
         <v>2</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="88" t="s">
         <v>1827</v>
       </c>
       <c r="E88" s="18" t="s">
@@ -14166,7 +14154,7 @@
       <c r="C89" s="38">
         <v>2</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="88" t="s">
         <v>1828</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -14216,7 +14204,7 @@
       <c r="C90" s="38">
         <v>2</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="80" t="s">
         <v>501</v>
       </c>
       <c r="E90" s="18" t="s">
@@ -17401,11 +17389,11 @@
       <c r="C156" s="72">
         <v>2</v>
       </c>
-      <c r="D156" s="38" t="s">
+      <c r="D156" s="87" t="s">
         <v>1872</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="F156" s="22" t="s">
         <v>1269</v>
@@ -17451,11 +17439,11 @@
       <c r="C157" s="72">
         <v>2</v>
       </c>
-      <c r="D157" s="38" t="s">
+      <c r="D157" s="87" t="s">
         <v>1873</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F157" s="22" t="s">
         <v>1269</v>
@@ -17638,7 +17626,7 @@
         <v>De aanlevering met OIN %1 en LeveringId Id %2 bevat een Informatie Object met Expressie-id %3, die al aanwezig is</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="38" t="s">
         <v>1159</v>
       </c>
@@ -17686,7 +17674,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="38" t="s">
         <v>1159</v>
       </c>
@@ -17734,7 +17722,7 @@
         <v>De aangeleverde AKN bestaat al : %1, publicatie niet mogelijk</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="38" t="s">
         <v>1159</v>
       </c>
@@ -17781,7 +17769,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="38" t="s">
         <v>1407</v>
       </c>
@@ -17829,7 +17817,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="38" t="s">
         <v>1159</v>
       </c>
@@ -17876,10 +17864,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1950</v>
-      </c>
+    <row r="166" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="38" t="s">
         <v>1159</v>
       </c>
@@ -17927,21 +17912,18 @@
         <v>[AanleveringBesluit - Controle verwerking AMvB] Besluit heeft betrekking op een AMvB en deze kan vooralsnog niet gepubliceerd worden omdat het noodzakelijke gegeven met de identificatie van het Staatsblad ontbreekt</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1951</v>
-      </c>
+    <row r="167" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C167" s="38">
         <v>2</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="80" t="s">
         <v>733</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="F167" s="18" t="s">
         <v>497</v>
@@ -17977,7 +17959,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="38" t="s">
         <v>1407</v>
       </c>
@@ -18025,17 +18007,14 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1965</v>
-      </c>
+    <row r="169" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C169" s="38">
         <v>5</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="80" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="18" t="s">
@@ -18076,7 +18055,7 @@
         <v>Besluit voor oin : %1 en id-levering : %2 bevat geen mutaties; dit scenario wordt door de LVBB niet ondersteund</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="38" t="s">
         <v>1159</v>
       </c>
@@ -18124,17 +18103,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1948</v>
-      </c>
+    <row r="171" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C171" s="38">
         <v>5</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="80" t="s">
         <v>50</v>
       </c>
       <c r="E171" s="18" t="s">
@@ -18175,17 +18151,14 @@
         <v>WordtVersie %1 bestaat al</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1948</v>
-      </c>
+    <row r="172" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C172" s="38">
         <v>5</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="80" t="s">
         <v>51</v>
       </c>
       <c r="E172" s="18" t="s">
@@ -18226,7 +18199,7 @@
         <v>WasVersie %1 bestaat niet</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="38" t="s">
         <v>1159</v>
       </c>
@@ -18274,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="38" t="s">
         <v>1159</v>
       </c>
@@ -18322,7 +18295,7 @@
         <v>[Controleer Aanwezig Datum Ondertekening] Geen datum ondertekening aanwezig</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="38" t="s">
         <v>1159</v>
       </c>
@@ -18370,7 +18343,7 @@
         <v>[Controleer Tijdstempels bij Ontwerpbesluit] Er mogen geen tijdstempels aanwezig zijn bij een ontwerp besluit</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="38" t="s">
         <v>1159</v>
       </c>
@@ -18960,7 +18933,7 @@
       <c r="C188" s="38">
         <v>2</v>
       </c>
-      <c r="D188" s="22" t="s">
+      <c r="D188" s="87" t="s">
         <v>739</v>
       </c>
       <c r="E188" s="22" t="s">
@@ -19003,7 +18976,7 @@
     </row>
     <row r="189" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B189" s="38" t="s">
         <v>1159</v>
@@ -19220,16 +19193,13 @@
       </c>
     </row>
     <row r="193" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>1953</v>
-      </c>
       <c r="B193" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C193" s="38">
         <v>5</v>
       </c>
-      <c r="D193" s="38" t="s">
+      <c r="D193" s="80" t="s">
         <v>1293</v>
       </c>
       <c r="E193" s="22" t="s">
@@ -19481,7 +19451,7 @@
     </row>
     <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B198" s="38" t="s">
         <v>1159</v>
@@ -19532,7 +19502,7 @@
     </row>
     <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B199" s="38" t="s">
         <v>1160</v>
@@ -19822,7 +19792,7 @@
     </row>
     <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="B205" s="38" t="s">
         <v>1159</v>
@@ -20159,7 +20129,7 @@
     </row>
     <row r="212" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B212" s="38" t="s">
         <v>1159</v>
@@ -20209,7 +20179,7 @@
     </row>
     <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B213" s="38" t="s">
         <v>1159</v>
@@ -21138,7 +21108,7 @@
         <v>549</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F232" s="18" t="s">
         <v>497</v>
@@ -21699,7 +21669,7 @@
     </row>
     <row r="244" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B244" s="38" t="s">
         <v>1159</v>
@@ -23143,7 +23113,7 @@
         <v>1152</v>
       </c>
       <c r="E274" s="83" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="F274" s="18" t="s">
         <v>497</v>
@@ -23620,7 +23590,7 @@
         <v>1100</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="F284" s="18" t="s">
         <v>497</v>
@@ -26395,7 +26365,7 @@
     </row>
     <row r="342" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B342" s="38" t="s">
         <v>1160</v>
@@ -26590,7 +26560,7 @@
     </row>
     <row r="346" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B346" s="38" t="s">
         <v>1159</v>
@@ -26641,7 +26611,7 @@
     </row>
     <row r="347" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B347" s="38" t="s">
         <v>1159</v>
@@ -30973,7 +30943,7 @@
         <v>1779</v>
       </c>
       <c r="E437" s="18" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F437" s="12" t="s">
         <v>456</v>
@@ -36493,7 +36463,7 @@
         <v>896</v>
       </c>
       <c r="E552" s="18" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="F552" s="19" t="s">
         <v>497</v>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072638F-9434-4C4E-A938-8C71D57F637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9B10C-B676-489A-B21E-90CC0AD33347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9866,10 +9866,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D193" sqref="D193"/>
+      <selection pane="bottomRight" activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22058,7 +22058,7 @@
       <c r="C252" s="38">
         <v>5</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="79" t="s">
         <v>750</v>
       </c>
       <c r="E252" s="18" t="s">
@@ -31467,7 +31467,7 @@
       <c r="C448" s="38">
         <v>8</v>
       </c>
-      <c r="D448" s="18" t="s">
+      <c r="D448" s="88" t="s">
         <v>623</v>
       </c>
       <c r="E448" s="18" t="s">
@@ -31659,7 +31659,7 @@
       <c r="C452" s="38">
         <v>8</v>
       </c>
-      <c r="D452" s="18" t="s">
+      <c r="D452" s="88" t="s">
         <v>627</v>
       </c>
       <c r="E452" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9B10C-B676-489A-B21E-90CC0AD33347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154396F8-E739-4BF9-A68D-98CACF70A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9866,10 +9866,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D247" sqref="D247"/>
+      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21578,7 +21578,7 @@
       <c r="C242" s="38">
         <v>5</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="80" t="s">
         <v>550</v>
       </c>
       <c r="E242" s="18" t="s">
@@ -21677,7 +21677,7 @@
       <c r="C244" s="38">
         <v>5</v>
       </c>
-      <c r="D244" s="22" t="s">
+      <c r="D244" s="80" t="s">
         <v>554</v>
       </c>
       <c r="E244" s="18" t="s">
@@ -21819,7 +21819,7 @@
       <c r="C247" s="38">
         <v>5</v>
       </c>
-      <c r="D247" s="18" t="s">
+      <c r="D247" s="88" t="s">
         <v>1057</v>
       </c>
       <c r="E247" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154396F8-E739-4BF9-A68D-98CACF70A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C8DE7-172C-4104-ABCA-8C36317CAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9866,7 +9866,7 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
@@ -21530,7 +21530,7 @@
       <c r="C241" s="38">
         <v>5</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D241" s="80" t="s">
         <v>143</v>
       </c>
       <c r="E241" s="18" t="s">

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C8DE7-172C-4104-ABCA-8C36317CAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FBD7A1-596A-4272-A5A7-512FF19EBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10410" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10409" uniqueCount="1966">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -9869,7 +9869,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20756,7 +20756,7 @@
 Onjuiste doelpositie voor mutatie bij versie : %1 en WijzigArtikel / WijzigLid met wId : %2 en index : %3</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="38" t="s">
         <v>1159</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>Geen wordtVersie aanwezig</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="38" t="s">
         <v>1159</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>Geen wasVersie aanwezig</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="38" t="s">
         <v>1159</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>Versie %1 is een ontwerp regelingversie, kan niet als basis dienen voor muteren</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="38" t="s">
         <v>1159</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>Versie met akn %1 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="38" t="s">
         <v>1159</v>
       </c>
@@ -20996,10 +20996,7 @@
         <v>Regeling bij was-versie %1 is niet geljk aan regeling bij wordt-versie %2</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1948</v>
-      </c>
+    <row r="230" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21049,14 +21046,14 @@
 Toelichting bestaat al voor regeling : %1, opvoeren nieuwe toelichting niet mogelijk met mutatie bij versie : %2 en WijzigArtikel / WijzigLid met wId : %3 en index : %4</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C231" s="38">
         <v>5</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="80" t="s">
         <v>135</v>
       </c>
       <c r="E231" s="18" t="s">
@@ -21097,7 +21094,7 @@
         <v>Er kan maar 1 mutatie voor een toelichting voor mutatie bij versie : %1 en WijzigArtikel / WijzigLid met wId : %2 en index : %3</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21144,7 +21141,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21191,7 +21188,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="38" t="s">
         <v>1160</v>
       </c>
@@ -21238,7 +21235,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="38" t="s">
         <v>1160</v>
       </c>
@@ -21285,7 +21282,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="38" t="s">
         <v>1160</v>
       </c>
@@ -21332,7 +21329,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21380,7 +21377,7 @@
         <v>Versie niet kunnen expanderen voor : %1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21428,7 +21425,7 @@
         <v>Meerdere datum inwerking gevonden in besluit bij oin %1 en id-levering %2 voor doel %3</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="38" t="s">
         <v>1159</v>
       </c>
@@ -21475,7 +21472,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="38" t="s">
         <v>1159</v>
       </c>

--- a/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
+++ b/1.0.4-matrix-1.3-rc/matrix/Validatiematrix_v1.3-rc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-matrix-1.3-rc\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FBD7A1-596A-4272-A5A7-512FF19EBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F401D874-F247-4C40-86A5-D11B63FF591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Legenda!$A:$B,Legenda!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4225,73 +4224,37 @@
     <t>Referentierapport OW met identificatie %1 bevat niet 1 doel en 1 wIdRegeling</t>
   </si>
   <si>
-    <t>GEO0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">losgekoppeld middendeel </t>
   </si>
   <si>
-    <t>GEO0002</t>
-  </si>
-  <si>
     <t xml:space="preserve">dubbele identieke ringen </t>
   </si>
   <si>
-    <t>GEO0003</t>
-  </si>
-  <si>
     <t xml:space="preserve">gat ligt buiten de buitenrand </t>
   </si>
   <si>
-    <t>GEO0004</t>
-  </si>
-  <si>
     <t xml:space="preserve">ongeldige coordinaat </t>
   </si>
   <si>
-    <t>GEO0005</t>
-  </si>
-  <si>
     <t xml:space="preserve">gaten in een gat </t>
   </si>
   <si>
-    <t>GEO0006</t>
-  </si>
-  <si>
     <t xml:space="preserve">buitenrand binnen een buitenrand </t>
   </si>
   <si>
-    <t>GEO0007</t>
-  </si>
-  <si>
     <t xml:space="preserve">niet gesloten ring </t>
   </si>
   <si>
-    <t>GEO0008</t>
-  </si>
-  <si>
     <t xml:space="preserve">ring doorsnijdt zichzelf </t>
   </si>
   <si>
-    <t>GEO0009</t>
-  </si>
-  <si>
     <t xml:space="preserve">zichzelf doorsnijdende structuur </t>
   </si>
   <si>
-    <t>GEO0010</t>
-  </si>
-  <si>
     <t xml:space="preserve">geometrische component heeft te weinig punten </t>
   </si>
   <si>
-    <t>GEO0011</t>
-  </si>
-  <si>
     <t xml:space="preserve">coordinaat komt meerdere keren voor </t>
-  </si>
-  <si>
-    <t>GEO0012</t>
   </si>
   <si>
     <t xml:space="preserve">coordinaat systeem niet ondersteund </t>
@@ -6232,6 +6195,42 @@
   </si>
   <si>
     <t>Voorwaarde: Een opvolgingsrelatie data:opvolgerVan wijst naar een Work van een Regeling (niet naar besluit)</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_1</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_2</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_3</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_4</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_5</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_6</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_7</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_8</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_9</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_10</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_11</t>
+  </si>
+  <si>
+    <t>GEOMETRY.03.2_12</t>
   </si>
 </sst>
 </file>
@@ -6911,9 +6910,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6922,6 +6918,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6935,39 +6934,7 @@
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
     <cellStyle name="Standaard 4" xfId="8" xr:uid="{3FC1731B-057F-4885-8A5E-A86ED814C7D6}"/>
   </cellStyles>
-  <dxfs count="257">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="253">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9866,10 +9833,10 @@
   <dimension ref="A1:P734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E599" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D231" sqref="D231"/>
+      <selection pane="bottomRight" activeCell="D432" sqref="D292:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9888,10 +9855,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>443</v>
@@ -9938,16 +9905,16 @@
     </row>
     <row r="2" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C2" s="38">
         <v>2</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>497</v>
@@ -9981,21 +9948,21 @@
       </c>
       <c r="P2" s="69" t="str">
         <f>IF(B2="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D2,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D2,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De informatieobjectRef[waarde van ref] komt niet voor in een ExtIoRef van het besluit</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C3" s="38">
         <v>2</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>497</v>
@@ -10029,7 +9996,7 @@
       </c>
       <c r="P3" s="69" t="str">
         <f>IF(B3="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D3,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D3,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De ExtIoRef[waarde van ref] is niet opgenomen als data:informatieobjectRef. Controleer de verwijzingen op volledigheid.</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11048,10 +11015,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>497</v>
@@ -11084,7 +11051,7 @@
         <v>22</v>
       </c>
       <c r="P25" s="69" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11095,10 +11062,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>497</v>
@@ -11131,7 +11098,7 @@
         <v>22</v>
       </c>
       <c r="P26" s="69" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11142,10 +11109,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="79" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>1383</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>1384</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>979</v>
@@ -11190,10 +11157,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>1385</v>
+        <v>1955</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>979</v>
@@ -11238,10 +11205,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>1387</v>
+        <v>1956</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>979</v>
@@ -11286,10 +11253,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>1389</v>
+        <v>1957</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>979</v>
@@ -11334,10 +11301,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>1391</v>
+        <v>1958</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>979</v>
@@ -11382,10 +11349,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>1393</v>
+        <v>1959</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>979</v>
@@ -11430,10 +11397,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>1395</v>
+        <v>1960</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>979</v>
@@ -11478,10 +11445,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>1397</v>
+        <v>1961</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>979</v>
@@ -11526,10 +11493,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>1399</v>
+        <v>1962</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>979</v>
@@ -11574,10 +11541,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>1401</v>
+        <v>1963</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>979</v>
@@ -11622,10 +11589,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>1403</v>
+        <v>1964</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>979</v>
@@ -11670,10 +11637,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>1405</v>
+        <v>1965</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>979</v>
@@ -11904,7 +11871,7 @@
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>1159</v>
@@ -11955,7 +11922,7 @@
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>1159</v>
@@ -11963,7 +11930,7 @@
       <c r="C44" s="38">
         <v>1</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="18" t="s">
@@ -12006,7 +11973,7 @@
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>1159</v>
@@ -12014,7 +11981,7 @@
       <c r="C45" s="38">
         <v>1</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="85" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="18" t="s">
@@ -12249,7 +12216,7 @@
     </row>
     <row r="50" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C50" s="38">
         <v>1</v>
@@ -12292,7 +12259,7 @@
       </c>
       <c r="P50" s="69" t="str">
         <f>IF(B50="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D50,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D50,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen:  opdracht.xml valideert niet tegen schema: &lt;validation-errors&gt;</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12345,7 +12312,7 @@
     </row>
     <row r="52" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C52" s="38">
         <v>1</v>
@@ -12388,7 +12355,7 @@
       </c>
       <c r="P52" s="69" t="str">
         <f>IF(B52="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D52,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D52,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen:  manifest.xml valideert niet tegen schema: &lt;validation-errors&gt;</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12537,7 +12504,7 @@
     </row>
     <row r="56" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C56" s="38">
         <v>1</v>
@@ -12580,12 +12547,12 @@
       </c>
       <c r="P56" s="69" t="str">
         <f>IF(B56="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D56,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D56,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C57" s="77">
         <v>1</v>
@@ -12627,7 +12594,7 @@
         <v>22</v>
       </c>
       <c r="P57" s="69" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13016,7 +12983,7 @@
     </row>
     <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C66" s="38">
         <v>1</v>
@@ -13059,12 +13026,12 @@
       </c>
       <c r="P66" s="69" t="str">
         <f>IF(B66="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D66,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D66,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen: Maximale lengte idLevering overschreden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C67" s="38">
         <v>1</v>
@@ -13107,7 +13074,7 @@
       </c>
       <c r="P67" s="69" t="str">
         <f>IF(B67="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D67,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D67,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen: Niet geldige karakters gevonden in idLevering: &lt;idLevering&gt;</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13256,7 +13223,7 @@
     </row>
     <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C71" s="73">
         <v>2</v>
@@ -13265,7 +13232,7 @@
         <v>1264</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>153</v>
@@ -13277,35 +13244,35 @@
         <v>22</v>
       </c>
       <c r="I71" s="20" t="str">
-        <f>I$67</f>
+        <f t="shared" ref="I71:O72" si="0">I$67</f>
         <v>Ja</v>
       </c>
       <c r="J71" s="20" t="str">
-        <f>J$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="K71" s="20" t="str">
-        <f>K$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="L71" s="20" t="str">
-        <f>L$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="M71" s="20" t="str">
-        <f>M$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="N71" s="20" t="str">
-        <f>N$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="O71" s="20" t="str">
-        <f>O$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="P71" s="69" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13316,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>153</v>
@@ -13331,35 +13298,35 @@
         <v>22</v>
       </c>
       <c r="I72" s="20" t="str">
-        <f>I$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="J72" s="20" t="str">
-        <f>J$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="K72" s="20" t="str">
-        <f>K$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="L72" s="20" t="str">
-        <f>L$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="M72" s="20" t="str">
-        <f>M$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="N72" s="20" t="str">
-        <f>N$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="O72" s="20" t="str">
-        <f>O$67</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="P72" s="69" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13458,12 +13425,12 @@
         <v>22</v>
       </c>
       <c r="P74" s="76" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C75" s="38">
         <v>2</v>
@@ -13506,7 +13473,7 @@
       </c>
       <c r="P75" s="69" t="str">
         <f>IF(B75="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D75,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D75,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Geen id-levering in de opdracht</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13553,7 +13520,7 @@
         <v>22</v>
       </c>
       <c r="P76" s="69" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13606,7 +13573,7 @@
     </row>
     <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>1159</v>
@@ -13614,7 +13581,7 @@
       <c r="C78" s="38">
         <v>2</v>
       </c>
-      <c r="D78" s="86" t="s">
+      <c r="D78" s="85" t="s">
         <v>150</v>
       </c>
       <c r="E78" s="18" t="s">
@@ -13659,7 +13626,7 @@
     </row>
     <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C79" s="38">
         <v>2</v>
@@ -13707,7 +13674,7 @@
     </row>
     <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>1159</v>
@@ -13715,7 +13682,7 @@
       <c r="C80" s="38">
         <v>2</v>
       </c>
-      <c r="D80" s="86" t="s">
+      <c r="D80" s="85" t="s">
         <v>499</v>
       </c>
       <c r="E80" s="18" t="s">
@@ -13758,7 +13725,7 @@
     </row>
     <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C81" s="38">
         <v>2</v>
@@ -13800,12 +13767,12 @@
         <v>22</v>
       </c>
       <c r="P81" s="69" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C82" s="38">
         <v>2</v>
@@ -13847,7 +13814,7 @@
         <v>22</v>
       </c>
       <c r="P82" s="69" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13900,7 +13867,7 @@
     </row>
     <row r="84" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>1159</v>
@@ -13908,7 +13875,7 @@
       <c r="C84" s="38">
         <v>2</v>
       </c>
-      <c r="D84" s="86" t="s">
+      <c r="D84" s="85" t="s">
         <v>1110</v>
       </c>
       <c r="E84" s="18" t="s">
@@ -13951,7 +13918,7 @@
     </row>
     <row r="85" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C85" s="38">
         <v>2</v>
@@ -14005,10 +13972,10 @@
         <v>2</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>1269</v>
@@ -14041,12 +14008,12 @@
         <v>22</v>
       </c>
       <c r="P86" s="69" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>1160</v>
@@ -14055,10 +14022,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="84" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>1269</v>
@@ -14091,12 +14058,12 @@
         <v>22</v>
       </c>
       <c r="P87" s="69" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>1160</v>
@@ -14104,11 +14071,11 @@
       <c r="C88" s="38">
         <v>2</v>
       </c>
-      <c r="D88" s="88" t="s">
-        <v>1827</v>
+      <c r="D88" s="87" t="s">
+        <v>1815</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>1269</v>
@@ -14141,12 +14108,12 @@
         <v>22</v>
       </c>
       <c r="P88" s="69" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>1160</v>
@@ -14154,11 +14121,11 @@
       <c r="C89" s="38">
         <v>2</v>
       </c>
-      <c r="D89" s="88" t="s">
-        <v>1828</v>
+      <c r="D89" s="87" t="s">
+        <v>1816</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>1269</v>
@@ -14191,12 +14158,12 @@
         <v>22</v>
       </c>
       <c r="P89" s="69" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>1159</v>
@@ -14247,7 +14214,7 @@
     </row>
     <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C91" s="38">
         <v>2</v>
@@ -14289,7 +14256,7 @@
         <v>22</v>
       </c>
       <c r="P91" s="69" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14438,7 +14405,7 @@
     </row>
     <row r="95" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="B95" s="38" t="s">
         <v>1159</v>
@@ -14446,7 +14413,7 @@
       <c r="C95" s="38">
         <v>2</v>
       </c>
-      <c r="D95" s="86" t="s">
+      <c r="D95" s="85" t="s">
         <v>509</v>
       </c>
       <c r="E95" s="18" t="s">
@@ -14489,7 +14456,7 @@
     </row>
     <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="B96" s="38" t="s">
         <v>1159</v>
@@ -14497,7 +14464,7 @@
       <c r="C96" s="38">
         <v>2</v>
       </c>
-      <c r="D96" s="86" t="s">
+      <c r="D96" s="85" t="s">
         <v>511</v>
       </c>
       <c r="E96" s="18" t="s">
@@ -14540,12 +14507,12 @@
     </row>
     <row r="97" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C97" s="38">
         <v>2</v>
       </c>
-      <c r="D97" s="86" t="s">
+      <c r="D97" s="85" t="s">
         <v>513</v>
       </c>
       <c r="E97" s="18" t="s">
@@ -14582,12 +14549,12 @@
         <v>22</v>
       </c>
       <c r="P97" s="69" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>1159</v>
@@ -14595,7 +14562,7 @@
       <c r="C98" s="38">
         <v>2</v>
       </c>
-      <c r="D98" s="86" t="s">
+      <c r="D98" s="85" t="s">
         <v>1267</v>
       </c>
       <c r="E98" s="22" t="s">
@@ -14644,10 +14611,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="84" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>1269</v>
@@ -14680,12 +14647,12 @@
         <v>22</v>
       </c>
       <c r="P99" s="22" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>1160</v>
@@ -14694,10 +14661,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="84" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="F100" s="22" t="s">
         <v>1269</v>
@@ -14730,7 +14697,7 @@
         <v>22</v>
       </c>
       <c r="P100" s="22" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,10 +14708,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="84" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>1269</v>
@@ -14777,7 +14744,7 @@
         <v>22</v>
       </c>
       <c r="P101" s="22" t="s">
-        <v>1857</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14788,10 +14755,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>1269</v>
@@ -14824,12 +14791,12 @@
         <v>22</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>1858</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>1160</v>
@@ -14838,10 +14805,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="79" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="F103" s="22" t="s">
         <v>1269</v>
@@ -14874,7 +14841,7 @@
         <v>22</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14885,10 +14852,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>1269</v>
@@ -14921,7 +14888,7 @@
         <v>22</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14932,10 +14899,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="F105" s="22" t="s">
         <v>1269</v>
@@ -14968,7 +14935,7 @@
         <v>22</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14979,10 +14946,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>1854</v>
+        <v>1842</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>1269</v>
@@ -15015,7 +14982,7 @@
         <v>22</v>
       </c>
       <c r="P106" s="22" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15068,7 +15035,7 @@
     </row>
     <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>1159</v>
@@ -15076,7 +15043,7 @@
       <c r="C108" s="38">
         <v>2</v>
       </c>
-      <c r="D108" s="86" t="s">
+      <c r="D108" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E108" s="18" t="s">
@@ -15113,7 +15080,7 @@
         <v>22</v>
       </c>
       <c r="P108" s="69" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15160,12 +15127,12 @@
         <v>22</v>
       </c>
       <c r="P109" s="69" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="B110" s="38" t="s">
         <v>1159</v>
@@ -15173,7 +15140,7 @@
       <c r="C110" s="38">
         <v>2</v>
       </c>
-      <c r="D110" s="86" t="s">
+      <c r="D110" s="85" t="s">
         <v>516</v>
       </c>
       <c r="E110" s="18" t="s">
@@ -15214,9 +15181,9 @@
         <v>Geen conformProfiel aanwezig voor versie %1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C111" s="38">
         <v>2</v>
@@ -15259,12 +15226,12 @@
       </c>
       <c r="P111" s="69" t="str">
         <f>IF(B111="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D111,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D111,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer unieke eId / wId bij Lichaam] (eId/wId) %1 is niet uniek binnen het element tekst:Lichaam</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C112" s="38">
         <v>2</v>
@@ -15307,7 +15274,7 @@
       </c>
       <c r="P112" s="69" t="str">
         <f>IF(B112="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D112,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D112,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer unieke eId / wId bij RegelingOpschrift] (eId/wId) %1 is niet uniek binnen het element tekst:RegelingOpschrift</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15746,9 +15713,9 @@
         <v>[Controleer juiste opbouw %1 - expressie] Waarde %2 mag geen punt bevatten</v>
       </c>
     </row>
-    <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C122" s="38">
         <v>2</v>
@@ -15791,7 +15758,7 @@
       </c>
       <c r="P122" s="69" t="str">
         <f>IF(B122="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D122,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D122,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer relatie %1 - Werk - Expressie] Werk %2 hoort niet bij expressie %3</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15946,10 +15913,10 @@
         <v>2</v>
       </c>
       <c r="D126" s="84" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="F126" s="18" t="s">
         <v>1269</v>
@@ -15982,12 +15949,12 @@
         <v>22</v>
       </c>
       <c r="P126" s="69" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C127" s="38">
         <v>2</v>
@@ -16030,7 +15997,7 @@
       </c>
       <c r="P127" s="69" t="str">
         <f>IF(B127="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D127,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D127,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Manifest-OW- Controleer WorkIDRegeling] Waarde van type %1 binnen %2 is niet gelijk aan act</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="128" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16421,7 +16388,7 @@
     </row>
     <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B136" s="38" t="s">
         <v>1159</v>
@@ -16520,7 +16487,7 @@
     </row>
     <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="38" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="C138" s="38">
         <v>2</v>
@@ -16562,12 +16529,12 @@
         <v>22</v>
       </c>
       <c r="P138" s="69" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C139" s="38">
         <v>2</v>
@@ -16610,7 +16577,7 @@
       </c>
       <c r="P139" s="69" t="str">
         <f>IF(B139="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D139,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D139,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16754,7 +16721,7 @@
         <v>22</v>
       </c>
       <c r="P142" s="69" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16801,12 +16768,12 @@
         <v>22</v>
       </c>
       <c r="P143" s="69" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C144" s="74">
         <v>2</v>
@@ -16815,7 +16782,7 @@
         <v>91</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
       <c r="F144" s="18" t="s">
         <v>497</v>
@@ -16849,7 +16816,7 @@
       </c>
       <c r="P144" s="69" t="str">
         <f>IF(B144="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D144,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D144,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[AanleveringInformatieObject - Controles JOIN aanvullend soort werk] Waarde van element soortWork %1 is niet gelijk aan '/join/id/stop/work_010'  (= 'Alleen bekend te maken informatieobject')</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16902,7 +16869,7 @@
     </row>
     <row r="146" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C146" s="38">
         <v>2</v>
@@ -17184,7 +17151,7 @@
         <v>22</v>
       </c>
       <c r="P151" s="69" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17381,7 +17348,7 @@
     </row>
     <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="B156" s="38" t="s">
         <v>1160</v>
@@ -17389,11 +17356,11 @@
       <c r="C156" s="72">
         <v>2</v>
       </c>
-      <c r="D156" s="87" t="s">
-        <v>1872</v>
+      <c r="D156" s="86" t="s">
+        <v>1860</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="F156" s="22" t="s">
         <v>1269</v>
@@ -17426,12 +17393,12 @@
         <v>22</v>
       </c>
       <c r="P156" s="69" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="B157" s="38" t="s">
         <v>1160</v>
@@ -17439,11 +17406,11 @@
       <c r="C157" s="72">
         <v>2</v>
       </c>
-      <c r="D157" s="87" t="s">
-        <v>1873</v>
+      <c r="D157" s="86" t="s">
+        <v>1861</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="F157" s="22" t="s">
         <v>1269</v>
@@ -17476,12 +17443,12 @@
         <v>22</v>
       </c>
       <c r="P157" s="69" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C158" s="74">
         <v>2</v>
@@ -17524,15 +17491,15 @@
       </c>
       <c r="P158" s="69" t="str">
         <f>IF(B158="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D158,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D158,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C159" s="74">
         <v>2</v>
@@ -17575,7 +17542,7 @@
       </c>
       <c r="P159" s="69" t="str">
         <f>IF(B159="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D159,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D159,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17766,12 +17733,12 @@
         <v>22</v>
       </c>
       <c r="P163" s="69" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="164" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C164" s="74">
         <v>2</v>
@@ -17861,7 +17828,7 @@
         <v>22</v>
       </c>
       <c r="P165" s="69" t="s">
-        <v>1937</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="166" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17871,7 +17838,7 @@
       <c r="C166" s="38">
         <v>2</v>
       </c>
-      <c r="D166" s="86" t="s">
+      <c r="D166" s="85" t="s">
         <v>541</v>
       </c>
       <c r="E166" s="18" t="s">
@@ -17923,7 +17890,7 @@
         <v>733</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="F167" s="18" t="s">
         <v>497</v>
@@ -17956,12 +17923,12 @@
         <v>22</v>
       </c>
       <c r="P167" s="69" t="s">
-        <v>1936</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="168" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C168" s="38">
         <v>5</v>
@@ -18057,7 +18024,7 @@
     </row>
     <row r="170" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C170" s="74">
         <v>5</v>
@@ -18098,9 +18065,9 @@
       <c r="O170" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P170" s="69">
+      <c r="P170" s="69" t="str">
         <f>IF(B170="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D170,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D170,Sheet1!A$1:B$385,2,0)))</f>
-        <v>0</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="171" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18201,7 +18168,7 @@
     </row>
     <row r="173" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C173" s="38">
         <v>5</v>
@@ -18242,9 +18209,9 @@
       <c r="O173" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P173" s="69">
+      <c r="P173" s="69" t="str">
         <f>IF(B173="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D173,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D173,Sheet1!A$1:B$385,2,0)))</f>
-        <v>0</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="174" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18295,9 +18262,9 @@
         <v>[Controleer Aanwezig Datum Ondertekening] Geen datum ondertekening aanwezig</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C175" s="38">
         <v>2</v>
@@ -18340,12 +18307,12 @@
       </c>
       <c r="P175" s="69" t="str">
         <f>IF(B175="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D175,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D175,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer Tijdstempels bij Ontwerpbesluit] Er mogen geen tijdstempels aanwezig zijn bij een ontwerp besluit</v>
-      </c>
-    </row>
-    <row r="176" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C176" s="38">
         <v>2</v>
@@ -18388,12 +18355,12 @@
       </c>
       <c r="P176" s="69" t="str">
         <f>IF(B176="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D176,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D176,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[AanleveringBesluit - Controles AKN aanvullend soort werk - Besluit] Waarde van element soortWork %1 is niet gelijk aan '/join/id/stop/work_003' (= 'Besluit')</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C177" s="38">
         <v>2</v>
@@ -18436,7 +18403,7 @@
       </c>
       <c r="P177" s="69" t="str">
         <f>IF(B177="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D177,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D177,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[AanleveringBesluit - Controles AKN aanvullend soort werk - RegelingVersie] Waarde van element soortWork %1 is niet gelijk aan '/join/id/stop/work_019' (= 'Regeling')</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18539,9 +18506,9 @@
 [AanleveringBesluit - Controles RegelingVersieInformatie AKN aanvullend] Expressie %1 komt niet voor als @wordt binnen een regeling voor 'akn'</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="38" t="s">
-        <v>1814</v>
+        <v>1395</v>
       </c>
       <c r="C180" s="38">
         <v>2</v>
@@ -18550,7 +18517,7 @@
         <v>117</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
       <c r="F180" s="18" t="s">
         <v>497</v>
@@ -18583,12 +18550,12 @@
         <v>22</v>
       </c>
       <c r="P180" s="69" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B181" s="38" t="s">
         <v>1159</v>
@@ -18596,7 +18563,7 @@
       <c r="C181" s="38">
         <v>2</v>
       </c>
-      <c r="D181" s="86" t="s">
+      <c r="D181" s="85" t="s">
         <v>118</v>
       </c>
       <c r="E181" s="18" t="s">
@@ -18681,7 +18648,7 @@
         <v>22</v>
       </c>
       <c r="P182" s="69" t="s">
-        <v>1935</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18933,7 +18900,7 @@
       <c r="C188" s="38">
         <v>2</v>
       </c>
-      <c r="D188" s="87" t="s">
+      <c r="D188" s="86" t="s">
         <v>739</v>
       </c>
       <c r="E188" s="22" t="s">
@@ -18976,7 +18943,7 @@
     </row>
     <row r="189" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="B189" s="38" t="s">
         <v>1159</v>
@@ -19021,7 +18988,7 @@
         <v>22</v>
       </c>
       <c r="P189" s="69" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19048,31 +19015,31 @@
         <v>22</v>
       </c>
       <c r="I190" s="70" t="str">
-        <f>I$67</f>
+        <f t="shared" ref="I190:O194" si="1">I$67</f>
         <v>Ja</v>
       </c>
       <c r="J190" s="70" t="str">
-        <f>J$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="K190" s="70" t="str">
-        <f>K$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="L190" s="70" t="str">
-        <f>L$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="M190" s="70" t="str">
-        <f>M$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="N190" s="70" t="str">
-        <f>N$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="O190" s="70" t="str">
-        <f>O$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="P190" s="69" t="str">
@@ -19104,31 +19071,31 @@
         <v>22</v>
       </c>
       <c r="I191" s="70" t="str">
-        <f>I$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="J191" s="70" t="str">
-        <f>J$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="K191" s="70" t="str">
-        <f>K$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="L191" s="70" t="str">
-        <f>L$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="M191" s="70" t="str">
-        <f>M$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="N191" s="70" t="str">
-        <f>N$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="O191" s="70" t="str">
-        <f>O$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="P191" s="69" t="str">
@@ -19160,31 +19127,31 @@
         <v>23</v>
       </c>
       <c r="I192" s="70" t="str">
-        <f>I$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="J192" s="70" t="str">
-        <f>J$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="K192" s="70" t="str">
-        <f>K$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="L192" s="70" t="str">
-        <f>L$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="M192" s="70" t="str">
-        <f>M$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="N192" s="70" t="str">
-        <f>N$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="O192" s="70" t="str">
-        <f>O$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="P192" s="69" t="str">
@@ -19216,31 +19183,31 @@
         <v>22</v>
       </c>
       <c r="I193" s="70" t="str">
-        <f>I$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="J193" s="70" t="str">
-        <f>J$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="K193" s="70" t="str">
-        <f>K$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="L193" s="70" t="str">
-        <f>L$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="M193" s="70" t="str">
-        <f>M$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="N193" s="70" t="str">
-        <f>N$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="O193" s="70" t="str">
-        <f>O$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="P193" s="69" t="str">
@@ -19272,31 +19239,31 @@
         <v>22</v>
       </c>
       <c r="I194" s="70" t="str">
-        <f>I$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="J194" s="70" t="str">
-        <f>J$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="K194" s="70" t="str">
-        <f>K$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="L194" s="70" t="str">
-        <f>L$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="M194" s="70" t="str">
-        <f>M$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="N194" s="70" t="str">
-        <f>N$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="O194" s="70" t="str">
-        <f>O$67</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="P194" s="69" t="str">
@@ -19350,7 +19317,7 @@
         <v>22</v>
       </c>
       <c r="P195" s="69" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19451,7 +19418,7 @@
     </row>
     <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="B198" s="38" t="s">
         <v>1159</v>
@@ -19502,7 +19469,7 @@
     </row>
     <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="B199" s="38" t="s">
         <v>1160</v>
@@ -19511,10 +19478,10 @@
         <v>5</v>
       </c>
       <c r="D199" s="80" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>1918</v>
+        <v>1906</v>
       </c>
       <c r="F199" s="22" t="s">
         <v>1269</v>
@@ -19547,7 +19514,7 @@
         <v>22</v>
       </c>
       <c r="P199" s="69" t="s">
-        <v>1918</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19702,7 +19669,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="80" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="E203" s="22" t="s">
         <v>1321</v>
@@ -19750,7 +19717,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="80" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="E204" s="22" t="s">
         <v>1324</v>
@@ -19792,7 +19759,7 @@
     </row>
     <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="B205" s="38" t="s">
         <v>1159</v>
@@ -19800,8 +19767,8 @@
       <c r="C205" s="38">
         <v>5</v>
       </c>
-      <c r="D205" s="86" t="s">
-        <v>1890</v>
+      <c r="D205" s="85" t="s">
+        <v>1878</v>
       </c>
       <c r="E205" s="22" t="s">
         <v>1327</v>
@@ -19848,8 +19815,8 @@
       <c r="C206" s="38">
         <v>5</v>
       </c>
-      <c r="D206" s="86" t="s">
-        <v>1891</v>
+      <c r="D206" s="85" t="s">
+        <v>1879</v>
       </c>
       <c r="E206" s="22" t="s">
         <v>1330</v>
@@ -19896,8 +19863,8 @@
       <c r="C207" s="38">
         <v>5</v>
       </c>
-      <c r="D207" s="86" t="s">
-        <v>1892</v>
+      <c r="D207" s="85" t="s">
+        <v>1880</v>
       </c>
       <c r="E207" s="22" t="s">
         <v>1333</v>
@@ -19944,8 +19911,8 @@
       <c r="C208" s="38">
         <v>5</v>
       </c>
-      <c r="D208" s="86" t="s">
-        <v>1893</v>
+      <c r="D208" s="85" t="s">
+        <v>1881</v>
       </c>
       <c r="E208" s="22" t="s">
         <v>1336</v>
@@ -19992,11 +19959,11 @@
       <c r="C209" s="38">
         <v>5</v>
       </c>
-      <c r="D209" s="86" t="s">
-        <v>1435</v>
+      <c r="D209" s="85" t="s">
+        <v>1423</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>1916</v>
+        <v>1904</v>
       </c>
       <c r="F209" s="22" t="s">
         <v>1269</v>
@@ -20029,7 +19996,7 @@
         <v>22</v>
       </c>
       <c r="P209" s="69" t="s">
-        <v>1917</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20076,7 +20043,7 @@
         <v>22</v>
       </c>
       <c r="P210" s="69" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20129,7 +20096,7 @@
     </row>
     <row r="212" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="B212" s="38" t="s">
         <v>1159</v>
@@ -20174,12 +20141,12 @@
         <v>22</v>
       </c>
       <c r="P212" s="69" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1955</v>
+        <v>1943</v>
       </c>
       <c r="B213" s="38" t="s">
         <v>1159</v>
@@ -20380,10 +20347,10 @@
         <v>5</v>
       </c>
       <c r="D217" s="80" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>1914</v>
+        <v>1902</v>
       </c>
       <c r="F217" s="22" t="s">
         <v>1269</v>
@@ -20416,7 +20383,7 @@
         <v>22</v>
       </c>
       <c r="P217" s="69" t="s">
-        <v>1914</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20427,10 +20394,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="80" t="s">
-        <v>1913</v>
+        <v>1901</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>1915</v>
+        <v>1903</v>
       </c>
       <c r="F218" s="22" t="s">
         <v>1269</v>
@@ -20463,12 +20430,12 @@
         <v>22</v>
       </c>
       <c r="P218" s="69" t="s">
-        <v>1915</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C219" s="38">
         <v>2</v>
@@ -20660,7 +20627,7 @@
     </row>
     <row r="223" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C223" s="38">
         <v>5</v>
@@ -20703,7 +20670,7 @@
       </c>
       <c r="P223" s="69" t="str">
         <f>IF(B223="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D223,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D223,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20907,7 +20874,7 @@
       <c r="C228" s="38">
         <v>5</v>
       </c>
-      <c r="D228" s="86" t="s">
+      <c r="D228" s="85" t="s">
         <v>131</v>
       </c>
       <c r="E228" s="18" t="s">
@@ -20948,9 +20915,9 @@
         <v>Versie met akn %1 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="229" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C229" s="38">
         <v>5</v>
@@ -20993,7 +20960,7 @@
       </c>
       <c r="P229" s="69" t="str">
         <f>IF(B229="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D229,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D229,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Regeling bij was-versie %1 is niet geljk aan regeling bij wordt-versie %2</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="230" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21101,11 +21068,11 @@
       <c r="C232" s="38">
         <v>5</v>
       </c>
-      <c r="D232" s="87" t="s">
+      <c r="D232" s="86" t="s">
         <v>549</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
       <c r="F232" s="18" t="s">
         <v>497</v>
@@ -21138,7 +21105,7 @@
         <v>22</v>
       </c>
       <c r="P232" s="69" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="233" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21148,7 +21115,7 @@
       <c r="C233" s="38">
         <v>5</v>
       </c>
-      <c r="D233" s="87" t="s">
+      <c r="D233" s="86" t="s">
         <v>1114</v>
       </c>
       <c r="E233" s="18" t="s">
@@ -21185,7 +21152,7 @@
         <v>22</v>
       </c>
       <c r="P233" s="69" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="234" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21196,10 +21163,10 @@
         <v>5</v>
       </c>
       <c r="D234" s="22" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
       <c r="F234" s="18" t="s">
         <v>1269</v>
@@ -21232,7 +21199,7 @@
         <v>496</v>
       </c>
       <c r="P234" s="69" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="235" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21243,10 +21210,10 @@
         <v>5</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="F235" s="18" t="s">
         <v>1269</v>
@@ -21279,7 +21246,7 @@
         <v>496</v>
       </c>
       <c r="P235" s="69" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="236" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21290,10 +21257,10 @@
         <v>5</v>
       </c>
       <c r="D236" s="22" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="F236" s="18" t="s">
         <v>1269</v>
@@ -21326,7 +21293,7 @@
         <v>496</v>
       </c>
       <c r="P236" s="69" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="237" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21336,7 +21303,7 @@
       <c r="C237" s="38">
         <v>5</v>
       </c>
-      <c r="D237" s="86" t="s">
+      <c r="D237" s="85" t="s">
         <v>55</v>
       </c>
       <c r="E237" s="18" t="s">
@@ -21377,9 +21344,9 @@
         <v>Versie niet kunnen expanderen voor : %1</v>
       </c>
     </row>
-    <row r="238" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C238" s="38">
         <v>5</v>
@@ -21422,7 +21389,7 @@
       </c>
       <c r="P238" s="69" t="str">
         <f>IF(B238="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D238,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D238,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meerdere datum inwerking gevonden in besluit bij oin %1 en id-levering %2 voor doel %3</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="239" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21432,7 +21399,7 @@
       <c r="C239" s="38">
         <v>5</v>
       </c>
-      <c r="D239" s="86" t="s">
+      <c r="D239" s="85" t="s">
         <v>139</v>
       </c>
       <c r="E239" s="18" t="s">
@@ -21469,7 +21436,7 @@
         <v>22</v>
       </c>
       <c r="P239" s="69" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="240" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21479,7 +21446,7 @@
       <c r="C240" s="38">
         <v>5</v>
       </c>
-      <c r="D240" s="86" t="s">
+      <c r="D240" s="85" t="s">
         <v>141</v>
       </c>
       <c r="E240" s="18" t="s">
@@ -21666,7 +21633,7 @@
     </row>
     <row r="244" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
       <c r="B244" s="38" t="s">
         <v>1159</v>
@@ -21759,7 +21726,7 @@
         <v>22</v>
       </c>
       <c r="P245" s="69" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21806,7 +21773,7 @@
         <v>22</v>
       </c>
       <c r="P246" s="69" t="s">
-        <v>1926</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21816,7 +21783,7 @@
       <c r="C247" s="38">
         <v>5</v>
       </c>
-      <c r="D247" s="88" t="s">
+      <c r="D247" s="87" t="s">
         <v>1057</v>
       </c>
       <c r="E247" s="18" t="s">
@@ -21853,7 +21820,7 @@
         <v>22</v>
       </c>
       <c r="P247" s="69" t="s">
-        <v>1925</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21911,7 +21878,7 @@
       <c r="C249" s="38">
         <v>5</v>
       </c>
-      <c r="D249" s="88" t="s">
+      <c r="D249" s="87" t="s">
         <v>744</v>
       </c>
       <c r="E249" s="18" t="s">
@@ -22059,7 +22026,7 @@
         <v>750</v>
       </c>
       <c r="E252" s="18" t="s">
-        <v>1902</v>
+        <v>1890</v>
       </c>
       <c r="F252" s="18" t="s">
         <v>497</v>
@@ -22188,7 +22155,7 @@
         <v>22</v>
       </c>
       <c r="P254" s="69" t="s">
-        <v>1924</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22235,7 +22202,7 @@
         <v>22</v>
       </c>
       <c r="P255" s="69" t="s">
-        <v>1923</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22282,7 +22249,7 @@
         <v>22</v>
       </c>
       <c r="P256" s="69" t="s">
-        <v>1922</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="257" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22569,7 +22536,7 @@
         <v>22</v>
       </c>
       <c r="P262" s="69" t="s">
-        <v>1921</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="263" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22616,7 +22583,7 @@
         <v>22</v>
       </c>
       <c r="P263" s="69" t="s">
-        <v>1920</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="264" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23099,9 +23066,9 @@
         <v>[Controleer Inhoud Datum Bekend op] Datum bekend op ',$datum-bekend-op,' is geen juiste datum'</v>
       </c>
     </row>
-    <row r="274" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C274" s="38">
         <v>5</v>
@@ -23110,7 +23077,7 @@
         <v>1152</v>
       </c>
       <c r="E274" s="83" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="F274" s="18" t="s">
         <v>497</v>
@@ -23144,7 +23111,7 @@
       </c>
       <c r="P274" s="69" t="str">
         <f>IF(B274="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D274,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D274,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer Inhoud Datum Bekend op] Datum bekend op ',$datum-bekend-op,' ligt in het verleden'</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="275" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23203,10 +23170,10 @@
         <v>5</v>
       </c>
       <c r="D276" s="84" t="s">
-        <v>1899</v>
+        <v>1887</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>1900</v>
+        <v>1888</v>
       </c>
       <c r="F276" s="18" t="s">
         <v>497</v>
@@ -23239,7 +23206,7 @@
         <v>22</v>
       </c>
       <c r="P276" s="69" t="s">
-        <v>1901</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="277" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23249,7 +23216,7 @@
       <c r="C277" s="72">
         <v>5</v>
       </c>
-      <c r="D277" s="86" t="s">
+      <c r="D277" s="85" t="s">
         <v>1359</v>
       </c>
       <c r="E277" s="71" t="s">
@@ -23297,7 +23264,7 @@
       <c r="C278" s="72">
         <v>5</v>
       </c>
-      <c r="D278" s="86" t="s">
+      <c r="D278" s="85" t="s">
         <v>1362</v>
       </c>
       <c r="E278" s="71" t="s">
@@ -23345,7 +23312,7 @@
       <c r="C279" s="72">
         <v>5</v>
       </c>
-      <c r="D279" s="86" t="s">
+      <c r="D279" s="85" t="s">
         <v>1365</v>
       </c>
       <c r="E279" s="71" t="s">
@@ -23393,7 +23360,7 @@
       <c r="C280" s="72">
         <v>5</v>
       </c>
-      <c r="D280" s="86" t="s">
+      <c r="D280" s="85" t="s">
         <v>1368</v>
       </c>
       <c r="E280" s="71" t="s">
@@ -23442,10 +23409,10 @@
         <v>5</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="E281" s="71" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
       <c r="F281" s="71" t="s">
         <v>1269</v>
@@ -23478,7 +23445,7 @@
         <v>82</v>
       </c>
       <c r="P281" s="69" t="s">
-        <v>1897</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="282" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23489,10 +23456,10 @@
         <v>5</v>
       </c>
       <c r="D282" s="38" t="s">
-        <v>1894</v>
+        <v>1882</v>
       </c>
       <c r="E282" s="71" t="s">
-        <v>1896</v>
+        <v>1884</v>
       </c>
       <c r="F282" s="71" t="s">
         <v>1269</v>
@@ -23525,17 +23492,17 @@
         <v>82</v>
       </c>
       <c r="P282" s="69" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="283" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="283" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C283" s="38">
         <v>5</v>
       </c>
-      <c r="D283" s="88" t="s">
+      <c r="D283" s="87" t="s">
         <v>1099</v>
       </c>
       <c r="E283" s="18" t="s">
@@ -23573,12 +23540,12 @@
       </c>
       <c r="P283" s="69" t="str">
         <f>IF(B283="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D283,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D283,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
-      </c>
-    </row>
-    <row r="284" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
+      </c>
+    </row>
+    <row r="284" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C284" s="38">
         <v>5</v>
@@ -23587,7 +23554,7 @@
         <v>1100</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="F284" s="18" t="s">
         <v>497</v>
@@ -23621,7 +23588,7 @@
       </c>
       <c r="P284" s="69" t="str">
         <f>IF(B284="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D284,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D284,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="285" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23716,7 +23683,7 @@
         <v>22</v>
       </c>
       <c r="P286" s="69" t="s">
-        <v>1919</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="287" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23822,7 +23789,7 @@
       <c r="C289" s="38">
         <v>3</v>
       </c>
-      <c r="D289" s="87" t="s">
+      <c r="D289" s="86" t="s">
         <v>1380</v>
       </c>
       <c r="E289" s="22" t="s">
@@ -23962,7 +23929,7 @@
     </row>
     <row r="292" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C292" s="38">
         <v>8</v>
@@ -24019,7 +23986,7 @@
         <v>272</v>
       </c>
       <c r="E293" s="18" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="F293" s="18" t="s">
         <v>456</v>
@@ -24538,7 +24505,7 @@
     </row>
     <row r="304" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C304" s="38">
         <v>8</v>
@@ -24970,7 +24937,7 @@
     </row>
     <row r="313" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C313" s="38">
         <v>8</v>
@@ -26122,7 +26089,7 @@
     </row>
     <row r="337" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C337" s="38">
         <v>8</v>
@@ -26362,7 +26329,7 @@
     </row>
     <row r="342" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="B342" s="38" t="s">
         <v>1160</v>
@@ -26371,7 +26338,7 @@
         <v>8</v>
       </c>
       <c r="D342" s="79" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="E342" s="18" t="s">
         <v>358</v>
@@ -26557,7 +26524,7 @@
     </row>
     <row r="346" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="B346" s="38" t="s">
         <v>1159</v>
@@ -26608,7 +26575,7 @@
     </row>
     <row r="347" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="B347" s="38" t="s">
         <v>1159</v>
@@ -26947,7 +26914,7 @@
     </row>
     <row r="354" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C354" s="38">
         <v>8</v>
@@ -26995,7 +26962,7 @@
     </row>
     <row r="355" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C355" s="38">
         <v>8</v>
@@ -27043,7 +27010,7 @@
     </row>
     <row r="356" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C356" s="38">
         <v>8</v>
@@ -27091,7 +27058,7 @@
     </row>
     <row r="357" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C357" s="38">
         <v>8</v>
@@ -27139,7 +27106,7 @@
     </row>
     <row r="358" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C358" s="38">
         <v>8</v>
@@ -27187,7 +27154,7 @@
     </row>
     <row r="359" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C359" s="38">
         <v>8</v>
@@ -27769,10 +27736,10 @@
         <v>8</v>
       </c>
       <c r="D371" s="79" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="E371" s="18" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="F371" s="18" t="s">
         <v>456</v>
@@ -27811,7 +27778,7 @@
     </row>
     <row r="372" spans="2:16" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="38" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="C372" s="38">
         <v>8</v>
@@ -28201,10 +28168,10 @@
         <v>8</v>
       </c>
       <c r="D380" s="79" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="E380" s="18" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="F380" s="18" t="s">
         <v>456</v>
@@ -28249,10 +28216,10 @@
         <v>8</v>
       </c>
       <c r="D381" s="79" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="E381" s="18" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="F381" s="18" t="s">
         <v>456</v>
@@ -28297,10 +28264,10 @@
         <v>8</v>
       </c>
       <c r="D382" s="79" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="E382" s="18" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="F382" s="18" t="s">
         <v>456</v>
@@ -28345,10 +28312,10 @@
         <v>8</v>
       </c>
       <c r="D383" s="79" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
       <c r="E383" s="18" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="F383" s="18" t="s">
         <v>456</v>
@@ -28921,10 +28888,10 @@
         <v>8</v>
       </c>
       <c r="D395" s="79" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="E395" s="18" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="F395" s="18" t="s">
         <v>456</v>
@@ -29401,10 +29368,10 @@
         <v>8</v>
       </c>
       <c r="D405" s="18" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="E405" s="75" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="F405" s="18" t="s">
         <v>456</v>
@@ -29449,10 +29416,10 @@
         <v>8</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="E406" s="75" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="F406" s="18" t="s">
         <v>456</v>
@@ -29497,10 +29464,10 @@
         <v>8</v>
       </c>
       <c r="D407" s="18" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="E407" s="75" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="F407" s="18" t="s">
         <v>456</v>
@@ -29545,10 +29512,10 @@
         <v>8</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="E408" s="75" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="F408" s="18" t="s">
         <v>456</v>
@@ -29593,10 +29560,10 @@
         <v>8</v>
       </c>
       <c r="D409" s="18" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="E409" s="75" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="F409" s="18" t="s">
         <v>456</v>
@@ -29641,10 +29608,10 @@
         <v>8</v>
       </c>
       <c r="D410" s="18" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="E410" s="75" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="F410" s="18" t="s">
         <v>456</v>
@@ -29689,10 +29656,10 @@
         <v>8</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="E411" s="75" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="F411" s="18" t="s">
         <v>456</v>
@@ -29737,10 +29704,10 @@
         <v>8</v>
       </c>
       <c r="D412" s="18" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="E412" s="75" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="F412" s="18" t="s">
         <v>456</v>
@@ -29785,10 +29752,10 @@
         <v>8</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="E413" s="75" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="F413" s="18" t="s">
         <v>456</v>
@@ -29833,10 +29800,10 @@
         <v>8</v>
       </c>
       <c r="D414" s="18" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="E414" s="75" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
       <c r="F414" s="18" t="s">
         <v>456</v>
@@ -29881,10 +29848,10 @@
         <v>8</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="E415" s="75" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="F415" s="18" t="s">
         <v>456</v>
@@ -29929,10 +29896,10 @@
         <v>8</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="E416" s="75" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
       <c r="F416" s="18" t="s">
         <v>456</v>
@@ -29977,10 +29944,10 @@
         <v>8</v>
       </c>
       <c r="D417" s="18" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="E417" s="75" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="F417" s="18" t="s">
         <v>456</v>
@@ -30025,10 +29992,10 @@
         <v>8</v>
       </c>
       <c r="D418" s="18" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="E418" s="75" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="F418" s="18" t="s">
         <v>456</v>
@@ -30073,10 +30040,10 @@
         <v>8</v>
       </c>
       <c r="D419" s="18" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="E419" s="75" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="F419" s="18" t="s">
         <v>456</v>
@@ -30121,10 +30088,10 @@
         <v>8</v>
       </c>
       <c r="D420" s="18" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="E420" s="75" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
       <c r="F420" s="18" t="s">
         <v>456</v>
@@ -30169,10 +30136,10 @@
         <v>8</v>
       </c>
       <c r="D421" s="18" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="E421" s="75" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="F421" s="18" t="s">
         <v>456</v>
@@ -30217,10 +30184,10 @@
         <v>8</v>
       </c>
       <c r="D422" s="18" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="E422" s="75" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="F422" s="18" t="s">
         <v>456</v>
@@ -30265,10 +30232,10 @@
         <v>8</v>
       </c>
       <c r="D423" s="18" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="E423" s="75" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="F423" s="18" t="s">
         <v>456</v>
@@ -30691,7 +30658,7 @@
     </row>
     <row r="432" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C432" s="38">
         <v>8</v>
@@ -30745,10 +30712,10 @@
         <v>8</v>
       </c>
       <c r="D433" s="79" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="E433" s="18" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="F433" s="12" t="s">
         <v>456</v>
@@ -30793,10 +30760,10 @@
         <v>8</v>
       </c>
       <c r="D434" s="84" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="E434" s="18" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="F434" s="12" t="s">
         <v>456</v>
@@ -30841,10 +30808,10 @@
         <v>8</v>
       </c>
       <c r="D435" s="84" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="E435" s="78" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="F435" s="12" t="s">
         <v>456</v>
@@ -30889,10 +30856,10 @@
         <v>8</v>
       </c>
       <c r="D436" s="84" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="E436" s="18" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="F436" s="12" t="s">
         <v>456</v>
@@ -30937,10 +30904,10 @@
         <v>8</v>
       </c>
       <c r="D437" s="79" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="E437" s="18" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="F437" s="12" t="s">
         <v>456</v>
@@ -30985,10 +30952,10 @@
         <v>8</v>
       </c>
       <c r="D438" s="79" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="E438" s="18" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="F438" s="12" t="s">
         <v>456</v>
@@ -31033,10 +31000,10 @@
         <v>8</v>
       </c>
       <c r="D439" s="79" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="E439" s="18" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="F439" s="12" t="s">
         <v>456</v>
@@ -31081,10 +31048,10 @@
         <v>8</v>
       </c>
       <c r="D440" s="79" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="E440" s="18" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="F440" s="12" t="s">
         <v>456</v>
@@ -31464,7 +31431,7 @@
       <c r="C448" s="38">
         <v>8</v>
       </c>
-      <c r="D448" s="88" t="s">
+      <c r="D448" s="87" t="s">
         <v>623</v>
       </c>
       <c r="E448" s="18" t="s">
@@ -31656,7 +31623,7 @@
       <c r="C452" s="38">
         <v>8</v>
       </c>
-      <c r="D452" s="88" t="s">
+      <c r="D452" s="87" t="s">
         <v>627</v>
       </c>
       <c r="E452" s="18" t="s">
@@ -31705,10 +31672,10 @@
         <v>8</v>
       </c>
       <c r="D453" s="79" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="E453" s="18" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="F453" s="18" t="s">
         <v>456</v>
@@ -33043,7 +33010,7 @@
     </row>
     <row r="481" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C481" s="38">
         <v>2</v>
@@ -34387,7 +34354,7 @@
     </row>
     <row r="509" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C509" s="38">
         <v>2</v>
@@ -34430,7 +34397,7 @@
       </c>
       <c r="P509" s="69" t="str">
         <f>IF(B509="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D509,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D509,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Een Kop voor Divisietekst met eId[waarde van eId] is eigenlijk verplicht; maar deze waarschuwing is alleen voor de Omgevingsregeling (OR) niet blokkerend.</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="510" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34531,7 +34498,7 @@
     </row>
     <row r="512" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C512" s="38">
         <v>2</v>
@@ -34579,7 +34546,7 @@
     </row>
     <row r="513" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C513" s="38">
         <v>2</v>
@@ -34867,7 +34834,7 @@
     </row>
     <row r="519" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C519" s="38">
         <v>2</v>
@@ -34910,7 +34877,7 @@
       </c>
       <c r="P519" s="69" t="str">
         <f>IF(B519="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D519,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D519,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De scope[waarde van scope] van de IntRef met[waarde van ref] is niet gelijk aan de naam van het doelelement.</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="520" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36460,7 +36427,7 @@
         <v>896</v>
       </c>
       <c r="E552" s="18" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
       <c r="F552" s="19" t="s">
         <v>497</v>
@@ -37699,16 +37666,16 @@
     </row>
     <row r="578" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="38" t="s">
-        <v>1159</v>
+        <v>1395</v>
       </c>
       <c r="C578" s="26">
         <v>4</v>
       </c>
       <c r="D578" s="39" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="E578" s="39" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="F578" s="40" t="s">
         <v>497</v>
@@ -37742,7 +37709,7 @@
       </c>
       <c r="P578" s="69" t="str">
         <f>IF(B578="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(D578,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(D578,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet aangevuld worden</v>
+        <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
     <row r="579" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -37843,7 +37810,7 @@
     </row>
     <row r="581" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C581" s="38">
         <v>4</v>
@@ -37891,7 +37858,7 @@
     </row>
     <row r="582" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C582" s="38">
         <v>4</v>
@@ -37939,7 +37906,7 @@
     </row>
     <row r="583" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C583" s="38">
         <v>4</v>
@@ -38083,7 +38050,7 @@
     </row>
     <row r="586" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C586" s="38">
         <v>4</v>
@@ -39043,7 +39010,7 @@
     </row>
     <row r="606" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="38" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="C606" s="38">
         <v>4</v>
@@ -41500,7 +41467,7 @@
         <v>1030</v>
       </c>
       <c r="E657" s="18" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="F657" s="18" t="s">
         <v>456</v>
@@ -43753,10 +43720,10 @@
         <v>8</v>
       </c>
       <c r="D704" s="84" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="E704" s="18" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="F704" s="18" t="s">
         <v>153</v>
@@ -43789,7 +43756,7 @@
         <v>22</v>
       </c>
       <c r="P704" s="69" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="705" spans="2:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -45252,1253 +45219,1253 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G364:G368 D127:D131 G460:G471 G351:G362 G223 G297:G299 G295 G293 G287:G288 G248:G250 G244:G245 G239:G241 G225:G227 G319:H319 F513 I463:O471 N531:O538 C43:D55 C59:D65 C108:D110 C147:D154 N129:O132 H147:H154 N147:O154 C77:D84 N219:O219 H219 N43:O51 N53:O55 N59:O65 N77:O83 N95:O97 N108:O110 H53:H55 H59:H65 H77:H83 H95:H97 H108:H110 N640:O655 C68:D70 H68:H70 N68:O70 C123:D126 H123:H125 N123:O125 C166:D172 C90:D97 H91:H93 N91:O93 D132:E139 C162:D163 N162:O163 H162:H163 I173:O186 N166:O186 H166:H186 N514:O517 H568:H577 N567:O577 G237 G252:G255 G285 H134:H138 N134:O138 D142:E144 G424:G427 I376:O379 H424:H429 N659:O702 H447:O452 H41:H51 H39 B41:C70 C73:D73 B73:C97 N73:O73 H73 B107:C140 B142:C154 B158:C159 B162:C189 B283:C288 G290:G291 N705:O734 B39:C39 N5:O19 H5:H19 B579:C734 N579:O638 H579:H734 G376:H381 H351:O368 H223:O229 H237:O255 H285:O288 C1:P1 H290:O304 F507:O508 B141:O141 B160:O161 I384:P394 I424:P435 B290:C370 P441:P452 P396:P404 I396:O401 B423:B734 B372:C577 P454:P734 I454:O459 H454:H471 B2:B370 N127:O127 H127:H132 B155:O157 B5:D26 B277:O280 B281:D282 G281:O284 G256:O276 B219:C276 G230:O234 D217:D218 F217:O218 D210:O216 D209 F209:O209 D190:O208">
-    <cfRule type="containsText" dxfId="256" priority="446" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="G364:G368 D127:D131 G460:G471 G351:G362 G223 G297:G299 G295 G293 G287:G288 G248:G250 G244:G245 G239:G241 G225:G227 G319:H319 F513 I463:O471 N531:O538 C43:D55 C59:D65 C108:D110 C147:D154 N129:O132 H147:H154 N147:O154 C77:D84 N219:O219 H219 N43:O51 N53:O55 N59:O65 N77:O83 N95:O97 N108:O110 H53:H55 H59:H65 H77:H83 H95:H97 H108:H110 N640:O655 C68:D70 H68:H70 N68:O70 C123:D126 H123:H125 N123:O125 C166:D172 C90:D97 H91:H93 N91:O93 D132:E139 C162:D163 N162:O163 H162:H163 I173:O186 N166:O186 H166:H186 N514:O517 H568:H577 N567:O577 G237 G252:G255 G285 H134:H138 N134:O138 D142:E144 G424:G427 I376:O379 H424:H429 N659:O702 H447:O452 H41:H51 H39 B41:C70 C73:D73 B73:C97 N73:O73 H73 B107:C140 B142:C154 B158:C159 B162:C189 B283:C288 G290:G291 N705:O734 B39:C39 N5:O19 H5:H19 B579:C734 N579:O638 H579:H734 G376:H381 H351:O368 H223:O229 H237:O255 H285:O288 C1:P1 H290:O304 F507:O508 B141:O141 B160:O161 I384:P394 I424:P435 B290:C370 P441:P452 P396:P404 I396:O401 B423:B734 B372:C577 P454:P734 I454:O459 H454:H471 N127:O127 H127:H132 B155:O157 B5:D26 B277:O280 B281:D282 G281:O284 G256:O276 B219:C276 G230:O234 D217:D218 F217:O218 D210:O216 D209 F209:O209 D190:O208 B2:B370">
+    <cfRule type="containsText" dxfId="252" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C325:C333 C223:C228 C230:C276">
-    <cfRule type="containsText" dxfId="255" priority="541" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="541" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G459">
-    <cfRule type="containsText" dxfId="254" priority="531" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="531" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318:O318">
-    <cfRule type="containsText" dxfId="253" priority="539" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="539" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I318)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N507:O508">
-    <cfRule type="containsText" dxfId="252" priority="530" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="530" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I508:M508">
-    <cfRule type="containsText" dxfId="251" priority="529" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="529" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I508)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N508:O508">
-    <cfRule type="containsText" dxfId="250" priority="526" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="526" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N508)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I507:M507">
-    <cfRule type="containsText" dxfId="249" priority="525" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="525" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N507:O507">
-    <cfRule type="containsText" dxfId="248" priority="522" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="522" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N507)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G363">
-    <cfRule type="containsText" dxfId="247" priority="521" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="521" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447:G452 G428:G435 G454:G456">
-    <cfRule type="containsText" dxfId="246" priority="520" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="520" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G428)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I460:O461">
-    <cfRule type="containsText" dxfId="245" priority="519" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="519" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I460)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N518">
-    <cfRule type="containsText" dxfId="244" priority="488" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I513:O513">
-    <cfRule type="containsText" dxfId="243" priority="514" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="514" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O530">
-    <cfRule type="containsText" dxfId="242" priority="474" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="474" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I462:O462">
-    <cfRule type="containsText" dxfId="241" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I462)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C529">
-    <cfRule type="containsText" dxfId="240" priority="505" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="505" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N530">
-    <cfRule type="containsText" dxfId="239" priority="476" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="476" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H519">
-    <cfRule type="containsText" dxfId="238" priority="491" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="491" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N529">
-    <cfRule type="containsText" dxfId="237" priority="480" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="480" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O518">
-    <cfRule type="containsText" dxfId="236" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C518:C528">
-    <cfRule type="containsText" dxfId="235" priority="504" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="504" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O529">
-    <cfRule type="containsText" dxfId="234" priority="478" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="478" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N519">
-    <cfRule type="containsText" dxfId="233" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O519">
-    <cfRule type="containsText" dxfId="232" priority="482" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="482" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q372:Y375">
-    <cfRule type="containsText" dxfId="231" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F372:G372 F374:G375">
-    <cfRule type="containsText" dxfId="230" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I374:I375">
-    <cfRule type="containsText" dxfId="229" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J372 J374:J375">
-    <cfRule type="containsText" dxfId="228" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K372 K374:K375">
-    <cfRule type="containsText" dxfId="227" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L372 L374:L375">
-    <cfRule type="containsText" dxfId="226" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M372 M374:M375">
-    <cfRule type="containsText" dxfId="225" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N372 N374:N375">
-    <cfRule type="containsText" dxfId="224" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O372 O374:O375">
-    <cfRule type="containsText" dxfId="223" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q472:Y472">
-    <cfRule type="containsText" dxfId="222" priority="436" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="436" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="221" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J472">
-    <cfRule type="containsText" dxfId="220" priority="433" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="433" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K472">
-    <cfRule type="containsText" dxfId="219" priority="432" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="432" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L472">
-    <cfRule type="containsText" dxfId="218" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M472">
-    <cfRule type="containsText" dxfId="217" priority="430" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="430" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N472">
-    <cfRule type="containsText" dxfId="216" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O472">
-    <cfRule type="containsText" dxfId="215" priority="428" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C568:C576">
-    <cfRule type="containsText" dxfId="214" priority="426" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C568)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C577">
-    <cfRule type="containsText" dxfId="213" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C577)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C130">
-    <cfRule type="containsText" dxfId="212" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C334 C324">
-    <cfRule type="containsText" dxfId="211" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C324)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C530:C538">
-    <cfRule type="containsText" dxfId="210" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C335:C350">
-    <cfRule type="containsText" dxfId="209" priority="392" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="392" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C579">
-    <cfRule type="containsText" dxfId="208" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C579)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C513">
-    <cfRule type="containsText" dxfId="207" priority="388" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="388" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C512">
-    <cfRule type="containsText" dxfId="206" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H567">
-    <cfRule type="containsText" dxfId="205" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H567)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39 D41:D42">
-    <cfRule type="containsText" dxfId="204" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F472">
-    <cfRule type="containsText" dxfId="203" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N128:O128">
-    <cfRule type="containsText" dxfId="202" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E74">
-    <cfRule type="containsText" dxfId="201" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:E107">
-    <cfRule type="containsText" dxfId="200" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145:E146">
-    <cfRule type="containsText" dxfId="199" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H146 N142:O146">
-    <cfRule type="containsText" dxfId="198" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187:C189">
-    <cfRule type="containsText" dxfId="197" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:H188">
-    <cfRule type="containsText" dxfId="196" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:O188">
-    <cfRule type="containsText" dxfId="195" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N509:O512 N501:O506 N483:O490 N107:O107 N94:O94 N74:O74 N56:O58 N52:O52 N39:O39 N41:O42">
-    <cfRule type="containsText" dxfId="194" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67:O67 H67">
-    <cfRule type="containsText" dxfId="193" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C67">
-    <cfRule type="containsText" dxfId="192" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66:O66 H66">
-    <cfRule type="containsText" dxfId="191" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C76">
-    <cfRule type="containsText" dxfId="190" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75:O75">
-    <cfRule type="containsText" dxfId="189" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:O76">
-    <cfRule type="containsText" dxfId="188" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:E122">
-    <cfRule type="containsText" dxfId="187" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111:O122 H111:H122">
-    <cfRule type="containsText" dxfId="186" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:O90 H90">
-    <cfRule type="containsText" dxfId="185" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85:O85 H85:H89">
-    <cfRule type="containsText" dxfId="184" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:C165">
-    <cfRule type="containsText" dxfId="183" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H165 N164:O165">
-    <cfRule type="containsText" dxfId="182" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C89">
-    <cfRule type="containsText" dxfId="181" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139 N139:O139">
-    <cfRule type="containsText" dxfId="180" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C159">
-    <cfRule type="containsText" dxfId="179" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:H159 N158:O159">
-    <cfRule type="containsText" dxfId="178" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C220:C222">
-    <cfRule type="containsText" dxfId="177" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N220:O222 H220:H222">
-    <cfRule type="containsText" dxfId="176" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C286">
-    <cfRule type="containsText" dxfId="175" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C580:C609">
-    <cfRule type="containsText" dxfId="174" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C580)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="containsText" dxfId="173" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189:O189">
-    <cfRule type="containsText" dxfId="172" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="containsText" dxfId="171" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N133:O133 H133">
-    <cfRule type="containsText" dxfId="170" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:E140">
-    <cfRule type="containsText" dxfId="169" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140 N140:O140">
-    <cfRule type="containsText" dxfId="168" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="167" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372">
-    <cfRule type="containsText" dxfId="166" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I372">
-    <cfRule type="containsText" dxfId="165" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="containsText" dxfId="164" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G384:G394 G396:G401">
-    <cfRule type="containsText" dxfId="163" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J369">
-    <cfRule type="containsText" dxfId="162" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K369">
-    <cfRule type="containsText" dxfId="161" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L369">
-    <cfRule type="containsText" dxfId="160" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M369">
-    <cfRule type="containsText" dxfId="159" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N369">
-    <cfRule type="containsText" dxfId="158" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O369">
-    <cfRule type="containsText" dxfId="157" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I369">
-    <cfRule type="containsText" dxfId="156" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H26 N20:O24">
-    <cfRule type="containsText" dxfId="155" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H520:H528">
-    <cfRule type="containsText" dxfId="154" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N520:N528">
-    <cfRule type="containsText" dxfId="153" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O520:O528">
-    <cfRule type="containsText" dxfId="152" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O520)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N656:O656">
-    <cfRule type="containsText" dxfId="151" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N656)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N657:O657">
-    <cfRule type="containsText" dxfId="150" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N657)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G370">
-    <cfRule type="containsText" dxfId="149" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J370">
-    <cfRule type="containsText" dxfId="148" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K370">
-    <cfRule type="containsText" dxfId="147" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L370">
-    <cfRule type="containsText" dxfId="146" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M370">
-    <cfRule type="containsText" dxfId="145" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N370">
-    <cfRule type="containsText" dxfId="144" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O370">
-    <cfRule type="containsText" dxfId="143" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I370">
-    <cfRule type="containsText" dxfId="142" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F373:G373">
-    <cfRule type="containsText" dxfId="141" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J373">
-    <cfRule type="containsText" dxfId="140" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K373">
-    <cfRule type="containsText" dxfId="139" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L373">
-    <cfRule type="containsText" dxfId="138" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M373">
-    <cfRule type="containsText" dxfId="137" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N373">
-    <cfRule type="containsText" dxfId="136" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O373">
-    <cfRule type="containsText" dxfId="135" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H373">
-    <cfRule type="containsText" dxfId="134" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I373">
-    <cfRule type="containsText" dxfId="133" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I402:O402">
-    <cfRule type="containsText" dxfId="132" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I402)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G402">
-    <cfRule type="containsText" dxfId="131" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G402)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I403:O403">
-    <cfRule type="containsText" dxfId="130" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I403)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G403">
-    <cfRule type="containsText" dxfId="129" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G403)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I404:O404">
-    <cfRule type="containsText" dxfId="128" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G404">
-    <cfRule type="containsText" dxfId="127" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I441:O441">
-    <cfRule type="containsText" dxfId="126" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I441)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G441">
-    <cfRule type="containsText" dxfId="125" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G441)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I442:O446">
-    <cfRule type="containsText" dxfId="124" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I442)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G442:G446">
-    <cfRule type="containsText" dxfId="123" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G442)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:O40 H40 B40:D40">
-    <cfRule type="containsText" dxfId="122" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:B194">
-    <cfRule type="containsText" dxfId="121" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B218">
-    <cfRule type="containsText" dxfId="120" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N703:O703">
-    <cfRule type="containsText" dxfId="119" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N703)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289 I289:O289 D289:G289">
-    <cfRule type="containsText" dxfId="118" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H510">
-    <cfRule type="containsText" dxfId="117" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H510)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H510">
-    <cfRule type="containsText" dxfId="116" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H510)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="115" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="114" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512">
-    <cfRule type="containsText" dxfId="113" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512">
-    <cfRule type="containsText" dxfId="112" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="111" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="110" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514">
-    <cfRule type="containsText" dxfId="109" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514">
-    <cfRule type="containsText" dxfId="108" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H515">
-    <cfRule type="containsText" dxfId="107" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H515">
-    <cfRule type="containsText" dxfId="106" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H516">
-    <cfRule type="containsText" dxfId="105" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H516">
-    <cfRule type="containsText" dxfId="104" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H517">
-    <cfRule type="containsText" dxfId="103" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H517">
-    <cfRule type="containsText" dxfId="102" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H518">
-    <cfRule type="containsText" dxfId="101" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H518">
-    <cfRule type="containsText" dxfId="100" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H518)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H529">
-    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H529">
-    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H530">
-    <cfRule type="containsText" dxfId="97" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H530">
-    <cfRule type="containsText" dxfId="96" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H530)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H531">
-    <cfRule type="containsText" dxfId="95" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H531">
-    <cfRule type="containsText" dxfId="94" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H532">
-    <cfRule type="containsText" dxfId="93" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H532)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H532">
-    <cfRule type="containsText" dxfId="92" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H532)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H533">
-    <cfRule type="containsText" dxfId="91" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H533)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H533">
-    <cfRule type="containsText" dxfId="90" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H533)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H534">
-    <cfRule type="containsText" dxfId="89" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H534)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H534">
-    <cfRule type="containsText" dxfId="88" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H534)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H535">
-    <cfRule type="containsText" dxfId="87" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H535)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H535">
-    <cfRule type="containsText" dxfId="86" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H535)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="85" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="84" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H537">
-    <cfRule type="containsText" dxfId="83" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H537)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H537">
-    <cfRule type="containsText" dxfId="82" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H537)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="81" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="80" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="79" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="78" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="77" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="76" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="75" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="74" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542">
-    <cfRule type="containsText" dxfId="73" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542">
-    <cfRule type="containsText" dxfId="72" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H38 H27:H30 C27:D38 N27:O38">
-    <cfRule type="containsText" dxfId="71" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="70" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 N4:O4 B4:D4">
-    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P24 P107:P155 P372:P379 P83:P85 P90:P97 P158:P216 P27:P80 P283:P370 P237:P280 P219:P233">
-    <cfRule type="containsText" dxfId="68" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3 C2:D3 N2:O3">
-    <cfRule type="containsText" dxfId="67" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="containsText" dxfId="66" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P98 B98:H98 B99:C106 F99:H106">
-    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C578">
-    <cfRule type="containsText" dxfId="63" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C578)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N578:O578 H578">
-    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H578)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:C218">
-    <cfRule type="containsText" dxfId="61" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:C218">
-    <cfRule type="containsText" dxfId="60" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I380:O380">
-    <cfRule type="containsText" dxfId="59" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P380">
-    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I381:O381">
-    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P381">
-    <cfRule type="containsText" dxfId="56" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P405:P422">
-    <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I405:O422">
-    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G405:G422">
-    <cfRule type="containsText" dxfId="53" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I436:P440">
-    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I436)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G436:G440">
-    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G436)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B371:C371">
-    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371">
-    <cfRule type="containsText" dxfId="49" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J371">
-    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K371">
-    <cfRule type="containsText" dxfId="47" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L371">
-    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M371">
-    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N371">
-    <cfRule type="containsText" dxfId="44" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O371">
-    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I371">
-    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P371">
-    <cfRule type="containsText" dxfId="41" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I395:P395">
-    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G395">
-    <cfRule type="containsText" dxfId="39" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P423">
-    <cfRule type="containsText" dxfId="38" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I423:O423">
-    <cfRule type="containsText" dxfId="37" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G423">
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G423)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G382:H382">
-    <cfRule type="containsText" dxfId="35" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I382:O382">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P382">
-    <cfRule type="containsText" dxfId="33" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G383:H383">
-    <cfRule type="containsText" dxfId="32" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I383:O383">
-    <cfRule type="containsText" dxfId="31" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P383">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H453:P453">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P81:P82">
-    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P86:P89">
-    <cfRule type="containsText" dxfId="26" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N86:O86">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87:O87">
-    <cfRule type="containsText" dxfId="24" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N88:O88">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:O89">
-    <cfRule type="containsText" dxfId="22" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P99:P106">
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126 N126:O126">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P156:P157">
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N704:O704">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N704)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P26">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P281:P282">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P234:P236">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217:E218">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:O25">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:O26">
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G235:O235">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:O236">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281:F282">
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P217:P218">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P217)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46523,7 +46490,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>1265</v>
@@ -46534,7 +46501,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -46542,7 +46509,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -46550,7 +46517,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46558,7 +46525,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46566,7 +46533,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46574,7 +46541,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46582,7 +46549,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46590,7 +46557,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46598,7 +46565,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46606,7 +46573,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46614,7 +46581,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46622,7 +46589,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -46630,7 +46597,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -46638,7 +46605,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46646,7 +46613,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46654,7 +46621,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46662,7 +46629,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -46670,7 +46637,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46678,7 +46645,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46686,7 +46653,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46694,7 +46661,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -46702,7 +46669,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46710,7 +46677,7 @@
         <v>1058</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46718,7 +46685,7 @@
         <v>1060</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46726,7 +46693,7 @@
         <v>476</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46734,7 +46701,7 @@
         <v>593</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46742,7 +46709,7 @@
         <v>594</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46758,15 +46725,15 @@
         <v>147</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -46774,7 +46741,7 @@
         <v>1062</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -46782,7 +46749,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46790,7 +46757,7 @@
         <v>149</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -46798,7 +46765,7 @@
         <v>150</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -46806,7 +46773,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -46814,7 +46781,7 @@
         <v>499</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -46822,7 +46789,7 @@
         <v>692</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -46830,7 +46797,7 @@
         <v>694</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -46838,7 +46805,7 @@
         <v>696</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46846,7 +46813,7 @@
         <v>1110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -46854,7 +46821,7 @@
         <v>1066</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46862,7 +46829,7 @@
         <v>501</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46870,7 +46837,7 @@
         <v>503</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46878,7 +46845,7 @@
         <v>505</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46886,7 +46853,7 @@
         <v>507</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46894,7 +46861,7 @@
         <v>508</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -46902,7 +46869,7 @@
         <v>509</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46910,7 +46877,7 @@
         <v>511</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46918,7 +46885,7 @@
         <v>513</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -46934,7 +46901,7 @@
         <v>698</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -46942,7 +46909,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -46950,7 +46917,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -46958,7 +46925,7 @@
         <v>516</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46966,7 +46933,7 @@
         <v>1067</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46974,7 +46941,7 @@
         <v>1069</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -46982,7 +46949,7 @@
         <v>1071</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46990,7 +46957,7 @@
         <v>1072</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -46998,7 +46965,7 @@
         <v>1074</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47006,7 +46973,7 @@
         <v>1075</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47014,7 +46981,7 @@
         <v>1077</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -47022,7 +46989,7 @@
         <v>1079</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47030,7 +46997,7 @@
         <v>1080</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47038,7 +47005,7 @@
         <v>1082</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47046,7 +47013,7 @@
         <v>1083</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47054,7 +47021,7 @@
         <v>1085</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47062,7 +47029,7 @@
         <v>699</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47070,7 +47037,7 @@
         <v>701</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47078,7 +47045,7 @@
         <v>703</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47086,7 +47053,7 @@
         <v>518</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -47102,7 +47069,7 @@
         <v>521</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -47110,7 +47077,7 @@
         <v>523</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47118,7 +47085,7 @@
         <v>525</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47126,7 +47093,7 @@
         <v>527</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47134,7 +47101,7 @@
         <v>1153</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -47142,7 +47109,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -47150,7 +47117,7 @@
         <v>43</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47158,7 +47125,7 @@
         <v>44</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47166,7 +47133,7 @@
         <v>64</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -47174,7 +47141,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -47182,7 +47149,7 @@
         <v>1087</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47190,7 +47157,7 @@
         <v>1154</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47206,7 +47173,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47214,7 +47181,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -47222,7 +47189,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47230,7 +47197,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47238,7 +47205,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47246,7 +47213,7 @@
         <v>95</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47254,7 +47221,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -47262,7 +47229,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -47270,7 +47237,7 @@
         <v>532</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47278,7 +47245,7 @@
         <v>534</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47286,7 +47253,7 @@
         <v>536</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47294,7 +47261,7 @@
         <v>538</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47302,7 +47269,7 @@
         <v>731</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47318,7 +47285,7 @@
         <v>1088</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -47326,7 +47293,7 @@
         <v>1090</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47358,7 +47325,7 @@
         <v>46</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47366,7 +47333,7 @@
         <v>1092</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47374,7 +47341,7 @@
         <v>1093</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -47382,7 +47349,7 @@
         <v>541</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47390,7 +47357,7 @@
         <v>733</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47398,7 +47365,7 @@
         <v>47</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47406,7 +47373,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -47420,7 +47387,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -47428,7 +47395,7 @@
         <v>51</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -47442,7 +47409,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47450,7 +47417,7 @@
         <v>543</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47458,7 +47425,7 @@
         <v>111</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47466,7 +47433,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -47474,7 +47441,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -47482,7 +47449,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47490,7 +47457,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -47498,7 +47465,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -47514,7 +47481,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47522,7 +47489,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -47530,7 +47497,7 @@
         <v>734</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47538,7 +47505,7 @@
         <v>736</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47546,7 +47513,7 @@
         <v>737</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47554,7 +47521,7 @@
         <v>739</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47562,7 +47529,7 @@
         <v>1113</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47639,10 +47606,10 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47719,10 +47686,10 @@
     </row>
     <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="B151" s="45" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -47751,18 +47718,18 @@
     </row>
     <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47802,7 +47769,7 @@
         <v>740</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -47810,7 +47777,7 @@
         <v>1094</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -47818,7 +47785,7 @@
         <v>1095</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -47826,7 +47793,7 @@
         <v>1096</v>
       </c>
       <c r="B164" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -47834,7 +47801,7 @@
         <v>53</v>
       </c>
       <c r="B165" s="45" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -47842,7 +47809,7 @@
         <v>54</v>
       </c>
       <c r="B166" s="45" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -47850,7 +47817,7 @@
         <v>125</v>
       </c>
       <c r="B167" s="45" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -47858,7 +47825,7 @@
         <v>127</v>
       </c>
       <c r="B168" s="45" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47866,7 +47833,7 @@
         <v>129</v>
       </c>
       <c r="B169" s="45" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47874,7 +47841,7 @@
         <v>131</v>
       </c>
       <c r="B170" s="45" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47882,7 +47849,7 @@
         <v>1097</v>
       </c>
       <c r="B171" s="45" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -47890,7 +47857,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="45" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47898,7 +47865,7 @@
         <v>135</v>
       </c>
       <c r="B173" s="45" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -47906,7 +47873,7 @@
         <v>549</v>
       </c>
       <c r="B174" s="45" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47914,7 +47881,7 @@
         <v>1114</v>
       </c>
       <c r="B175" s="45" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -47922,7 +47889,7 @@
         <v>55</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47930,7 +47897,7 @@
         <v>137</v>
       </c>
       <c r="B177" s="45" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47938,7 +47905,7 @@
         <v>139</v>
       </c>
       <c r="B178" s="45" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -47946,7 +47913,7 @@
         <v>141</v>
       </c>
       <c r="B179" s="45" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47954,7 +47921,7 @@
         <v>143</v>
       </c>
       <c r="B180" s="45" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -47962,7 +47929,7 @@
         <v>550</v>
       </c>
       <c r="B181" s="45" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47970,7 +47937,7 @@
         <v>552</v>
       </c>
       <c r="B182" s="45" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47978,7 +47945,7 @@
         <v>554</v>
       </c>
       <c r="B183" s="45" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -47986,7 +47953,7 @@
         <v>1055</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -47994,7 +47961,7 @@
         <v>1056</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -48002,7 +47969,7 @@
         <v>1057</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48010,7 +47977,7 @@
         <v>742</v>
       </c>
       <c r="B187" s="45" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48018,7 +47985,7 @@
         <v>744</v>
       </c>
       <c r="B188" s="45" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48026,7 +47993,7 @@
         <v>746</v>
       </c>
       <c r="B189" s="45" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48034,7 +48001,7 @@
         <v>748</v>
       </c>
       <c r="B190" s="45" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48042,7 +48009,7 @@
         <v>750</v>
       </c>
       <c r="B191" s="45" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48050,7 +48017,7 @@
         <v>751</v>
       </c>
       <c r="B192" s="45" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48058,7 +48025,7 @@
         <v>753</v>
       </c>
       <c r="B193" s="45" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48066,7 +48033,7 @@
         <v>755</v>
       </c>
       <c r="B194" s="45" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48074,7 +48041,7 @@
         <v>1116</v>
       </c>
       <c r="B195" s="45" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -48082,7 +48049,7 @@
         <v>1118</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48090,7 +48057,7 @@
         <v>1120</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48098,7 +48065,7 @@
         <v>1122</v>
       </c>
       <c r="B198" s="37" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48106,7 +48073,7 @@
         <v>1124</v>
       </c>
       <c r="B199" s="37" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48114,7 +48081,7 @@
         <v>1126</v>
       </c>
       <c r="B200" s="37" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48122,7 +48089,7 @@
         <v>1128</v>
       </c>
       <c r="B201" s="37" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48130,7 +48097,7 @@
         <v>1130</v>
       </c>
       <c r="B202" s="37" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48138,7 +48105,7 @@
         <v>1132</v>
       </c>
       <c r="B203" s="37" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48146,7 +48113,7 @@
         <v>1134</v>
       </c>
       <c r="B204" s="37" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48154,7 +48121,7 @@
         <v>1136</v>
       </c>
       <c r="B205" s="37" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48162,7 +48129,7 @@
         <v>1138</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48170,7 +48137,7 @@
         <v>1140</v>
       </c>
       <c r="B207" s="65" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48178,7 +48145,7 @@
         <v>1142</v>
       </c>
       <c r="B208" s="65" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48186,7 +48153,7 @@
         <v>1144</v>
       </c>
       <c r="B209" s="65" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48194,7 +48161,7 @@
         <v>1146</v>
       </c>
       <c r="B210" s="65" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48202,7 +48169,7 @@
         <v>1148</v>
       </c>
       <c r="B211" s="65" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48210,7 +48177,7 @@
         <v>1150</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48218,7 +48185,7 @@
         <v>1152</v>
       </c>
       <c r="B213" s="37" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48226,7 +48193,7 @@
         <v>1156</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48263,10 +48230,10 @@
     </row>
     <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="36" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="B219" s="61" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -48274,7 +48241,7 @@
         <v>1099</v>
       </c>
       <c r="B220" s="66" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -48282,7 +48249,7 @@
         <v>1100</v>
       </c>
       <c r="B221" s="66" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -48290,7 +48257,7 @@
         <v>1107</v>
       </c>
       <c r="B222" s="67" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48306,7 +48273,7 @@
         <v>757</v>
       </c>
       <c r="B224" s="37" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -48322,7 +48289,7 @@
         <v>811</v>
       </c>
       <c r="B226" s="45" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48330,7 +48297,7 @@
         <v>813</v>
       </c>
       <c r="B227" s="45" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48338,7 +48305,7 @@
         <v>780</v>
       </c>
       <c r="B228" s="45" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48346,7 +48313,7 @@
         <v>767</v>
       </c>
       <c r="B229" s="45" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48354,7 +48321,7 @@
         <v>817</v>
       </c>
       <c r="B230" s="45" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48362,7 +48329,7 @@
         <v>819</v>
       </c>
       <c r="B231" s="45" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48370,7 +48337,7 @@
         <v>766</v>
       </c>
       <c r="B232" s="45" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -48378,7 +48345,7 @@
         <v>770</v>
       </c>
       <c r="B233" s="45" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48386,7 +48353,7 @@
         <v>786</v>
       </c>
       <c r="B234" s="45" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48394,7 +48361,7 @@
         <v>771</v>
       </c>
       <c r="B235" s="45" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48402,7 +48369,7 @@
         <v>823</v>
       </c>
       <c r="B236" s="45" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48410,7 +48377,7 @@
         <v>825</v>
       </c>
       <c r="B237" s="45" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48418,7 +48385,7 @@
         <v>783</v>
       </c>
       <c r="B238" s="45" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48426,7 +48393,7 @@
         <v>782</v>
       </c>
       <c r="B239" s="45" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48434,7 +48401,7 @@
         <v>772</v>
       </c>
       <c r="B240" s="45" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48442,7 +48409,7 @@
         <v>773</v>
       </c>
       <c r="B241" s="45" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48450,7 +48417,7 @@
         <v>831</v>
       </c>
       <c r="B242" s="45" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48458,7 +48425,7 @@
         <v>833</v>
       </c>
       <c r="B243" s="45" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -48466,7 +48433,7 @@
         <v>835</v>
       </c>
       <c r="B244" s="45" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -48474,7 +48441,7 @@
         <v>837</v>
       </c>
       <c r="B245" s="45" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48482,7 +48449,7 @@
         <v>839</v>
       </c>
       <c r="B246" s="45" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48490,7 +48457,7 @@
         <v>841</v>
       </c>
       <c r="B247" s="45" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48498,7 +48465,7 @@
         <v>781</v>
       </c>
       <c r="B248" s="45" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48506,7 +48473,7 @@
         <v>844</v>
       </c>
       <c r="B249" s="45" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48514,7 +48481,7 @@
         <v>846</v>
       </c>
       <c r="B250" s="45" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48522,7 +48489,7 @@
         <v>774</v>
       </c>
       <c r="B251" s="45" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48530,7 +48497,7 @@
         <v>788</v>
       </c>
       <c r="B252" s="45" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48538,7 +48505,7 @@
         <v>849</v>
       </c>
       <c r="B253" s="45" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48546,7 +48513,7 @@
         <v>775</v>
       </c>
       <c r="B254" s="45" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48554,7 +48521,7 @@
         <v>776</v>
       </c>
       <c r="B255" s="45" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48562,7 +48529,7 @@
         <v>777</v>
       </c>
       <c r="B256" s="45" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48570,7 +48537,7 @@
         <v>779</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48578,7 +48545,7 @@
         <v>778</v>
       </c>
       <c r="B258" s="45" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48586,7 +48553,7 @@
         <v>768</v>
       </c>
       <c r="B259" s="45" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48594,7 +48561,7 @@
         <v>769</v>
       </c>
       <c r="B260" s="45" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48602,7 +48569,7 @@
         <v>857</v>
       </c>
       <c r="B261" s="45" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48610,7 +48577,7 @@
         <v>859</v>
       </c>
       <c r="B262" s="45" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -48618,7 +48585,7 @@
         <v>784</v>
       </c>
       <c r="B263" s="45" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48626,7 +48593,7 @@
         <v>785</v>
       </c>
       <c r="B264" s="45" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48634,7 +48601,7 @@
         <v>792</v>
       </c>
       <c r="B265" s="45" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48642,7 +48609,7 @@
         <v>794</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48650,7 +48617,7 @@
         <v>810</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48658,7 +48625,7 @@
         <v>1004</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48666,7 +48633,7 @@
         <v>1006</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48674,7 +48641,7 @@
         <v>1007</v>
       </c>
       <c r="B270" s="45" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48682,7 +48649,7 @@
         <v>1205</v>
       </c>
       <c r="B271" s="47" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48690,7 +48657,7 @@
         <v>1206</v>
       </c>
       <c r="B272" s="47" t="s">
-        <v>1645</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48698,7 +48665,7 @@
         <v>1207</v>
       </c>
       <c r="B273" s="47" t="s">
-        <v>1646</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48706,7 +48673,7 @@
         <v>1208</v>
       </c>
       <c r="B274" s="47" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48714,7 +48681,7 @@
         <v>1209</v>
       </c>
       <c r="B275" s="47" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48722,7 +48689,7 @@
         <v>1210</v>
       </c>
       <c r="B276" s="47" t="s">
-        <v>1648</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48730,7 +48697,7 @@
         <v>1211</v>
       </c>
       <c r="B277" s="47" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -48738,7 +48705,7 @@
         <v>1212</v>
       </c>
       <c r="B278" s="47" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -48746,7 +48713,7 @@
         <v>1213</v>
       </c>
       <c r="B279" s="47" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48754,7 +48721,7 @@
         <v>865</v>
       </c>
       <c r="B280" s="45" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48762,7 +48729,7 @@
         <v>867</v>
       </c>
       <c r="B281" s="45" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48770,7 +48737,7 @@
         <v>869</v>
       </c>
       <c r="B282" s="45" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48778,7 +48745,7 @@
         <v>871</v>
       </c>
       <c r="B283" s="45" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48786,7 +48753,7 @@
         <v>873</v>
       </c>
       <c r="B284" s="45" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48794,7 +48761,7 @@
         <v>875</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48802,7 +48769,7 @@
         <v>764</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48810,7 +48777,7 @@
         <v>876</v>
       </c>
       <c r="B287" s="45" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48818,7 +48785,7 @@
         <v>878</v>
       </c>
       <c r="B288" s="45" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48826,7 +48793,7 @@
         <v>801</v>
       </c>
       <c r="B289" s="45" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48834,7 +48801,7 @@
         <v>763</v>
       </c>
       <c r="B290" s="45" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48842,7 +48809,7 @@
         <v>881</v>
       </c>
       <c r="B291" s="45" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48850,7 +48817,7 @@
         <v>882</v>
       </c>
       <c r="B292" s="45" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48858,7 +48825,7 @@
         <v>883</v>
       </c>
       <c r="B293" s="45" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48866,7 +48833,7 @@
         <v>885</v>
       </c>
       <c r="B294" s="45" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48874,7 +48841,7 @@
         <v>887</v>
       </c>
       <c r="B295" s="45" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48882,7 +48849,7 @@
         <v>802</v>
       </c>
       <c r="B296" s="45" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48890,7 +48857,7 @@
         <v>889</v>
       </c>
       <c r="B297" s="45" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48898,7 +48865,7 @@
         <v>806</v>
       </c>
       <c r="B298" s="45" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48906,7 +48873,7 @@
         <v>891</v>
       </c>
       <c r="B299" s="45" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -48914,7 +48881,7 @@
         <v>809</v>
       </c>
       <c r="B300" s="45" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48922,7 +48889,7 @@
         <v>894</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48930,7 +48897,7 @@
         <v>895</v>
       </c>
       <c r="B302" s="45" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48938,7 +48905,7 @@
         <v>896</v>
       </c>
       <c r="B303" s="45" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48946,7 +48913,7 @@
         <v>897</v>
       </c>
       <c r="B304" s="45" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48954,7 +48921,7 @@
         <v>899</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48962,7 +48929,7 @@
         <v>901</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -48970,7 +48937,7 @@
         <v>902</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48978,7 +48945,7 @@
         <v>807</v>
       </c>
       <c r="B308" s="45" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48986,7 +48953,7 @@
         <v>808</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -48994,7 +48961,7 @@
         <v>795</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49002,7 +48969,7 @@
         <v>797</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49010,7 +48977,7 @@
         <v>798</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49018,7 +48985,7 @@
         <v>799</v>
       </c>
       <c r="B313" s="45" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49026,7 +48993,7 @@
         <v>800</v>
       </c>
       <c r="B314" s="45" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49034,7 +49001,7 @@
         <v>705</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49042,7 +49009,7 @@
         <v>707</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49050,7 +49017,7 @@
         <v>709</v>
       </c>
       <c r="B317" s="45" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49058,7 +49025,7 @@
         <v>711</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49066,7 +49033,7 @@
         <v>713</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49074,7 +49041,7 @@
         <v>714</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49082,7 +49049,7 @@
         <v>716</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49090,7 +49057,7 @@
         <v>718</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49098,7 +49065,7 @@
         <v>720</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49106,7 +49073,7 @@
         <v>721</v>
       </c>
       <c r="B324" s="45" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49114,7 +49081,7 @@
         <v>723</v>
       </c>
       <c r="B325" s="45" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49122,7 +49089,7 @@
         <v>725</v>
       </c>
       <c r="B326" s="45" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49130,7 +49097,7 @@
         <v>727</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49138,7 +49105,7 @@
         <v>729</v>
       </c>
       <c r="B328" s="45" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49146,7 +49113,7 @@
         <v>789</v>
       </c>
       <c r="B329" s="45" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -49154,7 +49121,7 @@
         <v>790</v>
       </c>
       <c r="B330" s="45" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49162,7 +49129,7 @@
         <v>791</v>
       </c>
       <c r="B331" s="45" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49170,7 +49137,7 @@
         <v>913</v>
       </c>
       <c r="B332" s="45" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49178,7 +49145,7 @@
         <v>915</v>
       </c>
       <c r="B333" s="45" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49186,7 +49153,7 @@
         <v>917</v>
       </c>
       <c r="B334" s="34" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49194,7 +49161,7 @@
         <v>919</v>
       </c>
       <c r="B335" s="34" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49202,7 +49169,7 @@
         <v>921</v>
       </c>
       <c r="B336" s="45" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49210,7 +49177,7 @@
         <v>923</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49218,7 +49185,7 @@
         <v>925</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49226,7 +49193,7 @@
         <v>927</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49234,7 +49201,7 @@
         <v>929</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49242,7 +49209,7 @@
         <v>931</v>
       </c>
       <c r="B341" s="45" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49250,7 +49217,7 @@
         <v>933</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49258,7 +49225,7 @@
         <v>935</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49266,7 +49233,7 @@
         <v>937</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49274,7 +49241,7 @@
         <v>939</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49282,7 +49249,7 @@
         <v>941</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49290,7 +49257,7 @@
         <v>943</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49298,7 +49265,7 @@
         <v>945</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49306,7 +49273,7 @@
         <v>947</v>
       </c>
       <c r="B349" s="45" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49314,7 +49281,7 @@
         <v>948</v>
       </c>
       <c r="B350" s="45" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49322,7 +49289,7 @@
         <v>950</v>
       </c>
       <c r="B351" s="45" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49330,7 +49297,7 @@
         <v>952</v>
       </c>
       <c r="B352" s="45" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49338,7 +49305,7 @@
         <v>954</v>
       </c>
       <c r="B353" s="45" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49346,7 +49313,7 @@
         <v>955</v>
       </c>
       <c r="B354" s="45" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49354,7 +49321,7 @@
         <v>957</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49362,7 +49329,7 @@
         <v>959</v>
       </c>
       <c r="B356" s="45" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49370,7 +49337,7 @@
         <v>961</v>
       </c>
       <c r="B357" s="45" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -49378,7 +49345,7 @@
         <v>963</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49386,23 +49353,23 @@
         <v>965</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="53" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="B360" s="45" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="53" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="B361" s="45" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49410,7 +49377,7 @@
         <v>1009</v>
       </c>
       <c r="B362" s="45" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49418,7 +49385,7 @@
         <v>1010</v>
       </c>
       <c r="B363" s="45" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49426,7 +49393,7 @@
         <v>1011</v>
       </c>
       <c r="B364" s="45" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49434,7 +49401,7 @@
         <v>1012</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49442,7 +49409,7 @@
         <v>1013</v>
       </c>
       <c r="B366" s="45" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49450,7 +49417,7 @@
         <v>1014</v>
       </c>
       <c r="B367" s="46" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49458,7 +49425,7 @@
         <v>1015</v>
       </c>
       <c r="B368" s="46" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49466,7 +49433,7 @@
         <v>1016</v>
       </c>
       <c r="B369" s="46" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49474,7 +49441,7 @@
         <v>1017</v>
       </c>
       <c r="B370" s="45" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49482,7 +49449,7 @@
         <v>1018</v>
       </c>
       <c r="B371" s="45" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49490,7 +49457,7 @@
         <v>1019</v>
       </c>
       <c r="B372" s="45" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49498,7 +49465,7 @@
         <v>1020</v>
       </c>
       <c r="B373" s="45" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -49506,7 +49473,7 @@
         <v>1021</v>
       </c>
       <c r="B374" s="45" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49514,7 +49481,7 @@
         <v>1022</v>
       </c>
       <c r="B375" s="45" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49522,7 +49489,7 @@
         <v>1023</v>
       </c>
       <c r="B376" s="45" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49530,7 +49497,7 @@
         <v>1024</v>
       </c>
       <c r="B377" s="45" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49538,7 +49505,7 @@
         <v>1223</v>
       </c>
       <c r="B378" s="47" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49546,7 +49513,7 @@
         <v>1224</v>
       </c>
       <c r="B379" s="47" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49554,7 +49521,7 @@
         <v>463</v>
       </c>
       <c r="B380" s="60" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49562,7 +49529,7 @@
         <v>268</v>
       </c>
       <c r="B381" s="60" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -49570,7 +49537,7 @@
         <v>457</v>
       </c>
       <c r="B382" s="60" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -49578,7 +49545,7 @@
         <v>464</v>
       </c>
       <c r="B383" s="37" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -49586,7 +49553,7 @@
         <v>466</v>
       </c>
       <c r="B384" s="37" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -49594,13 +49561,13 @@
         <v>1252</v>
       </c>
       <c r="B385" s="68" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49642,10 +49609,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="6" t="s">
         <v>58</v>
       </c>
@@ -49930,12 +49897,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49948,21 +49915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="683f33f1965a4281e1148fdccc0154fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97b5ec5cda9bef38850541e6e5484e88" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -50179,10 +50131,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50205,20 +50183,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>